--- a/nscod16-step4.xlsx
+++ b/nscod16-step4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\dtu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\dtu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10231,27 +10231,12 @@
         <f t="shared" si="25"/>
         <v>12.642153498347383</v>
       </c>
-      <c r="R45">
-        <v>2016</v>
-      </c>
-      <c r="S45" s="12">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="T45" s="12">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="U45" s="12">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="V45" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="W45" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="X45" s="12">
-        <v>0.2</v>
-      </c>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
       <c r="AP45">
         <v>2016</v>
       </c>

--- a/nscod16-step4.xlsx
+++ b/nscod16-step4.xlsx
@@ -2769,23 +2769,23 @@
       </c>
       <c r="K8" s="11">
         <f>EXP(K54)</f>
-        <v>1.2210054926192453</v>
+        <v>1.2210651604218674</v>
       </c>
       <c r="L8" s="11">
         <f t="shared" ref="L8:P8" si="0">EXP(L54)</f>
-        <v>5.0261003097189052</v>
+        <v>5.0258371183686785</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>6.2494715593243964</v>
+        <v>6.2459447850169179</v>
       </c>
       <c r="N8" s="11">
         <f t="shared" si="0"/>
-        <v>4.970746047210767</v>
+        <v>4.9689532970790591</v>
       </c>
       <c r="O8" s="11">
         <f t="shared" si="0"/>
-        <v>3.8804950701527585</v>
+        <v>3.8776646129064742</v>
       </c>
       <c r="P8" s="11">
         <f t="shared" si="0"/>
@@ -2796,23 +2796,23 @@
       </c>
       <c r="AX8" s="6">
         <f>EXP(AX54)</f>
-        <v>6.2888397468524202E-3</v>
+        <v>6.288238834722547E-3</v>
       </c>
       <c r="AY8" s="6">
         <f t="shared" ref="AY8:BB8" si="1">EXP(AY54)</f>
-        <v>2.8501143921786848E-2</v>
+        <v>2.849817592827036E-2</v>
       </c>
       <c r="AZ8" s="6">
         <f t="shared" si="1"/>
-        <v>5.4449887297868593E-2</v>
+        <v>5.4434155493760933E-2</v>
       </c>
       <c r="BA8" s="6">
         <f t="shared" si="1"/>
-        <v>5.4904752984009035E-2</v>
+        <v>5.486260652813793E-2</v>
       </c>
       <c r="BB8" s="6">
         <f t="shared" si="1"/>
-        <v>6.6190350012338445E-2</v>
+        <v>6.614588533019844E-2</v>
       </c>
     </row>
     <row r="11" spans="1:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3015,58 +3015,58 @@
       </c>
       <c r="B12" s="4">
         <f>EXP(B57)</f>
-        <v>889.32013763106454</v>
+        <v>889.01692402334425</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ref="C12:G12" si="2">EXP(C57)</f>
-        <v>306.36285517686372</v>
+        <v>306.41166821730098</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="2"/>
-        <v>33.248642435678697</v>
+        <v>33.239579857120276</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>20.676555528709404</v>
+        <v>20.714808155647205</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>6.1119802833291059</v>
+        <v>6.1213444864260724</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="2"/>
-        <v>16.389916901155324</v>
+        <v>16.381654500409262</v>
       </c>
       <c r="I12">
         <v>1983</v>
       </c>
       <c r="J12" s="11">
         <f>EXP(J57)</f>
-        <v>0.17536898912777871</v>
+        <v>0.17546051179886876</v>
       </c>
       <c r="K12" s="13">
         <f>$J12*K$8</f>
-        <v>0.21412649896010252</v>
+        <v>0.21424871798738865</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" ref="L12:P27" si="3">$J12*L$8</f>
-        <v>0.8814221305702199</v>
+        <v>0.88183595300672013</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="3"/>
-        <v>1.0959635099415224</v>
+        <v>1.0959166686465438</v>
       </c>
       <c r="N12" s="13">
         <f t="shared" si="3"/>
-        <v>0.87171470951025398</v>
+        <v>0.87185508861016814</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="3"/>
-        <v>0.68051849776801798</v>
+        <v>0.6803770175649323</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="3"/>
-        <v>0.17536898912777871</v>
+        <v>0.17546051179886876</v>
       </c>
       <c r="R12">
         <v>1983</v>
@@ -3115,27 +3115,27 @@
       </c>
       <c r="AI12" s="5">
         <f>K12/(K12+S12) * B12*(1-EXP(-K12-S12))</f>
-        <v>96.016577898367842</v>
+        <v>96.034235015731483</v>
       </c>
       <c r="AJ12" s="5">
         <f t="shared" ref="AJ12:AN12" si="4">L12/(L12+T12) * C12*(1-EXP(-L12-T12))</f>
-        <v>134.87689651963063</v>
+        <v>134.94093035674985</v>
       </c>
       <c r="AK12" s="5">
         <f t="shared" si="4"/>
-        <v>20.327174043192464</v>
+        <v>20.321139948978679</v>
       </c>
       <c r="AL12" s="5">
         <f t="shared" si="4"/>
-        <v>11.059141171313255</v>
+        <v>11.080743922936144</v>
       </c>
       <c r="AM12" s="5">
         <f t="shared" si="4"/>
-        <v>2.7654125178877909</v>
+        <v>2.769241121784336</v>
       </c>
       <c r="AN12" s="5">
         <f t="shared" si="4"/>
-        <v>2.3964365088421506</v>
+        <v>2.3963756482492302</v>
       </c>
       <c r="AP12">
         <v>1983</v>
@@ -3160,23 +3160,23 @@
       </c>
       <c r="AX12" s="13">
         <f>AX$8*B12</f>
-        <v>5.5927918292105039</v>
+        <v>5.5903507463691771</v>
       </c>
       <c r="AY12" s="13">
         <f t="shared" ref="AY12:BB12" si="5">AY$8*C12</f>
-        <v>8.7316918276853333</v>
+        <v>8.7321736273314521</v>
       </c>
       <c r="AZ12" s="13">
         <f t="shared" si="5"/>
-        <v>1.8103848334298362</v>
+        <v>1.8093684584897689</v>
       </c>
       <c r="BA12" s="13">
         <f t="shared" si="5"/>
-        <v>1.1352411738639361</v>
+        <v>1.1364683691491353</v>
       </c>
       <c r="BB12" s="13">
         <f t="shared" si="5"/>
-        <v>0.404554114222065</v>
+        <v>0.40490175046578142</v>
       </c>
       <c r="BD12">
         <v>1983</v>
@@ -3221,10 +3221,12 @@
         <v>9.3949999999999996</v>
       </c>
       <c r="BT12" s="5">
-        <v>215.04135138742413</v>
+        <f>SUMPRODUCT(B12:G12,BE12:BJ12,BM12:BR12)</f>
+        <v>266.53205725556211</v>
       </c>
       <c r="BU12" s="17">
-        <v>0.80580863265609448</v>
+        <f>AVERAGE(L12:N12)</f>
+        <v>0.94986923675447732</v>
       </c>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.25">
@@ -3233,58 +3235,58 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" ref="B13:B45" si="6">EXP(B58)</f>
-        <v>1902.0373338281902</v>
+        <v>1902.2340348680475</v>
       </c>
       <c r="C13" s="5">
         <f>B12*EXP(-K12-S12)</f>
-        <v>184.81046410531943</v>
+        <v>184.72487472272834</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" ref="D13:F13" si="7">C12*EXP(-L12-T12)</f>
-        <v>62.075294156277373</v>
+        <v>62.059497735778322</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="7"/>
-        <v>8.9894388512958159</v>
+        <v>8.9874095730487298</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="7"/>
-        <v>7.0800839554515731</v>
+        <v>7.0921867882380241</v>
       </c>
       <c r="G13" s="5">
         <f>F12*EXP(-O12-W12) + G12*EXP(-P12-X12)</f>
-        <v>13.794289264806187</v>
+        <v>13.79182383935993</v>
       </c>
       <c r="I13">
         <v>1984</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" ref="J13:J44" si="8">EXP(J58)</f>
-        <v>0.18086791301831637</v>
+        <v>0.18072178847961995</v>
       </c>
       <c r="K13" s="13">
         <f t="shared" ref="K13:P44" si="9">$J13*K$8</f>
-        <v>0.22084071523394419</v>
+        <v>0.22067307964159391</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="3"/>
-        <v>0.90906027363957187</v>
+        <v>0.90827827263884697</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="3"/>
-        <v>1.1303288784023269</v>
+        <v>1.1287783122932127</v>
       </c>
       <c r="N13" s="13">
         <f t="shared" si="3"/>
-        <v>0.89904846370305691</v>
+        <v>0.89799812671983181</v>
       </c>
       <c r="O13" s="13">
         <f t="shared" si="3"/>
-        <v>0.70185704481639455</v>
+        <v>0.70077848396859121</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="3"/>
-        <v>0.18086791301831637</v>
+        <v>0.18072178847961995</v>
       </c>
       <c r="R13">
         <v>1984</v>
@@ -3333,27 +3335,27 @@
       </c>
       <c r="AI13" s="5">
         <f t="shared" ref="AI13:AI44" si="10">K13/(K13+S13) * B13*(1-EXP(-K13-S13))</f>
-        <v>212.29409426414696</v>
+        <v>212.16820828148656</v>
       </c>
       <c r="AJ13" s="5">
         <f t="shared" ref="AJ13:AJ44" si="11">L13/(L13+T13) * C13*(1-EXP(-L13-T13))</f>
-        <v>82.996301430343976</v>
+        <v>82.910496467040659</v>
       </c>
       <c r="AK13" s="5">
         <f t="shared" ref="AK13:AK44" si="12">M13/(M13+U13) * D13*(1-EXP(-M13-U13))</f>
-        <v>38.616247050941986</v>
+        <v>38.576866719045718</v>
       </c>
       <c r="AL13" s="5">
         <f t="shared" ref="AL13:AL44" si="13">N13/(N13+V13) * E13*(1-EXP(-N13-V13))</f>
-        <v>4.9034558177261252</v>
+        <v>4.8987320055582888</v>
       </c>
       <c r="AM13" s="5">
         <f t="shared" ref="AM13:AM44" si="14">O13/(O13+W13) * F13*(1-EXP(-O13-W13))</f>
-        <v>3.2739406536517395</v>
+        <v>3.2760019191789258</v>
       </c>
       <c r="AN13" s="5">
         <f t="shared" ref="AN13:AN44" si="15">P13/(P13+X13) * G13*(1-EXP(-P13-X13))</f>
-        <v>2.0748095046474866</v>
+        <v>2.072904581066406</v>
       </c>
       <c r="AP13">
         <v>1984</v>
@@ -3378,23 +3380,23 @@
       </c>
       <c r="AX13" s="13">
         <f t="shared" ref="AX13:AX45" si="16">AX$8*B13</f>
-        <v>11.961607984975927</v>
+        <v>11.96170193078822</v>
       </c>
       <c r="AY13" s="13">
         <f t="shared" ref="AY13:AY45" si="17">AY$8*C13</f>
-        <v>5.2673096357179308</v>
+        <v>5.2643219781760147</v>
       </c>
       <c r="AZ13" s="13">
         <f t="shared" ref="AZ13:AZ45" si="18">AZ$8*D13</f>
-        <v>3.3799927707913437</v>
+        <v>3.3781563496140619</v>
       </c>
       <c r="BA13" s="13">
         <f t="shared" ref="BA13:BA45" si="19">BA$8*E13</f>
-        <v>0.49356291959525073</v>
+        <v>0.49307271511339257</v>
       </c>
       <c r="BB13" s="13">
         <f t="shared" ref="BB13:BB45" si="20">BB$8*F13</f>
-        <v>0.46863323512808125</v>
+        <v>0.46911897403514069</v>
       </c>
       <c r="BD13">
         <v>1984</v>
@@ -3439,10 +3441,12 @@
         <v>9.577</v>
       </c>
       <c r="BT13" s="5">
-        <v>186.84041034096009</v>
+        <f t="shared" ref="BT13:BT45" si="21">SUMPRODUCT(B13:G13,BE13:BJ13,BM13:BR13)</f>
+        <v>236.77091023806389</v>
       </c>
       <c r="BU13" s="17">
-        <v>0.83749306933298451</v>
+        <f t="shared" ref="BU13:BU44" si="22">AVERAGE(L13:N13)</f>
+        <v>0.9783515705506306</v>
       </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.25">
@@ -3451,58 +3455,58 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" si="6"/>
-        <v>402.87477181661853</v>
+        <v>403.11066128158478</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:C45" si="21">B13*EXP(-K13-S13)</f>
-        <v>397.75655862633295</v>
+        <f t="shared" ref="C14:C45" si="23">B13*EXP(-K13-S13)</f>
+        <v>397.86438364911362</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" ref="D14:D45" si="22">C13*EXP(-L13-T13)</f>
-        <v>36.352773753748913</v>
+        <f t="shared" ref="D14:D45" si="24">C13*EXP(-L13-T13)</f>
+        <v>36.364363917949987</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" ref="E14:E45" si="23">D13*EXP(-M13-U13)</f>
-        <v>16.216337013409593</v>
+        <f t="shared" ref="E14:E45" si="25">D13*EXP(-M13-U13)</f>
+        <v>16.237368013917855</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" ref="F14:F45" si="24">E13*EXP(-N13-V13)</f>
-        <v>2.9951729124935786</v>
+        <f t="shared" ref="F14:F45" si="26">E13*EXP(-N13-V13)</f>
+        <v>2.9976436644572209</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" ref="G14:G45" si="25">F13*EXP(-O13-W13) + G13*EXP(-P13-X13)</f>
-        <v>12.298404986259065</v>
+        <f t="shared" ref="G14:G45" si="27">F13*EXP(-O13-W13) + G13*EXP(-P13-X13)</f>
+        <v>12.306114962320283</v>
       </c>
       <c r="I14">
         <v>1985</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" si="8"/>
-        <v>0.17435934651809218</v>
+        <v>0.17442865247199155</v>
       </c>
       <c r="K14" s="13">
         <f t="shared" si="9"/>
-        <v>0.21289371978809282</v>
+        <v>0.21298875051288252</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="3"/>
-        <v>0.87634756553696902</v>
+        <v>0.87664999610076566</v>
       </c>
       <c r="M14" s="13">
         <f t="shared" si="3"/>
-        <v>1.0896537771672044</v>
+        <v>1.0894717322649639</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" si="3"/>
-        <v>0.86669603249905913</v>
+        <v>0.86672782780575974</v>
       </c>
       <c r="O14" s="13">
         <f t="shared" si="3"/>
-        <v>0.67660058459851324</v>
+        <v>0.67637581316760298</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="3"/>
-        <v>0.17435934651809218</v>
+        <v>0.17442865247199155</v>
       </c>
       <c r="R14">
         <v>1985</v>
@@ -3551,27 +3555,27 @@
       </c>
       <c r="AI14" s="5">
         <f t="shared" si="10"/>
-        <v>43.78935709350651</v>
+        <v>43.832985585151363</v>
       </c>
       <c r="AJ14" s="5">
         <f t="shared" si="11"/>
-        <v>174.23954742480254</v>
+        <v>174.32729117537343</v>
       </c>
       <c r="AK14" s="5">
         <f t="shared" si="12"/>
-        <v>22.143286544285104</v>
+        <v>22.148235953925035</v>
       </c>
       <c r="AL14" s="5">
         <f t="shared" si="13"/>
-        <v>8.6414694233747493</v>
+        <v>8.6528804351458071</v>
       </c>
       <c r="AM14" s="5">
         <f t="shared" si="14"/>
-        <v>1.3496466360092991</v>
+        <v>1.3504411148940416</v>
       </c>
       <c r="AN14" s="5">
         <f t="shared" si="15"/>
-        <v>1.788693692036214</v>
+        <v>1.7904682881728928</v>
       </c>
       <c r="AP14">
         <v>1985</v>
@@ -3596,23 +3600,23 @@
       </c>
       <c r="AX14" s="13">
         <f t="shared" si="16"/>
-        <v>2.5336148780044501</v>
+        <v>2.5348561149615478</v>
       </c>
       <c r="AY14" s="13">
         <f t="shared" si="17"/>
-        <v>11.336516923243764</v>
+        <v>11.338409200825293</v>
       </c>
       <c r="AZ14" s="13">
         <f t="shared" si="18"/>
-        <v>1.9794044338565437</v>
+        <v>1.9794634399413991</v>
       </c>
       <c r="BA14" s="13">
         <f t="shared" si="19"/>
-        <v>0.89035397802669647</v>
+        <v>0.8908243324001478</v>
       </c>
       <c r="BB14" s="13">
         <f t="shared" si="20"/>
-        <v>0.19825154342542511</v>
+        <v>0.19828179408998317</v>
       </c>
       <c r="BD14">
         <v>1985</v>
@@ -3657,10 +3661,12 @@
         <v>9.4949999999999992</v>
       </c>
       <c r="BT14" s="5">
-        <v>184.8117210113447</v>
+        <f t="shared" si="21"/>
+        <v>221.58405290068453</v>
       </c>
       <c r="BU14" s="17">
-        <v>0.78430018379096145</v>
+        <f t="shared" si="22"/>
+        <v>0.94428318539049638</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.25">
@@ -3669,58 +3675,58 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" si="6"/>
-        <v>1939.3368281459327</v>
+        <v>1940.329041770568</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="21"/>
-        <v>86.550845799950892</v>
+        <f t="shared" si="23"/>
+        <v>86.593293256184836</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="22"/>
-        <v>80.760872004233079</v>
+        <f t="shared" si="24"/>
+        <v>80.758337416823551</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="23"/>
-        <v>9.8810297372249103</v>
+        <f t="shared" si="25"/>
+        <v>9.8859795824984271</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="24"/>
-        <v>5.5807499064779762</v>
+        <f t="shared" si="26"/>
+        <v>5.5878099234458656</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="25"/>
-        <v>9.7045557715216493</v>
+        <f t="shared" si="27"/>
+        <v>9.7105803888348134</v>
       </c>
       <c r="I15">
         <v>1986</v>
       </c>
       <c r="J15" s="11">
         <f t="shared" si="8"/>
-        <v>0.20378241047011136</v>
+        <v>0.20388148411429866</v>
       </c>
       <c r="K15" s="13">
         <f t="shared" si="9"/>
-        <v>0.24881944248319557</v>
+        <v>0.2489525771070745</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="3"/>
-        <v>1.0242308363790917</v>
+        <v>1.0246751306097364</v>
       </c>
       <c r="M15" s="13">
         <f t="shared" si="3"/>
-        <v>1.2735323785235311</v>
+        <v>1.2734324924652132</v>
       </c>
       <c r="N15" s="13">
         <f t="shared" si="3"/>
-        <v>1.0129506113353881</v>
+        <v>1.013077572703116</v>
       </c>
       <c r="O15" s="13">
         <f t="shared" si="3"/>
-        <v>0.79077663921311303</v>
+        <v>0.79058401617686935</v>
       </c>
       <c r="P15" s="13">
         <f t="shared" si="3"/>
-        <v>0.20378241047011136</v>
+        <v>0.20388148411429866</v>
       </c>
       <c r="R15">
         <v>1986</v>
@@ -3769,27 +3775,27 @@
       </c>
       <c r="AI15" s="5">
         <f t="shared" si="10"/>
-        <v>245.25894249411465</v>
+        <v>245.50343861811163</v>
       </c>
       <c r="AJ15" s="5">
         <f t="shared" si="11"/>
-        <v>41.971003699513197</v>
+        <v>42.003053402817301</v>
       </c>
       <c r="AK15" s="5">
         <f t="shared" si="12"/>
-        <v>53.541471998726081</v>
+        <v>53.537626950625381</v>
       </c>
       <c r="AL15" s="5">
         <f t="shared" si="13"/>
-        <v>5.7983676435986586</v>
+        <v>5.8017038136242656</v>
       </c>
       <c r="AM15" s="5">
         <f t="shared" si="14"/>
-        <v>2.8004139339657441</v>
+        <v>2.8034997652483171</v>
       </c>
       <c r="AN15" s="5">
         <f t="shared" si="15"/>
-        <v>1.6270782219596995</v>
+        <v>1.6288045790227963</v>
       </c>
       <c r="AP15">
         <v>1986</v>
@@ -3814,23 +3820,23 @@
       </c>
       <c r="AX15" s="13">
         <f t="shared" si="16"/>
-        <v>12.196178527378843</v>
+        <v>12.201252432601672</v>
       </c>
       <c r="AY15" s="13">
         <f t="shared" si="17"/>
-        <v>2.4667981126967811</v>
+        <v>2.4677509054230629</v>
       </c>
       <c r="AZ15" s="13">
         <f t="shared" si="18"/>
-        <v>4.3974203787080821</v>
+        <v>4.3960118963649846</v>
       </c>
       <c r="BA15" s="13">
         <f t="shared" si="19"/>
-        <v>0.54251549694998136</v>
+        <v>0.54237060797981651</v>
       </c>
       <c r="BB15" s="13">
         <f t="shared" si="20"/>
-        <v>0.36939178964110231</v>
+        <v>0.36961063444319514</v>
       </c>
       <c r="BD15">
         <v>1986</v>
@@ -3875,10 +3881,12 @@
         <v>9.7509999999999994</v>
       </c>
       <c r="BT15" s="5">
-        <v>155.57030431481911</v>
+        <f t="shared" si="21"/>
+        <v>195.08478275262075</v>
       </c>
       <c r="BU15" s="17">
-        <v>0.97591433582355691</v>
+        <f t="shared" si="22"/>
+        <v>1.1037283985926887</v>
       </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.25">
@@ -3887,58 +3895,58 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" si="6"/>
-        <v>669.06859075091472</v>
+        <v>669.38804185129823</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="21"/>
-        <v>411.69464019304371</v>
+        <f t="shared" si="23"/>
+        <v>411.85043834912392</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="22"/>
-        <v>15.157587286487974</v>
+        <f t="shared" si="24"/>
+        <v>15.158284844098313</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="23"/>
-        <v>18.26451693535666</v>
+        <f t="shared" si="25"/>
+        <v>18.265768128887963</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="24"/>
-        <v>2.9378150342114626</v>
+        <f t="shared" si="26"/>
+        <v>2.9389135636594061</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="25"/>
-        <v>8.5526662779414462</v>
+        <f t="shared" si="27"/>
+        <v>8.5590680025401404</v>
       </c>
       <c r="I16">
         <v>1987</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="8"/>
-        <v>0.17163611563297082</v>
+        <v>0.17176809150345973</v>
       </c>
       <c r="K16" s="13">
         <f t="shared" si="9"/>
-        <v>0.2095686399196893</v>
+        <v>0.20974003220703005</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="3"/>
-        <v>0.86266033394182451</v>
+        <v>0.8632784500294356</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="3"/>
-        <v>1.0726350232011646</v>
+        <v>1.072854015358343</v>
       </c>
       <c r="N16" s="13">
         <f t="shared" si="3"/>
-        <v>0.85315954334119981</v>
+        <v>0.85350762460909368</v>
       </c>
       <c r="O16" s="13">
         <f t="shared" si="3"/>
-        <v>0.66603310057391207</v>
+        <v>0.66605905004944699</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" si="3"/>
-        <v>0.17163611563297082</v>
+        <v>0.17176809150345973</v>
       </c>
       <c r="R16">
         <v>1987</v>
@@ -3987,27 +3995,27 @@
       </c>
       <c r="AI16" s="5">
         <f t="shared" si="10"/>
-        <v>73.074541062280474</v>
+        <v>73.164448601052882</v>
       </c>
       <c r="AJ16" s="5">
         <f t="shared" si="11"/>
-        <v>178.43702400734801</v>
+        <v>178.59122469461667</v>
       </c>
       <c r="AK16" s="5">
         <f t="shared" si="12"/>
-        <v>9.146313579066339</v>
+        <v>9.1478093426946838</v>
       </c>
       <c r="AL16" s="5">
         <f t="shared" si="13"/>
-        <v>9.6346533128369956</v>
+        <v>9.6378561343812983</v>
       </c>
       <c r="AM16" s="5">
         <f t="shared" si="14"/>
-        <v>1.3090362626383369</v>
+        <v>1.3095621989746302</v>
       </c>
       <c r="AN16" s="5">
         <f t="shared" si="15"/>
-        <v>1.22604616047882</v>
+        <v>1.227831294440126</v>
       </c>
       <c r="AP16">
         <v>1987</v>
@@ -4032,23 +4040,23 @@
       </c>
       <c r="AX16" s="13">
         <f t="shared" si="16"/>
-        <v>4.2076651468848878</v>
+        <v>4.209271880268215</v>
       </c>
       <c r="AY16" s="13">
         <f t="shared" si="17"/>
-        <v>11.73376819197019</v>
+        <v>11.7369862482086</v>
       </c>
       <c r="AZ16" s="13">
         <f t="shared" si="18"/>
-        <v>0.82532891945687603</v>
+        <v>0.82512843422236726</v>
       </c>
       <c r="BA16" s="13">
         <f t="shared" si="19"/>
-        <v>1.0028087907080072</v>
+        <v>1.0021076497893826</v>
       </c>
       <c r="BB16" s="13">
         <f t="shared" si="20"/>
-        <v>0.19445500538596674</v>
+        <v>0.19439703957717994</v>
       </c>
       <c r="BD16">
         <v>1987</v>
@@ -4093,10 +4101,12 @@
         <v>9.5020000000000007</v>
       </c>
       <c r="BT16" s="5">
-        <v>160.77303544341504</v>
+        <f t="shared" si="21"/>
+        <v>180.19763801559242</v>
       </c>
       <c r="BU16" s="17">
-        <v>0.76311345123898722</v>
+        <f t="shared" si="22"/>
+        <v>0.92988002999895747</v>
       </c>
     </row>
     <row r="17" spans="1:73" x14ac:dyDescent="0.25">
@@ -4105,58 +4115,58 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" si="6"/>
-        <v>478.40987754874794</v>
+        <v>478.69492389214298</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="21"/>
-        <v>151.76267351984367</v>
+        <f t="shared" si="23"/>
+        <v>151.80911244319464</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="22"/>
-        <v>84.74286687311654</v>
+        <f t="shared" si="24"/>
+        <v>84.722551669764613</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="23"/>
-        <v>4.1865047379367386</v>
+        <f t="shared" si="25"/>
+        <v>4.1857806488772171</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="24"/>
-        <v>6.3712817692111683</v>
+        <f t="shared" si="26"/>
+        <v>6.3695007380646533</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="25"/>
-        <v>7.1336568948530248</v>
+        <f t="shared" si="27"/>
+        <v>7.1377226197611936</v>
       </c>
       <c r="I17">
         <v>1988</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="8"/>
-        <v>0.15859578913773514</v>
+        <v>0.15856099527658846</v>
       </c>
       <c r="K17" s="13">
         <f t="shared" si="9"/>
-        <v>0.19364632964345824</v>
+        <v>0.19361330713405844</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="3"/>
-        <v>0.79711834490528477</v>
+        <v>0.79690173558655897</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="3"/>
-        <v>0.99113987364488476</v>
+        <v>0.99036322155489986</v>
       </c>
       <c r="N17" s="13">
         <f t="shared" si="3"/>
-        <v>0.78833939196066927</v>
+        <v>0.78788218026774137</v>
       </c>
       <c r="O17" s="13">
         <f t="shared" si="3"/>
-        <v>0.61543017789596766</v>
+        <v>0.61484636037125762</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="3"/>
-        <v>0.15859578913773514</v>
+        <v>0.15856099527658846</v>
       </c>
       <c r="R17">
         <v>1988</v>
@@ -4205,27 +4215,27 @@
       </c>
       <c r="AI17" s="5">
         <f t="shared" si="10"/>
-        <v>49.080028150608499</v>
+        <v>49.101518907242983</v>
       </c>
       <c r="AJ17" s="5">
         <f t="shared" si="11"/>
-        <v>62.295558707786235</v>
+        <v>62.302793038640388</v>
       </c>
       <c r="AK17" s="5">
         <f t="shared" si="12"/>
-        <v>48.791165258605503</v>
+        <v>48.756460642971859</v>
       </c>
       <c r="AL17" s="5">
         <f t="shared" si="13"/>
-        <v>2.0964475478466653</v>
+        <v>2.0952706127612526</v>
       </c>
       <c r="AM17" s="5">
         <f t="shared" si="14"/>
-        <v>2.6810409954053354</v>
+        <v>2.6784256305706631</v>
       </c>
       <c r="AN17" s="5">
         <f t="shared" si="15"/>
-        <v>0.95073662748710464</v>
+        <v>0.95108534706177172</v>
       </c>
       <c r="AP17">
         <v>1988</v>
@@ -4250,23 +4260,23 @@
       </c>
       <c r="AX17" s="13">
         <f t="shared" si="16"/>
-        <v>3.0086430532153652</v>
+        <v>3.0101480104031273</v>
       </c>
       <c r="AY17" s="13">
         <f t="shared" si="17"/>
-        <v>4.3254097999442145</v>
+        <v>4.326282793920738</v>
       </c>
       <c r="AZ17" s="13">
         <f t="shared" si="18"/>
-        <v>4.6142395505394775</v>
+        <v>4.6118005514201617</v>
       </c>
       <c r="BA17" s="13">
         <f t="shared" si="19"/>
-        <v>0.22985900850280011</v>
+        <v>0.22964283675244462</v>
       </c>
       <c r="BB17" s="13">
         <f t="shared" si="20"/>
-        <v>0.42171737033131818</v>
+        <v>0.42131626543063888</v>
       </c>
       <c r="BD17">
         <v>1988</v>
@@ -4311,10 +4321,12 @@
         <v>9.3480000000000008</v>
       </c>
       <c r="BT17" s="5">
-        <v>165.09349026471807</v>
+        <f t="shared" si="21"/>
+        <v>182.05048987211507</v>
       </c>
       <c r="BU17" s="17">
-        <v>0.75178660030458244</v>
+        <f t="shared" si="22"/>
+        <v>0.85838237913640014</v>
       </c>
     </row>
     <row r="18" spans="1:73" x14ac:dyDescent="0.25">
@@ -4323,58 +4335,58 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" si="6"/>
-        <v>878.56981426228685</v>
+        <v>878.83801604265602</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="21"/>
-        <v>113.27534314183484</v>
+        <f t="shared" si="23"/>
+        <v>113.34657782370462</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="22"/>
-        <v>33.354730198069895</v>
+        <f t="shared" si="24"/>
+        <v>33.372164584552749</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="23"/>
-        <v>25.367826614080286</v>
+        <f t="shared" si="25"/>
+        <v>25.38145014949837</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="24"/>
-        <v>1.5581929779941595</v>
+        <f t="shared" si="26"/>
+        <v>1.5586359399029421</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="25"/>
-        <v>7.8029441359294012</v>
+        <f t="shared" si="27"/>
+        <v>7.8068159627919043</v>
       </c>
       <c r="I18">
         <v>1989</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="8"/>
-        <v>0.19240732562785465</v>
+        <v>0.19255671456255902</v>
       </c>
       <c r="K18" s="13">
         <f t="shared" si="9"/>
-        <v>0.2349304014117902</v>
+        <v>0.23512429555763886</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="3"/>
-        <v>0.96705851893034644</v>
+        <v>0.96775868343963178</v>
       </c>
       <c r="M18" s="13">
         <f t="shared" si="3"/>
-        <v>1.2024441093169456</v>
+        <v>1.2026986071420067</v>
       </c>
       <c r="N18" s="13">
         <f t="shared" si="3"/>
-        <v>0.95640795331905337</v>
+        <v>0.95680532170033894</v>
       </c>
       <c r="O18" s="13">
         <f t="shared" si="3"/>
-        <v>0.74663567856016644</v>
+        <v>0.74667035803676785</v>
       </c>
       <c r="P18" s="13">
         <f t="shared" si="3"/>
-        <v>0.19240732562785465</v>
+        <v>0.19255671456255902</v>
       </c>
       <c r="R18">
         <v>1989</v>
@@ -4423,27 +4435,27 @@
       </c>
       <c r="AI18" s="5">
         <f t="shared" si="10"/>
-        <v>108.75085632628833</v>
+        <v>108.8657560368562</v>
       </c>
       <c r="AJ18" s="5">
         <f t="shared" si="11"/>
-        <v>52.915388115909494</v>
+        <v>52.973437135724637</v>
       </c>
       <c r="AK18" s="5">
         <f t="shared" si="12"/>
-        <v>21.438529253202383</v>
+        <v>21.452169388940614</v>
       </c>
       <c r="AL18" s="5">
         <f t="shared" si="13"/>
-        <v>14.379720091068833</v>
+        <v>14.391100066038653</v>
       </c>
       <c r="AM18" s="5">
         <f t="shared" si="14"/>
-        <v>0.75208525134218707</v>
+        <v>0.75232297902068712</v>
       </c>
       <c r="AN18" s="5">
         <f t="shared" si="15"/>
-        <v>1.2418032450879588</v>
+        <v>1.2432972571575325</v>
       </c>
       <c r="AP18">
         <v>1989</v>
@@ -4468,23 +4480,23 @@
       </c>
       <c r="AX18" s="13">
         <f t="shared" si="16"/>
-        <v>5.525184768317418</v>
+        <v>5.5263433419099464</v>
       </c>
       <c r="AY18" s="13">
         <f t="shared" si="17"/>
-        <v>3.2284768576752256</v>
+        <v>3.2301707156873221</v>
       </c>
       <c r="AZ18" s="13">
         <f t="shared" si="18"/>
-        <v>1.81616130013572</v>
+        <v>1.8165855961589261</v>
       </c>
       <c r="BA18" s="13">
         <f t="shared" si="19"/>
-        <v>1.3928142539872483</v>
+        <v>1.3924925126654768</v>
       </c>
       <c r="BB18" s="13">
         <f t="shared" si="20"/>
-        <v>0.10313733860020138</v>
+        <v>0.10309735415234608</v>
       </c>
       <c r="BD18">
         <v>1989</v>
@@ -4529,10 +4541,12 @@
         <v>8.8209999999999997</v>
       </c>
       <c r="BT18" s="5">
-        <v>169.61859390097601</v>
+        <f t="shared" si="21"/>
+        <v>171.97718640726691</v>
       </c>
       <c r="BU18" s="17">
-        <v>0.82729815064879164</v>
+        <f t="shared" si="22"/>
+        <v>1.0424208707606593</v>
       </c>
     </row>
     <row r="19" spans="1:73" x14ac:dyDescent="0.25">
@@ -4541,58 +4555,58 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" si="6"/>
-        <v>357.84480608743678</v>
+        <v>357.89400216897582</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="21"/>
-        <v>205.07278664114418</v>
+        <f t="shared" si="23"/>
+        <v>205.0956186958604</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="22"/>
-        <v>20.963084311632027</v>
+        <f t="shared" si="24"/>
+        <v>20.961585524082626</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="23"/>
-        <v>8.0829385472856039</v>
+        <f t="shared" si="25"/>
+        <v>8.0851055638844258</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="24"/>
-        <v>7.9810800671635205</v>
+        <f t="shared" si="26"/>
+        <v>7.9821937240313998</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="25"/>
-        <v>5.8749822332379011</v>
+        <f t="shared" si="27"/>
+        <v>5.8769606300720048</v>
       </c>
       <c r="I19">
         <v>1990</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="8"/>
-        <v>0.16314188945314595</v>
+        <v>0.16328424409630829</v>
       </c>
       <c r="K19" s="13">
         <f t="shared" si="9"/>
-        <v>0.19919714309857292</v>
+        <v>0.19938070171182204</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="3"/>
-        <v>0.8199675011085843</v>
+        <v>0.82064001482399795</v>
       </c>
       <c r="M19" s="13">
         <f t="shared" si="3"/>
-        <v>1.0195505982718802</v>
+        <v>1.0198643728887662</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="3"/>
-        <v>0.81093690213372116</v>
+        <v>0.81135178306341293</v>
       </c>
       <c r="O19" s="13">
         <f t="shared" si="3"/>
-        <v>0.63307129775833915</v>
+        <v>0.63316153517743756</v>
       </c>
       <c r="P19" s="13">
         <f t="shared" si="3"/>
-        <v>0.16314188945314595</v>
+        <v>0.16328424409630829</v>
       </c>
       <c r="R19">
         <v>1990</v>
@@ -4641,27 +4655,27 @@
       </c>
       <c r="AI19" s="5">
         <f t="shared" si="10"/>
-        <v>38.431267364426681</v>
+        <v>38.469234644295781</v>
       </c>
       <c r="AJ19" s="5">
         <f t="shared" si="11"/>
-        <v>85.718438925482943</v>
+        <v>85.776584295627771</v>
       </c>
       <c r="AK19" s="5">
         <f t="shared" si="12"/>
-        <v>12.270122434718623</v>
+        <v>12.271482550930161</v>
       </c>
       <c r="AL19" s="5">
         <f t="shared" si="13"/>
-        <v>4.1245139188951025</v>
+        <v>4.1270160899301036</v>
       </c>
       <c r="AM19" s="5">
         <f t="shared" si="14"/>
-        <v>3.4284814699166786</v>
+        <v>3.4293151420101324</v>
       </c>
       <c r="AN19" s="5">
         <f t="shared" si="15"/>
-        <v>0.80371203780694211</v>
+        <v>0.80463041414413949</v>
       </c>
       <c r="AP19">
         <v>1990</v>
@@ -4686,23 +4700,23 @@
       </c>
       <c r="AX19" s="13">
         <f t="shared" si="16"/>
-        <v>2.2504286397273692</v>
+        <v>2.2505229631532293</v>
       </c>
       <c r="AY19" s="13">
         <f t="shared" si="17"/>
-        <v>5.8448090065011371</v>
+        <v>5.844851023712085</v>
       </c>
       <c r="AZ19" s="13">
         <f t="shared" si="18"/>
-        <v>1.1414375781840811</v>
+        <v>1.141026205813682</v>
       </c>
       <c r="BA19" s="13">
         <f t="shared" si="19"/>
-        <v>0.44379174432364094</v>
+        <v>0.44356996528984999</v>
       </c>
       <c r="BB19" s="13">
         <f t="shared" si="20"/>
-        <v>0.52827048312205105</v>
+        <v>0.52798927075321067</v>
       </c>
       <c r="BD19">
         <v>1990</v>
@@ -4747,10 +4761,12 @@
         <v>9.7690000000000001</v>
       </c>
       <c r="BT19" s="5">
-        <v>149.15258024965451</v>
+        <f t="shared" si="21"/>
+        <v>157.13940367152588</v>
       </c>
       <c r="BU19" s="17">
-        <v>0.84399066661850153</v>
+        <f t="shared" si="22"/>
+        <v>0.88395205692539236</v>
       </c>
     </row>
     <row r="20" spans="1:73" x14ac:dyDescent="0.25">
@@ -4759,58 +4775,58 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" si="6"/>
-        <v>387.61174025657056</v>
+        <v>387.66184137865935</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="21"/>
-        <v>88.668282777702288</v>
+        <f t="shared" si="23"/>
+        <v>88.664196217844776</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="22"/>
-        <v>43.877316222917884</v>
+        <f t="shared" si="24"/>
+        <v>43.852699901877124</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="23"/>
-        <v>6.0934376842038818</v>
+        <f t="shared" si="25"/>
+        <v>6.0910904951570082</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="24"/>
-        <v>2.9412027192523764</v>
+        <f t="shared" si="26"/>
+        <v>2.9407709258030446</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="25"/>
-        <v>7.5554502453096264</v>
+        <f t="shared" si="27"/>
+        <v>7.5564153979932325</v>
       </c>
       <c r="I20">
         <v>1991</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="8"/>
-        <v>0.18107853231271429</v>
+        <v>0.18100607148990319</v>
       </c>
       <c r="K20" s="13">
         <f t="shared" si="9"/>
-        <v>0.22109788254925564</v>
+        <v>0.22102020772115064</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="3"/>
-        <v>0.91011886734037806</v>
+        <v>0.90970703274405007</v>
       </c>
       <c r="M20" s="13">
         <f t="shared" si="3"/>
-        <v>1.1316451376925116</v>
+        <v>1.1305539282787602</v>
       </c>
       <c r="N20" s="13">
         <f t="shared" si="3"/>
-        <v>0.9000953987281517</v>
+        <v>0.89941071572108233</v>
       </c>
       <c r="O20" s="13">
         <f t="shared" si="3"/>
-        <v>0.70267435194998473</v>
+        <v>0.70188083813761704</v>
       </c>
       <c r="P20" s="13">
         <f t="shared" si="3"/>
-        <v>0.18107853231271429</v>
+        <v>0.18100607148990319</v>
       </c>
       <c r="R20">
         <v>1991</v>
@@ -4859,27 +4875,27 @@
       </c>
       <c r="AI20" s="5">
         <f t="shared" si="10"/>
-        <v>46.206714242941736</v>
+        <v>46.19784150906365</v>
       </c>
       <c r="AJ20" s="5">
         <f t="shared" si="11"/>
-        <v>39.762357381282683</v>
+        <v>39.748582931910668</v>
       </c>
       <c r="AK20" s="5">
         <f t="shared" si="12"/>
-        <v>27.270535029074669</v>
+        <v>27.240574150723372</v>
       </c>
       <c r="AL20" s="5">
         <f t="shared" si="13"/>
-        <v>3.3262202546431312</v>
+        <v>3.3233429258958282</v>
       </c>
       <c r="AM20" s="5">
         <f t="shared" si="14"/>
-        <v>1.3611677458783966</v>
+        <v>1.3598904170831829</v>
       </c>
       <c r="AN20" s="5">
         <f t="shared" si="15"/>
-        <v>1.1376321315715481</v>
+        <v>1.1373607556230834</v>
       </c>
       <c r="AP20">
         <v>1991</v>
@@ -4904,23 +4920,23 @@
       </c>
       <c r="AX20" s="13">
         <f t="shared" si="16"/>
-        <v>2.4376281184721571</v>
+        <v>2.4377102456973376</v>
       </c>
       <c r="AY20" s="13">
         <f t="shared" si="17"/>
-        <v>2.527147488744987</v>
+        <v>2.526767862354824</v>
       </c>
       <c r="AZ20" s="13">
         <f t="shared" si="18"/>
-        <v>2.38911492327082</v>
+        <v>2.3870846852800143</v>
       </c>
       <c r="BA20" s="13">
         <f t="shared" si="19"/>
-        <v>0.33455869087466616</v>
+        <v>0.3341731011630798</v>
       </c>
       <c r="BB20" s="13">
         <f t="shared" si="20"/>
-        <v>0.1946792374445564</v>
+        <v>0.19451989644054968</v>
       </c>
       <c r="BD20">
         <v>1991</v>
@@ -4965,10 +4981,12 @@
         <v>8.7089999999999996</v>
       </c>
       <c r="BT20" s="5">
-        <v>156.20936191733173</v>
+        <f t="shared" si="21"/>
+        <v>149.54029659145255</v>
       </c>
       <c r="BU20" s="17">
-        <v>0.76114802327757125</v>
+        <f t="shared" si="22"/>
+        <v>0.97989055891463084</v>
       </c>
     </row>
     <row r="21" spans="1:73" x14ac:dyDescent="0.25">
@@ -4977,58 +4995,58 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" si="6"/>
-        <v>818.98034387423672</v>
+        <v>818.91830319069084</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="21"/>
-        <v>96.053592088753248</v>
+        <f t="shared" si="23"/>
+        <v>96.073469787080683</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="22"/>
-        <v>17.318640022721535</v>
+        <f t="shared" si="24"/>
+        <v>17.324975393331336</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="23"/>
-        <v>11.401584467340193</v>
+        <f t="shared" si="25"/>
+        <v>11.407629203594597</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="24"/>
-        <v>2.0281357145907304</v>
+        <f t="shared" si="26"/>
+        <v>2.0287430482328945</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="25"/>
-        <v>6.353921269176495</v>
+        <f t="shared" si="27"/>
+        <v>6.3557261464441179</v>
       </c>
       <c r="I21">
         <v>1992</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="8"/>
-        <v>0.16036948336373866</v>
+        <v>0.16039236343281377</v>
       </c>
       <c r="K21" s="13">
         <f t="shared" si="9"/>
-        <v>0.19581202003563558</v>
+        <v>0.19584952698553121</v>
       </c>
       <c r="L21" s="13">
         <f t="shared" si="3"/>
-        <v>0.80603311000394773</v>
+        <v>0.80610589364351459</v>
       </c>
       <c r="M21" s="13">
         <f t="shared" si="3"/>
-        <v>1.0022245252652318</v>
+        <v>1.0018018459397213</v>
       </c>
       <c r="N21" s="13">
         <f t="shared" si="3"/>
-        <v>0.79715597552353679</v>
+        <v>0.79698216310578263</v>
       </c>
       <c r="O21" s="13">
         <f t="shared" si="3"/>
-        <v>0.62231298959593273</v>
+        <v>0.62194779186385629</v>
       </c>
       <c r="P21" s="13">
         <f t="shared" si="3"/>
-        <v>0.16036948336373866</v>
+        <v>0.16039236343281377</v>
       </c>
       <c r="R21">
         <v>1992</v>
@@ -5077,27 +5095,27 @@
       </c>
       <c r="AI21" s="5">
         <f t="shared" si="10"/>
-        <v>87.898067408448668</v>
+        <v>87.906956305548491</v>
       </c>
       <c r="AJ21" s="5">
         <f t="shared" si="11"/>
-        <v>39.630090457784689</v>
+        <v>39.640782822758027</v>
       </c>
       <c r="AK21" s="5">
         <f t="shared" si="12"/>
-        <v>10.030007779884988</v>
+        <v>10.031144689602238</v>
       </c>
       <c r="AL21" s="5">
         <f t="shared" si="13"/>
-        <v>5.7520796172847444</v>
+        <v>5.7542926347577863</v>
       </c>
       <c r="AM21" s="5">
         <f t="shared" si="14"/>
-        <v>0.86042076835706149</v>
+        <v>0.86030913942850906</v>
       </c>
       <c r="AN21" s="5">
         <f t="shared" si="15"/>
-        <v>0.85557441483773811</v>
+        <v>0.85593034217944031</v>
       </c>
       <c r="AP21">
         <v>1992</v>
@@ -5122,23 +5140,23 @@
       </c>
       <c r="AX21" s="13">
         <f t="shared" si="16"/>
-        <v>5.1504361384471631</v>
+        <v>5.1495538765887954</v>
       </c>
       <c r="AY21" s="13">
         <f t="shared" si="17"/>
-        <v>2.737637252326163</v>
+        <v>2.7379186440315926</v>
       </c>
       <c r="AZ21" s="13">
         <f t="shared" si="18"/>
-        <v>0.94299799738954393</v>
+        <v>0.94307040448617996</v>
       </c>
       <c r="BA21" s="13">
         <f t="shared" si="19"/>
-        <v>0.62600117880562756</v>
+        <v>0.62585227241570585</v>
       </c>
       <c r="BB21" s="13">
         <f t="shared" si="20"/>
-        <v>0.13424301282128459</v>
+        <v>0.13419300503285028</v>
       </c>
       <c r="BD21">
         <v>1992</v>
@@ -5183,10 +5201,12 @@
         <v>9.4760000000000009</v>
       </c>
       <c r="BT21" s="5">
-        <v>128.51385970669094</v>
+        <f t="shared" si="21"/>
+        <v>142.45976787727804</v>
       </c>
       <c r="BU21" s="17">
-        <v>0.73866899604510305</v>
+        <f t="shared" si="22"/>
+        <v>0.86829663422967285</v>
       </c>
     </row>
     <row r="22" spans="1:73" x14ac:dyDescent="0.25">
@@ -5195,58 +5215,58 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" si="6"/>
-        <v>432.77879333208381</v>
+        <v>432.71279628807468</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="21"/>
-        <v>211.71648894637426</v>
+        <f t="shared" si="23"/>
+        <v>211.69251057754423</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="22"/>
-        <v>20.777552072205189</v>
+        <f t="shared" si="24"/>
+        <v>20.780339334658624</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="23"/>
-        <v>5.116951513252479</v>
+        <f t="shared" si="25"/>
+        <v>5.1209874349069908</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="24"/>
-        <v>4.2063545020932347</v>
+        <f t="shared" si="26"/>
+        <v>4.2093161374801742</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="25"/>
-        <v>5.3225343032601451</v>
+        <f t="shared" si="27"/>
+        <v>5.324284130149298</v>
       </c>
       <c r="I22">
         <v>1993</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="8"/>
-        <v>0.15825446583035144</v>
+        <v>0.15828923070399409</v>
       </c>
       <c r="K22" s="13">
         <f t="shared" si="9"/>
-        <v>0.19322957201038377</v>
+        <v>0.19328146488262651</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="3"/>
-        <v>0.79540281972432925</v>
+        <v>0.79553589111015655</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="3"/>
-        <v>0.98900678334285574</v>
+        <v>0.98866579503995167</v>
       </c>
       <c r="N22" s="13">
         <f t="shared" si="3"/>
-        <v>0.78664276047967074</v>
+        <v>0.78653179479871926</v>
       </c>
       <c r="O22" s="13">
         <f t="shared" si="3"/>
-        <v>0.61410567448433695</v>
+        <v>0.61379254850506682</v>
       </c>
       <c r="P22" s="13">
         <f t="shared" si="3"/>
-        <v>0.15825446583035144</v>
+        <v>0.15828923070399409</v>
       </c>
       <c r="R22">
         <v>1993</v>
@@ -5295,27 +5315,27 @@
       </c>
       <c r="AI22" s="5">
         <f t="shared" si="10"/>
-        <v>46.116162074287971</v>
+        <v>46.120574813883813</v>
       </c>
       <c r="AJ22" s="5">
         <f t="shared" si="11"/>
-        <v>86.479888590850067</v>
+        <v>86.480213101936272</v>
       </c>
       <c r="AK22" s="5">
         <f t="shared" si="12"/>
-        <v>11.937680923364828</v>
+        <v>11.936801541588876</v>
       </c>
       <c r="AL22" s="5">
         <f t="shared" si="13"/>
-        <v>2.5586847739739067</v>
+        <v>2.5604607507522616</v>
       </c>
       <c r="AM22" s="5">
         <f t="shared" si="14"/>
-        <v>1.7672411581353569</v>
+        <v>1.7678233366544829</v>
       </c>
       <c r="AN22" s="5">
         <f t="shared" si="15"/>
-        <v>0.70794659734419219</v>
+        <v>0.70832333250001744</v>
       </c>
       <c r="AP22">
         <v>1993</v>
@@ -5340,23 +5360,23 @@
       </c>
       <c r="AX22" s="13">
         <f t="shared" si="16"/>
-        <v>2.7216764771016377</v>
+        <v>2.7210014099000577</v>
       </c>
       <c r="AY22" s="13">
         <f t="shared" si="17"/>
-        <v>6.0341621220760073</v>
+        <v>6.0328504091360893</v>
       </c>
       <c r="AZ22" s="13">
         <f t="shared" si="18"/>
-        <v>1.1313353686571685</v>
+        <v>1.1311602225559241</v>
       </c>
       <c r="BA22" s="13">
         <f t="shared" si="19"/>
-        <v>0.28094495886627857</v>
+        <v>0.28095071867684057</v>
       </c>
       <c r="BB22" s="13">
         <f t="shared" si="20"/>
-        <v>0.27842007676952679</v>
+        <v>0.2784289425483174</v>
       </c>
       <c r="BD22">
         <v>1993</v>
@@ -5401,10 +5421,12 @@
         <v>9.1180000000000003</v>
       </c>
       <c r="BT22" s="5">
-        <v>137.28540284694225</v>
+        <f t="shared" si="21"/>
+        <v>144.52238174540739</v>
       </c>
       <c r="BU22" s="17">
-        <v>0.76893887641444891</v>
+        <f t="shared" si="22"/>
+        <v>0.8569111603162759</v>
       </c>
     </row>
     <row r="23" spans="1:73" x14ac:dyDescent="0.25">
@@ -5413,58 +5435,58 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" si="6"/>
-        <v>939.10226014351895</v>
+        <v>938.72132308313689</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="21"/>
-        <v>113.63563614469591</v>
+        <f t="shared" si="23"/>
+        <v>113.61241133500521</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="22"/>
-        <v>46.193784003254024</v>
+        <f t="shared" si="24"/>
+        <v>46.182406269351866</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="23"/>
-        <v>6.2206001751728959</v>
+        <f t="shared" si="25"/>
+        <v>6.2235564530456289</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="24"/>
-        <v>1.9077338919633053</v>
+        <f t="shared" si="26"/>
+        <v>1.9094504612520025</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="25"/>
-        <v>5.5834575310033472</v>
+        <f t="shared" si="27"/>
+        <v>5.5864472564849725</v>
       </c>
       <c r="I23">
         <v>1994</v>
       </c>
       <c r="J23" s="11">
         <f t="shared" si="8"/>
-        <v>0.18860969624340862</v>
+        <v>0.18853510006867261</v>
       </c>
       <c r="K23" s="13">
         <f t="shared" si="9"/>
-        <v>0.23029347507444936</v>
+        <v>0.23021364221050655</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="3"/>
-        <v>0.94797125270498472</v>
+        <v>0.94754670404048802</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="3"/>
-        <v>1.1787109324859957</v>
+        <v>1.1775798250665683</v>
       </c>
       <c r="N23" s="13">
         <f t="shared" si="3"/>
-        <v>0.93753090206754686</v>
+        <v>0.93682210710136105</v>
       </c>
       <c r="O23" s="13">
         <f t="shared" si="3"/>
-        <v>0.73189899645555645</v>
+        <v>0.73107588582707272</v>
       </c>
       <c r="P23" s="13">
         <f t="shared" si="3"/>
-        <v>0.18860969624340862</v>
+        <v>0.18853510006867261</v>
       </c>
       <c r="R23">
         <v>1994</v>
@@ -5513,27 +5535,27 @@
       </c>
       <c r="AI23" s="5">
         <f t="shared" si="10"/>
-        <v>117.91724453559452</v>
+        <v>117.83221664002983</v>
       </c>
       <c r="AJ23" s="5">
         <f t="shared" si="11"/>
-        <v>52.209310071759248</v>
+        <v>52.183377707471799</v>
       </c>
       <c r="AK23" s="5">
         <f t="shared" si="12"/>
-        <v>29.350216501619787</v>
+        <v>29.327675886265556</v>
       </c>
       <c r="AL23" s="5">
         <f t="shared" si="13"/>
-        <v>3.4831649573586705</v>
+        <v>3.483190911718939</v>
       </c>
       <c r="AM23" s="5">
         <f t="shared" si="14"/>
-        <v>0.90826448853918151</v>
+        <v>0.90837594101347585</v>
       </c>
       <c r="AN23" s="5">
         <f t="shared" si="15"/>
-        <v>0.87259160668533242</v>
+        <v>0.87274399446526874</v>
       </c>
       <c r="AP23">
         <v>1994</v>
@@ -5558,23 +5580,23 @@
       </c>
       <c r="AX23" s="13">
         <f t="shared" si="16"/>
-        <v>5.9058636199495034</v>
+        <v>5.902903878793512</v>
       </c>
       <c r="AY23" s="13">
         <f t="shared" si="17"/>
-        <v>3.2387456204037814</v>
+        <v>3.2377464858599958</v>
       </c>
       <c r="AZ23" s="13">
         <f t="shared" si="18"/>
-        <v>2.5152463328392667</v>
+        <v>2.5139002839419393</v>
       </c>
       <c r="BA23" s="13">
         <f t="shared" si="19"/>
-        <v>0.34154051603015118</v>
+        <v>0.34144052888909604</v>
       </c>
       <c r="BB23" s="13">
         <f t="shared" si="20"/>
-        <v>0.12627357403945183</v>
+        <v>0.12630229125366949</v>
       </c>
       <c r="BD23">
         <v>1994</v>
@@ -5619,10 +5641,12 @@
         <v>9.0690000000000008</v>
       </c>
       <c r="BT23" s="5">
-        <v>147.83549403214869</v>
+        <f t="shared" si="21"/>
+        <v>150.20309026679715</v>
       </c>
       <c r="BU23" s="17">
-        <v>0.82596357134851095</v>
+        <f t="shared" si="22"/>
+        <v>1.0206495454028057</v>
       </c>
     </row>
     <row r="24" spans="1:73" x14ac:dyDescent="0.25">
@@ -5631,58 +5655,58 @@
       </c>
       <c r="B24" s="4">
         <f t="shared" si="6"/>
-        <v>565.7522205443737</v>
+        <v>565.97387513577132</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="21"/>
-        <v>239.5185582793759</v>
+        <f t="shared" si="23"/>
+        <v>239.44051452745001</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="22"/>
-        <v>21.221735223128235</v>
+        <f t="shared" si="24"/>
+        <v>21.226407663012395</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="23"/>
-        <v>11.440209642367783</v>
+        <f t="shared" si="25"/>
+        <v>11.450336106070003</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="24"/>
-        <v>1.9943845195007708</v>
+        <f t="shared" si="26"/>
+        <v>1.9967471135984318</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="25"/>
-        <v>4.5368532114023168</v>
+        <f t="shared" si="27"/>
+        <v>4.5404579810731995</v>
       </c>
       <c r="I24">
         <v>1995</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" si="8"/>
-        <v>0.17194870543063778</v>
+        <v>0.17191421414368291</v>
       </c>
       <c r="K24" s="13">
         <f t="shared" si="9"/>
-        <v>0.20995031377957737</v>
+        <v>0.20991845747215543</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="3"/>
-        <v>0.86423144162069332</v>
+        <v>0.8640128386185032</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="3"/>
-        <v>1.0745885442514191</v>
+        <v>1.0737666893010178</v>
       </c>
       <c r="N24" s="13">
         <f t="shared" si="3"/>
-        <v>0.85471334784235131</v>
+        <v>0.85423370118400865</v>
       </c>
       <c r="O24" s="13">
         <f t="shared" si="3"/>
-        <v>0.66724610374273874</v>
+        <v>0.66662566464058493</v>
       </c>
       <c r="P24" s="13">
         <f t="shared" si="3"/>
-        <v>0.17194870543063778</v>
+        <v>0.17191421414368291</v>
       </c>
       <c r="R24">
         <v>1995</v>
@@ -5731,27 +5755,27 @@
       </c>
       <c r="AI24" s="5">
         <f t="shared" si="10"/>
-        <v>65.458142833068692</v>
+        <v>65.474669311089272</v>
       </c>
       <c r="AJ24" s="5">
         <f t="shared" si="11"/>
-        <v>103.32234418057752</v>
+        <v>103.27095317364153</v>
       </c>
       <c r="AK24" s="5">
         <f t="shared" si="12"/>
-        <v>12.798668793475542</v>
+        <v>12.795851403792595</v>
       </c>
       <c r="AL24" s="5">
         <f t="shared" si="13"/>
-        <v>6.0418913541766726</v>
+        <v>6.0450452778769481</v>
       </c>
       <c r="AM24" s="5">
         <f t="shared" si="14"/>
-        <v>0.88981666144220206</v>
+        <v>0.89027911852520047</v>
       </c>
       <c r="AN24" s="5">
         <f t="shared" si="15"/>
-        <v>0.65145822986516866</v>
+        <v>0.65185561399212855</v>
       </c>
       <c r="AP24">
         <v>1995</v>
@@ -5776,23 +5800,23 @@
       </c>
       <c r="AX24" s="13">
         <f t="shared" si="16"/>
-        <v>3.5579250514294736</v>
+        <v>3.5589789010671669</v>
       </c>
       <c r="AY24" s="13">
         <f t="shared" si="17"/>
-        <v>6.8265529014593831</v>
+        <v>6.8236179073588454</v>
       </c>
       <c r="AZ24" s="13">
         <f t="shared" si="18"/>
-        <v>1.1555210911645406</v>
+        <v>1.1554415753023752</v>
       </c>
       <c r="BA24" s="13">
         <f t="shared" si="19"/>
-        <v>0.62812188449948148</v>
+        <v>0.62819528440224959</v>
       </c>
       <c r="BB24" s="13">
         <f t="shared" si="20"/>
-        <v>0.13200900940494545</v>
+        <v>0.13207660560948659</v>
       </c>
       <c r="BD24">
         <v>1995</v>
@@ -5837,10 +5861,12 @@
         <v>9.8360000000000003</v>
       </c>
       <c r="BT24" s="5">
-        <v>150.05735907660159</v>
+        <f t="shared" si="21"/>
+        <v>153.42764471708031</v>
       </c>
       <c r="BU24" s="17">
-        <v>0.8323586017743102</v>
+        <f t="shared" si="22"/>
+        <v>0.9306710763678433</v>
       </c>
     </row>
     <row r="25" spans="1:73" x14ac:dyDescent="0.25">
@@ -5849,58 +5875,58 @@
       </c>
       <c r="B25" s="4">
         <f t="shared" si="6"/>
-        <v>382.60128023545934</v>
+        <v>382.81793983655569</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="21"/>
-        <v>148.29535035468371</v>
+        <f t="shared" si="23"/>
+        <v>148.35817667280293</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="22"/>
-        <v>48.443562463810693</v>
+        <f t="shared" si="24"/>
+        <v>48.438365425454869</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="23"/>
-        <v>5.8266216676984186</v>
+        <f t="shared" si="25"/>
+        <v>5.832696189782701</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="24"/>
-        <v>3.9845363765294066</v>
+        <f t="shared" si="26"/>
+        <v>3.9899766654532267</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="25"/>
-        <v>3.9655141117055992</v>
+        <f t="shared" si="27"/>
+        <v>3.9696203241724279</v>
       </c>
       <c r="I25">
         <v>1996</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="8"/>
-        <v>0.16423618915297403</v>
+        <v>0.16413953911650031</v>
       </c>
       <c r="K25" s="13">
         <f t="shared" si="9"/>
-        <v>0.20053328904263459</v>
+        <v>0.20042507266286083</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="3"/>
-        <v>0.82546756116881548</v>
+        <v>0.82493858828363487</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="3"/>
-        <v>1.026389393123333</v>
+        <v>1.0252064983597855</v>
       </c>
       <c r="N25" s="13">
         <f t="shared" si="3"/>
-        <v>0.81637638804110546</v>
+        <v>0.81560170407397137</v>
       </c>
       <c r="O25" s="13">
         <f t="shared" si="3"/>
-        <v>0.63731772234879169</v>
+        <v>0.63647808241083126</v>
       </c>
       <c r="P25" s="13">
         <f t="shared" si="3"/>
-        <v>0.16423618915297403</v>
+        <v>0.16413953911650031</v>
       </c>
       <c r="R25">
         <v>1996</v>
@@ -5949,27 +5975,27 @@
       </c>
       <c r="AI25" s="5">
         <f t="shared" si="10"/>
-        <v>42.554983201869597</v>
+        <v>42.557913097542929</v>
       </c>
       <c r="AJ25" s="5">
         <f t="shared" si="11"/>
-        <v>61.853644789518398</v>
+        <v>61.852450928128548</v>
       </c>
       <c r="AK25" s="5">
         <f t="shared" si="12"/>
-        <v>28.433313137486429</v>
+        <v>28.410898505607857</v>
       </c>
       <c r="AL25" s="5">
         <f t="shared" si="13"/>
-        <v>2.9863364318039096</v>
+        <v>2.9875774431164976</v>
       </c>
       <c r="AM25" s="5">
         <f t="shared" si="14"/>
-        <v>1.7199906833793381</v>
+        <v>1.7206926280573378</v>
       </c>
       <c r="AN25" s="5">
         <f t="shared" si="15"/>
-        <v>0.5458502763208769</v>
+        <v>0.54611873023370616</v>
       </c>
       <c r="AP25">
         <v>1996</v>
@@ -5994,23 +6020,23 @@
       </c>
       <c r="AX25" s="13">
         <f t="shared" si="16"/>
-        <v>2.4061181383413781</v>
+        <v>2.4072506359087091</v>
       </c>
       <c r="AY25" s="13">
         <f t="shared" si="17"/>
-        <v>4.2265871233906447</v>
+        <v>4.2279374192189536</v>
       </c>
       <c r="AZ25" s="13">
         <f t="shared" si="18"/>
-        <v>2.6377465164617497</v>
+        <v>2.6367015154328239</v>
       </c>
       <c r="BA25" s="13">
         <f t="shared" si="19"/>
-        <v>0.31990922339625644</v>
+        <v>0.31999691605821762</v>
       </c>
       <c r="BB25" s="13">
         <f t="shared" si="20"/>
-        <v>0.26373785739937622</v>
+        <v>0.2639205389832367</v>
       </c>
       <c r="BD25">
         <v>1996</v>
@@ -6055,10 +6081,12 @@
         <v>9.3870000000000005</v>
       </c>
       <c r="BT25" s="5">
-        <v>157.75165588302821</v>
+        <f t="shared" si="21"/>
+        <v>154.87995438628585</v>
       </c>
       <c r="BU25" s="17">
-        <v>0.78310386188546277</v>
+        <f t="shared" si="22"/>
+        <v>0.88858226357246384</v>
       </c>
     </row>
     <row r="26" spans="1:73" x14ac:dyDescent="0.25">
@@ -6067,58 +6095,58 @@
       </c>
       <c r="B26" s="4">
         <f t="shared" si="6"/>
-        <v>1139.4340696683107</v>
+        <v>1138.3756368631443</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="21"/>
-        <v>101.94771808719624</v>
+        <f t="shared" si="23"/>
+        <v>102.01648833818399</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="22"/>
-        <v>30.992285990841307</v>
+        <f t="shared" si="24"/>
+        <v>31.021821443330229</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="23"/>
-        <v>13.943452827033765</v>
+        <f t="shared" si="25"/>
+        <v>13.95845859549226</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="24"/>
-        <v>2.1086774933017529</v>
+        <f t="shared" si="26"/>
+        <v>2.1125117822144626</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="25"/>
-        <v>4.4797365144975405</v>
+        <f t="shared" si="27"/>
+        <v>4.4866614901257922</v>
       </c>
       <c r="I26">
         <v>1997</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="8"/>
-        <v>0.16428146538654892</v>
+        <v>0.16449667776890722</v>
       </c>
       <c r="K26" s="13">
         <f t="shared" si="9"/>
-        <v>0.20058857157251467</v>
+        <v>0.20086116222875494</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="3"/>
-        <v>0.82569512406040912</v>
+        <v>0.82673350897930575</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="3"/>
-        <v>1.0266723456573728</v>
+        <v>1.0274371666633144</v>
       </c>
       <c r="N26" s="13">
         <f t="shared" si="3"/>
-        <v>0.81660144470018048</v>
+        <v>0.81737630935836314</v>
       </c>
       <c r="O26" s="13">
         <f t="shared" si="3"/>
-        <v>0.63749341654997416</v>
+        <v>0.63786294632517071</v>
       </c>
       <c r="P26" s="13">
         <f t="shared" si="3"/>
-        <v>0.16428146538654892</v>
+        <v>0.16449667776890722</v>
       </c>
       <c r="R26">
         <v>1997</v>
@@ -6167,27 +6195,27 @@
       </c>
       <c r="AI26" s="5">
         <f t="shared" si="10"/>
-        <v>127.11553891130805</v>
+        <v>127.15640716690423</v>
       </c>
       <c r="AJ26" s="5">
         <f t="shared" si="11"/>
-        <v>42.40310159281556</v>
+        <v>42.468573674529644</v>
       </c>
       <c r="AK26" s="5">
         <f t="shared" si="12"/>
-        <v>18.186224021306547</v>
+        <v>18.211562298169991</v>
       </c>
       <c r="AL26" s="5">
         <f t="shared" si="13"/>
-        <v>7.1477807606067012</v>
+        <v>7.1599507738682373</v>
       </c>
       <c r="AM26" s="5">
         <f t="shared" si="14"/>
-        <v>0.9104273207427519</v>
+        <v>0.91246614751278909</v>
       </c>
       <c r="AN26" s="5">
         <f t="shared" si="15"/>
-        <v>0.61678950912325392</v>
+        <v>0.6184897032843486</v>
       </c>
       <c r="AP26">
         <v>1997</v>
@@ -6212,23 +6240,23 @@
       </c>
       <c r="AX26" s="13">
         <f t="shared" si="16"/>
-        <v>7.1657182662478824</v>
+        <v>7.1583778882248357</v>
       </c>
       <c r="AY26" s="13">
         <f t="shared" si="17"/>
-        <v>2.905626585700932</v>
+        <v>2.9072838322459091</v>
       </c>
       <c r="AZ26" s="13">
         <f t="shared" si="18"/>
-        <v>1.6875264793046207</v>
+        <v>1.6886466521459249</v>
       </c>
       <c r="BA26" s="13">
         <f t="shared" si="19"/>
-        <v>0.76556183321247129</v>
+        <v>0.76579742166379672</v>
       </c>
       <c r="BB26" s="13">
         <f t="shared" si="20"/>
-        <v>0.13957410134478349</v>
+        <v>0.13973396210505099</v>
       </c>
       <c r="BD26">
         <v>1997</v>
@@ -6273,10 +6301,12 @@
         <v>8.9879999999999995</v>
       </c>
       <c r="BT26" s="5">
-        <v>155.71931148446259</v>
+        <f t="shared" si="21"/>
+        <v>147.65059095196338</v>
       </c>
       <c r="BU26" s="17">
-        <v>0.7144600697532667</v>
+        <f t="shared" si="22"/>
+        <v>0.89051566166699436</v>
       </c>
     </row>
     <row r="27" spans="1:73" x14ac:dyDescent="0.25">
@@ -6285,58 +6315,58 @@
       </c>
       <c r="B27" s="4">
         <f t="shared" si="6"/>
-        <v>181.00458044853579</v>
+        <v>180.9822625190823</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="21"/>
-        <v>305.72879448745476</v>
+        <f t="shared" si="23"/>
+        <v>305.36154960560242</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="22"/>
-        <v>21.131503630817811</v>
+        <f t="shared" si="24"/>
+        <v>21.123812140257865</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="23"/>
-        <v>8.9090355213102921</v>
+        <f t="shared" si="25"/>
+        <v>8.9107080722620502</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="24"/>
-        <v>5.045055334850975</v>
+        <f t="shared" si="26"/>
+        <v>5.0465728335672315</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="25"/>
-        <v>4.0246763654996167</v>
+        <f t="shared" si="27"/>
+        <v>4.0301380653242438</v>
       </c>
       <c r="I27">
         <v>1998</v>
       </c>
       <c r="J27" s="11">
         <f t="shared" si="8"/>
-        <v>0.19007781856883812</v>
+        <v>0.19021644902481658</v>
       </c>
       <c r="K27" s="13">
         <f t="shared" si="9"/>
-        <v>0.23208606049763572</v>
+        <v>0.2322666788433656</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="3"/>
-        <v>0.95535018277953121</v>
+        <v>0.95599689003320676</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="3"/>
-        <v>1.1878859212043764</v>
+        <v>1.1880814378109894</v>
       </c>
       <c r="N27" s="13">
         <f t="shared" si="3"/>
-        <v>0.94482856531349746</v>
+        <v>0.9451766515405331</v>
       </c>
       <c r="O27" s="13">
         <f t="shared" si="3"/>
-        <v>0.73759603790176675</v>
+        <v>0.73759559317625945</v>
       </c>
       <c r="P27" s="13">
         <f t="shared" si="3"/>
-        <v>0.19007781856883812</v>
+        <v>0.19021644902481658</v>
       </c>
       <c r="R27">
         <v>1998</v>
@@ -6385,27 +6415,27 @@
       </c>
       <c r="AI27" s="5">
         <f t="shared" si="10"/>
-        <v>23.158291099400916</v>
+        <v>23.171816800184576</v>
       </c>
       <c r="AJ27" s="5">
         <f t="shared" si="11"/>
-        <v>139.84420617765679</v>
+        <v>139.7378881758307</v>
       </c>
       <c r="AK27" s="5">
         <f t="shared" si="12"/>
-        <v>13.456887907801802</v>
+        <v>13.453188012804123</v>
       </c>
       <c r="AL27" s="5">
         <f t="shared" si="13"/>
-        <v>5.0124523114834405</v>
+        <v>5.0145305513281082</v>
       </c>
       <c r="AM27" s="5">
         <f t="shared" si="14"/>
-        <v>2.41479784261958</v>
+        <v>2.4155231859768986</v>
       </c>
       <c r="AN27" s="5">
         <f t="shared" si="15"/>
-        <v>0.63344372346959499</v>
+        <v>0.63472481624221277</v>
       </c>
       <c r="AP27">
         <v>1998</v>
@@ -6430,23 +6460,23 @@
       </c>
       <c r="AX27" s="13">
         <f t="shared" si="16"/>
-        <v>1.1383087998870984</v>
+        <v>1.1380596915684442</v>
       </c>
       <c r="AY27" s="13">
         <f t="shared" si="17"/>
-        <v>8.7136203727213424</v>
+        <v>8.702247162389714</v>
       </c>
       <c r="AZ27" s="13">
         <f t="shared" si="18"/>
-        <v>1.1506079911325309</v>
+        <v>1.1498568746637916</v>
       </c>
       <c r="BA27" s="13">
         <f t="shared" si="19"/>
-        <v>0.48914839462330373</v>
+        <v>0.4888646708556153</v>
       </c>
       <c r="BB27" s="13">
         <f t="shared" si="20"/>
-        <v>0.33393397844540135</v>
+        <v>0.33381002795963272</v>
       </c>
       <c r="BD27">
         <v>1998</v>
@@ -6491,10 +6521,12 @@
         <v>8.5280000000000005</v>
       </c>
       <c r="BT27" s="5">
-        <v>149.38261582545414</v>
+        <f t="shared" si="21"/>
+        <v>143.18274150060077</v>
       </c>
       <c r="BU27" s="17">
-        <v>0.91474114896807623</v>
+        <f t="shared" si="22"/>
+        <v>1.0297516597949097</v>
       </c>
     </row>
     <row r="28" spans="1:73" x14ac:dyDescent="0.25">
@@ -6503,58 +6535,58 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" si="6"/>
-        <v>275.03310880682528</v>
+        <v>275.05988615496221</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="21"/>
-        <v>47.486063918024406</v>
+        <f t="shared" si="23"/>
+        <v>47.471633847019191</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="22"/>
-        <v>55.221271574235736</v>
+        <f t="shared" si="24"/>
+        <v>55.119281590985302</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="23"/>
-        <v>5.1597032535567386</v>
+        <f t="shared" si="25"/>
+        <v>5.1568168716605154</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="24"/>
-        <v>2.835554258014775</v>
+        <f t="shared" si="26"/>
+        <v>2.835099564098047</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="25"/>
-        <v>4.7002050843513414</v>
+        <f t="shared" si="27"/>
+        <v>4.7041195448493509</v>
       </c>
       <c r="I28">
         <v>1999</v>
       </c>
       <c r="J28" s="11">
         <f t="shared" si="8"/>
-        <v>0.20676277372282639</v>
+        <v>0.20661785601855423</v>
       </c>
       <c r="K28" s="13">
         <f t="shared" si="9"/>
-        <v>0.25245848238476121</v>
+        <v>0.25229386550531824</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="9"/>
-        <v>1.0392104410466376</v>
+        <v>1.0384276900958052</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="9"/>
-        <v>1.2921580739078291</v>
+        <v>1.2905237202904651</v>
       </c>
       <c r="N28" s="13">
         <f t="shared" si="9"/>
-        <v>1.0277652401930735</v>
+        <v>1.0266744768988014</v>
       </c>
       <c r="O28" s="13">
         <f t="shared" si="9"/>
-        <v>0.80234192412253813</v>
+        <v>0.80119474867775275</v>
       </c>
       <c r="P28" s="13">
         <f t="shared" si="9"/>
-        <v>0.20676277372282639</v>
+        <v>0.20661785601855423</v>
       </c>
       <c r="R28">
         <v>1999</v>
@@ -6603,27 +6635,27 @@
       </c>
       <c r="AI28" s="5">
         <f t="shared" si="10"/>
-        <v>38.107499571854568</v>
+        <v>38.088809525620398</v>
       </c>
       <c r="AJ28" s="5">
         <f t="shared" si="11"/>
-        <v>22.833078242237477</v>
+        <v>22.815323263394244</v>
       </c>
       <c r="AK28" s="5">
         <f t="shared" si="12"/>
-        <v>36.729967835170115</v>
+        <v>36.638404790299099</v>
       </c>
       <c r="AL28" s="5">
         <f t="shared" si="13"/>
-        <v>3.0539054424905192</v>
+        <v>3.050289042306753</v>
       </c>
       <c r="AM28" s="5">
         <f t="shared" si="14"/>
-        <v>1.4367205121151323</v>
+        <v>1.4351240695505469</v>
       </c>
       <c r="AN28" s="5">
         <f t="shared" si="15"/>
-        <v>0.79845721844765494</v>
+        <v>0.79861605332584673</v>
       </c>
       <c r="AP28">
         <v>1999</v>
@@ -6648,23 +6680,23 @@
       </c>
       <c r="AX28" s="13">
         <f t="shared" si="16"/>
-        <v>1.7296391463647494</v>
+        <v>1.7296422579939961</v>
       </c>
       <c r="AY28" s="13">
         <f t="shared" si="17"/>
-        <v>1.353407142006783</v>
+        <v>1.3528549729747867</v>
       </c>
       <c r="AZ28" s="13">
         <f t="shared" si="18"/>
-        <v>3.0067920136621304</v>
+        <v>3.0003715448280883</v>
       </c>
       <c r="BA28" s="13">
         <f t="shared" si="19"/>
-        <v>0.28329223260732045</v>
+        <v>0.28291641496757403</v>
       </c>
       <c r="BB28" s="13">
         <f t="shared" si="20"/>
-        <v>0.18768632881697458</v>
+        <v>0.187530170666525</v>
       </c>
       <c r="BD28">
         <v>1999</v>
@@ -6709,10 +6741,12 @@
         <v>8.0749999999999993</v>
       </c>
       <c r="BT28" s="5">
-        <v>125.61534291130414</v>
+        <f t="shared" si="21"/>
+        <v>116.10665349975656</v>
       </c>
       <c r="BU28" s="17">
-        <v>0.92002372822974909</v>
+        <f t="shared" si="22"/>
+        <v>1.1185419624283572</v>
       </c>
     </row>
     <row r="29" spans="1:73" x14ac:dyDescent="0.25">
@@ -6721,58 +6755,58 @@
       </c>
       <c r="B29" s="4">
         <f t="shared" si="6"/>
-        <v>441.89116605930269</v>
+        <v>441.83841782764472</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="21"/>
-        <v>71.338275288263063</v>
+        <f t="shared" si="23"/>
+        <v>71.356966409429219</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="22"/>
-        <v>7.800796436658417</v>
+        <f t="shared" si="24"/>
+        <v>7.8045325446467126</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="23"/>
-        <v>12.124038803595365</v>
+        <f t="shared" si="25"/>
+        <v>12.12144105844367</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="24"/>
-        <v>1.5115170700836158</v>
+        <f t="shared" si="26"/>
+        <v>1.5123201986117316</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="25"/>
-        <v>4.1701085115751741</v>
+        <f t="shared" si="27"/>
+        <v>4.1741961646819741</v>
       </c>
       <c r="I29">
         <v>2000</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" si="8"/>
-        <v>0.19491910098303866</v>
+        <v>0.19497301305213458</v>
       </c>
       <c r="K29" s="13">
         <f t="shared" si="9"/>
-        <v>0.23799729291669555</v>
+        <v>0.23807475346043955</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="9"/>
-        <v>0.97968295382098114</v>
+        <v>0.97990260607759883</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="9"/>
-        <v>1.21814137796258</v>
+        <v>1.2177906740920155</v>
       </c>
       <c r="N29" s="13">
         <f t="shared" si="9"/>
-        <v>0.96889335073731575</v>
+        <v>0.96881179604684253</v>
       </c>
       <c r="O29" s="13">
         <f t="shared" si="9"/>
-        <v>0.75638261044328925</v>
+        <v>0.7560399531840144</v>
       </c>
       <c r="P29" s="13">
         <f t="shared" si="9"/>
-        <v>0.19491910098303866</v>
+        <v>0.19497301305213458</v>
       </c>
       <c r="R29">
         <v>2000</v>
@@ -6821,27 +6855,27 @@
       </c>
       <c r="AI29" s="5">
         <f t="shared" si="10"/>
-        <v>58.252427185561643</v>
+        <v>58.262658804650506</v>
       </c>
       <c r="AJ29" s="5">
         <f t="shared" si="11"/>
-        <v>32.893376574372553</v>
+        <v>32.906766116907761</v>
       </c>
       <c r="AK29" s="5">
         <f t="shared" si="12"/>
-        <v>5.0274703272218701</v>
+        <v>5.0291066894460839</v>
       </c>
       <c r="AL29" s="5">
         <f t="shared" si="13"/>
-        <v>6.9270768484173066</v>
+        <v>6.9252382667503118</v>
       </c>
       <c r="AM29" s="5">
         <f t="shared" si="14"/>
-        <v>0.73604751759937581</v>
+        <v>0.73621131082144631</v>
       </c>
       <c r="AN29" s="5">
         <f t="shared" si="15"/>
-        <v>0.67152890922206876</v>
+        <v>0.67235614381987585</v>
       </c>
       <c r="AP29">
         <v>2000</v>
@@ -6866,23 +6900,23 @@
       </c>
       <c r="AX29" s="13">
         <f t="shared" si="16"/>
-        <v>2.7789827288967057</v>
+        <v>2.7783854976561626</v>
       </c>
       <c r="AY29" s="13">
         <f t="shared" si="17"/>
-        <v>2.0332224511228358</v>
+        <v>2.0335433824435927</v>
       </c>
       <c r="AZ29" s="13">
         <f t="shared" si="18"/>
-        <v>0.42475248680966571</v>
+        <v>0.42483313809141687</v>
       </c>
       <c r="BA29" s="13">
         <f t="shared" si="19"/>
-        <v>0.66566735567994395</v>
+        <v>0.66501385134341084</v>
       </c>
       <c r="BB29" s="13">
         <f t="shared" si="20"/>
-        <v>0.10004784391845883</v>
+        <v>0.10003375843991452</v>
       </c>
       <c r="BD29">
         <v>2000</v>
@@ -6927,10 +6961,12 @@
         <v>8.3620000000000001</v>
       </c>
       <c r="BT29" s="5">
-        <v>97.708878261746605</v>
+        <f t="shared" si="21"/>
+        <v>97.296659233011013</v>
       </c>
       <c r="BU29" s="17">
-        <v>0.87337362156893972</v>
+        <f t="shared" si="22"/>
+        <v>1.0555016920721523</v>
       </c>
     </row>
     <row r="30" spans="1:73" x14ac:dyDescent="0.25">
@@ -6939,58 +6975,58 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" si="6"/>
-        <v>156.97818348261643</v>
+        <v>156.96279285368209</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="21"/>
-        <v>117.33889990845068</v>
+        <f t="shared" si="23"/>
+        <v>117.31580555004811</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="22"/>
-        <v>12.289559120099309</v>
+        <f t="shared" si="24"/>
+        <v>12.290079229386796</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="23"/>
-        <v>1.8405868441038777</v>
+        <f t="shared" si="25"/>
+        <v>1.8421142968227926</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="24"/>
-        <v>3.7670673557062204</v>
+        <f t="shared" si="26"/>
+        <v>3.7665673774657078</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="25"/>
-        <v>3.3903926314960446</v>
+        <f t="shared" si="27"/>
+        <v>3.3935028095007209</v>
       </c>
       <c r="I30">
         <v>2001</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="8"/>
-        <v>0.1234360740456719</v>
+        <v>0.12368750025063144</v>
       </c>
       <c r="K30" s="13">
         <f t="shared" si="9"/>
-        <v>0.15071612439712126</v>
+        <v>0.15103049733571705</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="9"/>
-        <v>0.62040208999143731</v>
+        <v>0.62163322983785874</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="9"/>
-        <v>0.77141023414308685</v>
+        <v>0.7725452971622101</v>
       </c>
       <c r="N30" s="13">
         <f t="shared" si="9"/>
-        <v>0.61356937714573911</v>
+        <v>0.61459741217784203</v>
       </c>
       <c r="O30" s="13">
         <f t="shared" si="9"/>
-        <v>0.47899307681324071</v>
+        <v>0.47961864278073418</v>
       </c>
       <c r="P30" s="13">
         <f t="shared" si="9"/>
-        <v>0.1234360740456719</v>
+        <v>0.12368750025063144</v>
       </c>
       <c r="R30">
         <v>2001</v>
@@ -7039,27 +7075,27 @@
       </c>
       <c r="AI30" s="5">
         <f t="shared" si="10"/>
-        <v>13.587162379674727</v>
+        <v>13.612458183044346</v>
       </c>
       <c r="AJ30" s="5">
         <f t="shared" si="11"/>
-        <v>38.943053665396626</v>
+        <v>38.994129454011542</v>
       </c>
       <c r="AK30" s="5">
         <f t="shared" si="12"/>
-        <v>5.9916597311580455</v>
+        <v>5.9978838448883547</v>
       </c>
       <c r="AL30" s="5">
         <f t="shared" si="13"/>
-        <v>0.77280096665953601</v>
+        <v>0.7743934871392848</v>
       </c>
       <c r="AM30" s="5">
         <f t="shared" si="14"/>
-        <v>1.3097909165287263</v>
+        <v>1.3109634130084775</v>
       </c>
       <c r="AN30" s="5">
         <f t="shared" si="15"/>
-        <v>0.35756104217408535</v>
+        <v>0.35857537952294505</v>
       </c>
       <c r="AP30">
         <v>2001</v>
@@ -7084,23 +7120,23 @@
       </c>
       <c r="AX30" s="13">
         <f t="shared" si="16"/>
-        <v>0.98721063967417033</v>
+        <v>0.98701952962903439</v>
       </c>
       <c r="AY30" s="13">
         <f t="shared" si="17"/>
-        <v>3.3442928739148945</v>
+        <v>3.3432864657320276</v>
       </c>
       <c r="AZ30" s="13">
         <f t="shared" si="18"/>
-        <v>0.66916510902990045</v>
+        <v>0.6690000838030824</v>
       </c>
       <c r="BA30" s="13">
         <f t="shared" si="19"/>
-        <v>0.10105696602114016</v>
+        <v>0.10106319184644635</v>
       </c>
       <c r="BB30" s="13">
         <f t="shared" si="20"/>
-        <v>0.24934350679424899</v>
+        <v>0.24914293383831296</v>
       </c>
       <c r="BD30">
         <v>2001</v>
@@ -7145,10 +7181,12 @@
         <v>8.5389999999999997</v>
       </c>
       <c r="BT30" s="5">
-        <v>89.657199406609621</v>
+        <f t="shared" si="21"/>
+        <v>87.882737820514663</v>
       </c>
       <c r="BU30" s="17">
-        <v>0.58232050983142047</v>
+        <f t="shared" si="22"/>
+        <v>0.66959197972597029</v>
       </c>
     </row>
     <row r="31" spans="1:73" x14ac:dyDescent="0.25">
@@ -7157,58 +7195,58 @@
       </c>
       <c r="B31" s="4">
         <f t="shared" si="6"/>
-        <v>216.03351220652146</v>
+        <v>216.16966279226222</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="21"/>
-        <v>45.667674788917672</v>
+        <f t="shared" si="23"/>
+        <v>45.648844370834148</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="22"/>
-        <v>28.493165121496876</v>
+        <f t="shared" si="24"/>
+        <v>28.452506579431041</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="23"/>
-        <v>4.5192218219274354</v>
+        <f t="shared" si="25"/>
+        <v>4.514286172540559</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="24"/>
-        <v>0.81588250825909159</v>
+        <f t="shared" si="26"/>
+        <v>0.81572056633877843</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="25"/>
-        <v>4.363868461151541</v>
+        <f t="shared" si="27"/>
+        <v>4.3640537172613518</v>
       </c>
       <c r="I31">
         <v>2002</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" si="8"/>
-        <v>0.18828096302792005</v>
+        <v>0.188152233002705</v>
       </c>
       <c r="K31" s="13">
         <f t="shared" si="9"/>
-        <v>0.22989209001273142</v>
+        <v>0.22974613657518056</v>
       </c>
       <c r="L31" s="13">
         <f t="shared" si="9"/>
-        <v>0.94631900658880275</v>
+        <v>0.94562247652894704</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="9"/>
-        <v>1.1766565236051945</v>
+        <v>1.1751884585125334</v>
       </c>
       <c r="N31" s="13">
         <f t="shared" si="9"/>
-        <v>0.93589685273607015</v>
+        <v>0.93491965853157843</v>
       </c>
       <c r="O31" s="13">
         <f t="shared" si="9"/>
-        <v>0.73062334883345759</v>
+        <v>0.72959125575392281</v>
       </c>
       <c r="P31" s="13">
         <f t="shared" si="9"/>
-        <v>0.18828096302792005</v>
+        <v>0.188152233002705</v>
       </c>
       <c r="R31">
         <v>2002</v>
@@ -7257,27 +7295,27 @@
       </c>
       <c r="AI31" s="5">
         <f t="shared" si="10"/>
-        <v>27.629143102401621</v>
+        <v>27.63059030739678</v>
       </c>
       <c r="AJ31" s="5">
         <f t="shared" si="11"/>
-        <v>20.327813703734439</v>
+        <v>20.309573378388446</v>
       </c>
       <c r="AK31" s="5">
         <f t="shared" si="12"/>
-        <v>17.98192325943937</v>
+        <v>17.94403593173757</v>
       </c>
       <c r="AL31" s="5">
         <f t="shared" si="13"/>
-        <v>2.5277657144824226</v>
+        <v>2.5233728690306583</v>
       </c>
       <c r="AM31" s="5">
         <f t="shared" si="14"/>
-        <v>0.38797092061968297</v>
+        <v>0.38751534387844472</v>
       </c>
       <c r="AN31" s="5">
         <f t="shared" si="15"/>
-        <v>0.68090830993762363</v>
+        <v>0.68051262383934508</v>
       </c>
       <c r="AP31">
         <v>2002</v>
@@ -7302,23 +7340,23 @@
       </c>
       <c r="AX31" s="13">
         <f t="shared" si="16"/>
-        <v>1.3586001382164996</v>
+        <v>1.3593264684591808</v>
       </c>
       <c r="AY31" s="13">
         <f t="shared" si="17"/>
-        <v>1.3015809717322995</v>
+        <v>1.3009087978022658</v>
       </c>
       <c r="AZ31" s="13">
         <f t="shared" si="18"/>
-        <v>1.5514496296250653</v>
+        <v>1.5487881673320054</v>
       </c>
       <c r="BA31" s="13">
         <f t="shared" si="19"/>
-        <v>0.24812675781286911</v>
+        <v>0.24766550603950646</v>
       </c>
       <c r="BB31" s="13">
         <f t="shared" si="20"/>
-        <v>5.4003548790613885E-2</v>
+        <v>5.395655904252937E-2</v>
       </c>
       <c r="BD31">
         <v>2002</v>
@@ -7363,10 +7401,12 @@
         <v>8.5050000000000008</v>
       </c>
       <c r="BT31" s="5">
-        <v>93.309548166127698</v>
+        <f t="shared" si="21"/>
+        <v>89.202981450959328</v>
       </c>
       <c r="BU31" s="17">
-        <v>0.79632139908463107</v>
+        <f t="shared" si="22"/>
+        <v>1.0185768645243529</v>
       </c>
     </row>
     <row r="32" spans="1:73" x14ac:dyDescent="0.25">
@@ -7375,58 +7415,58 @@
       </c>
       <c r="B32" s="4">
         <f t="shared" si="6"/>
-        <v>114.64539997863841</v>
+        <v>114.62797847549969</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="21"/>
-        <v>58.005710044360107</v>
+        <f t="shared" si="23"/>
+        <v>58.050739011996264</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="22"/>
-        <v>7.8543828905876829</v>
+        <f t="shared" si="24"/>
+        <v>7.8566147101083583</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="23"/>
-        <v>6.9657669401084839</v>
+        <f t="shared" si="25"/>
+        <v>6.9660461914217056</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="24"/>
-        <v>1.4512757003643462</v>
+        <f t="shared" si="26"/>
+        <v>1.4511080173543038</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="25"/>
-        <v>3.281379425092243</v>
+        <f t="shared" si="27"/>
+        <v>3.2821543929777368</v>
       </c>
       <c r="I32">
         <v>2003</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" si="8"/>
-        <v>9.8752791821396832E-2</v>
+        <v>9.8932250661475499E-2</v>
       </c>
       <c r="K32" s="13">
         <f t="shared" si="9"/>
-        <v>0.12057770122541042</v>
+        <v>0.12080272452485098</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="9"/>
-        <v>0.49634143755912918</v>
+        <v>0.49721737757819778</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="9"/>
-        <v>0.61715276389170237</v>
+        <v>0.61792537508902945</v>
       </c>
       <c r="N32" s="13">
         <f t="shared" si="9"/>
-        <v>0.49087504959723605</v>
+        <v>0.49158973311179061</v>
       </c>
       <c r="O32" s="13">
         <f t="shared" si="9"/>
-        <v>0.38320972182675206</v>
+        <v>0.38362608746519666</v>
       </c>
       <c r="P32" s="13">
         <f t="shared" si="9"/>
-        <v>9.8752791821396832E-2</v>
+        <v>9.8932250661475499E-2</v>
       </c>
       <c r="R32">
         <v>2003</v>
@@ -7475,27 +7515,27 @@
       </c>
       <c r="AI32" s="5">
         <f t="shared" si="10"/>
-        <v>8.0126877675991075</v>
+        <v>8.0256962726722225</v>
       </c>
       <c r="AJ32" s="5">
         <f t="shared" si="11"/>
-        <v>15.913555635986825</v>
+        <v>15.948535538489352</v>
       </c>
       <c r="AK32" s="5">
         <f t="shared" si="12"/>
-        <v>3.2622999856458414</v>
+        <v>3.2662273948566374</v>
       </c>
       <c r="AL32" s="5">
         <f t="shared" si="13"/>
-        <v>2.4690016057885131</v>
+        <v>2.4719129627456269</v>
       </c>
       <c r="AM32" s="5">
         <f t="shared" si="14"/>
-        <v>0.42138748214206928</v>
+        <v>0.42171727497746386</v>
       </c>
       <c r="AN32" s="5">
         <f t="shared" si="15"/>
-        <v>0.2801214592079852</v>
+        <v>0.280672854632812</v>
       </c>
       <c r="AP32">
         <v>2003</v>
@@ -7520,23 +7560,23 @@
       </c>
       <c r="AX32" s="13">
         <f t="shared" si="16"/>
-        <v>0.72098654817945484</v>
+        <v>0.72080810579537735</v>
       </c>
       <c r="AY32" s="13">
         <f t="shared" si="17"/>
-        <v>1.6532290902597444</v>
+        <v>1.6543401731299769</v>
       </c>
       <c r="AZ32" s="13">
         <f t="shared" si="18"/>
-        <v>0.42767026318680668</v>
+        <v>0.42766818678460783</v>
       </c>
       <c r="BA32" s="13">
         <f t="shared" si="19"/>
-        <v>0.38245371319083277</v>
+        <v>0.38217545125680286</v>
       </c>
       <c r="BB32" s="13">
         <f t="shared" si="20"/>
-        <v>9.6060446571517688E-2</v>
+        <v>9.5984824517649392E-2</v>
       </c>
       <c r="BD32">
         <v>2003</v>
@@ -7581,10 +7621,12 @@
         <v>8.3940000000000001</v>
       </c>
       <c r="BT32" s="5">
-        <v>67.490035520552013</v>
+        <f t="shared" si="21"/>
+        <v>74.461971400750386</v>
       </c>
       <c r="BU32" s="17">
-        <v>0.50079836217657825</v>
+        <f t="shared" si="22"/>
+        <v>0.53557749525967269</v>
       </c>
     </row>
     <row r="33" spans="1:73" x14ac:dyDescent="0.25">
@@ -7593,58 +7635,58 @@
       </c>
       <c r="B33" s="4">
         <f t="shared" si="6"/>
-        <v>227.00592019596988</v>
+        <v>226.97300921270377</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="21"/>
-        <v>34.133052111296259</v>
+        <f t="shared" si="23"/>
+        <v>34.120186555356007</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="22"/>
-        <v>15.320625878748919</v>
+        <f t="shared" si="24"/>
+        <v>15.319094565483613</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="23"/>
-        <v>3.3498613003711744</v>
+        <f t="shared" si="25"/>
+        <v>3.3482252860896708</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="24"/>
-        <v>3.4908060345697249</v>
+        <f t="shared" si="26"/>
+        <v>3.4884519476215377</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="25"/>
-        <v>3.2439023655248156</v>
+        <f t="shared" si="27"/>
+        <v>3.243609620265933</v>
       </c>
       <c r="I33">
         <v>2004</v>
       </c>
       <c r="J33" s="11">
         <f t="shared" si="8"/>
-        <v>0.13016581682814271</v>
+        <v>0.13011790770359236</v>
       </c>
       <c r="K33" s="13">
         <f t="shared" si="9"/>
-        <v>0.15893317729843284</v>
+        <v>0.15888244384384473</v>
       </c>
       <c r="L33" s="13">
         <f t="shared" si="9"/>
-        <v>0.65422645227474241</v>
+        <v>0.65395141030118431</v>
       </c>
       <c r="M33" s="13">
         <f t="shared" si="9"/>
-        <v>0.81346757026370675</v>
+        <v>0.81270926705856528</v>
       </c>
       <c r="N33" s="13">
         <f t="shared" si="9"/>
-        <v>0.6470212194804511</v>
+        <v>0.64654980649279392</v>
       </c>
       <c r="O33" s="13">
         <f t="shared" si="9"/>
-        <v>0.50510781050401476</v>
+        <v>0.50455360620765077</v>
       </c>
       <c r="P33" s="13">
         <f t="shared" si="9"/>
-        <v>0.13016581682814271</v>
+        <v>0.13011790770359236</v>
       </c>
       <c r="R33">
         <v>2004</v>
@@ -7693,27 +7735,27 @@
       </c>
       <c r="AI33" s="5">
         <f t="shared" si="10"/>
-        <v>20.520516944280931</v>
+        <v>20.511406366692775</v>
       </c>
       <c r="AJ33" s="5">
         <f t="shared" si="11"/>
-        <v>11.52937227849819</v>
+        <v>11.521381820064661</v>
       </c>
       <c r="AK33" s="5">
         <f t="shared" si="12"/>
-        <v>7.7143319321157184</v>
+        <v>7.7087904495818274</v>
       </c>
       <c r="AL33" s="5">
         <f t="shared" si="13"/>
-        <v>1.4619175539481972</v>
+        <v>1.4604351536564031</v>
       </c>
       <c r="AM33" s="5">
         <f t="shared" si="14"/>
-        <v>1.2651945764443606</v>
+        <v>1.2632633649655487</v>
       </c>
       <c r="AN33" s="5">
         <f t="shared" si="15"/>
-        <v>0.35961759269477878</v>
+        <v>0.3594609270671546</v>
       </c>
       <c r="AP33">
         <v>2004</v>
@@ -7738,23 +7780,23 @@
       </c>
       <c r="AX33" s="13">
         <f t="shared" si="16"/>
-        <v>1.4276038536992239</v>
+        <v>1.4272604909651623</v>
       </c>
       <c r="AY33" s="13">
         <f t="shared" si="17"/>
-        <v>0.97283103071390509</v>
+        <v>0.97236307915994058</v>
       </c>
       <c r="AZ33" s="13">
         <f t="shared" si="18"/>
-        <v>0.83420635243068764</v>
+        <v>0.83388197560116306</v>
       </c>
       <c r="BA33" s="13">
         <f t="shared" si="19"/>
-        <v>0.18392330722757061</v>
+        <v>0.18369236643829967</v>
       </c>
       <c r="BB33" s="13">
         <f t="shared" si="20"/>
-        <v>0.2310576732533533</v>
+        <v>0.23074674250728164</v>
       </c>
       <c r="BD33">
         <v>2004</v>
@@ -7799,10 +7841,12 @@
         <v>8.0489999999999995</v>
       </c>
       <c r="BT33" s="5">
-        <v>72.807300449106407</v>
+        <f t="shared" si="21"/>
+        <v>74.479898361049393</v>
       </c>
       <c r="BU33" s="17">
-        <v>0.58651215078182906</v>
+        <f t="shared" si="22"/>
+        <v>0.7044034946175145</v>
       </c>
     </row>
     <row r="34" spans="1:73" x14ac:dyDescent="0.25">
@@ -7811,58 +7855,58 @@
       </c>
       <c r="B34" s="4">
         <f t="shared" si="6"/>
-        <v>180.83793878567204</v>
+        <v>180.90007339664359</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="21"/>
-        <v>64.459873891485287</v>
+        <f t="shared" si="23"/>
+        <v>64.453798475017578</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="22"/>
-        <v>7.5537167938492971</v>
+        <f t="shared" si="24"/>
+        <v>7.5529467107576203</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="23"/>
-        <v>5.3587591526908493</v>
+        <f t="shared" si="25"/>
+        <v>5.3622882378950223</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="24"/>
-        <v>1.4360520588143091</v>
+        <f t="shared" si="26"/>
+        <v>1.4360275183266993</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="25"/>
-        <v>4.0563829742976907</v>
+        <f t="shared" si="27"/>
+        <v>4.0560766316397467</v>
       </c>
       <c r="I34">
         <v>2005</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="8"/>
-        <v>0.12456154708191856</v>
+        <v>0.12453910974522966</v>
       </c>
       <c r="K34" s="13">
         <f t="shared" si="9"/>
-        <v>0.15209033315617329</v>
+        <v>0.15207036801985541</v>
       </c>
       <c r="L34" s="13">
         <f t="shared" si="9"/>
-        <v>0.62605883036749688</v>
+        <v>0.62591328044616568</v>
       </c>
       <c r="M34" s="13">
         <f t="shared" si="9"/>
-        <v>0.77844384587389681</v>
+        <v>0.77786440304386684</v>
       </c>
       <c r="N34" s="13">
         <f t="shared" si="9"/>
-        <v>0.61916381779190455</v>
+        <v>0.61882901998384976</v>
       </c>
       <c r="O34" s="13">
         <f t="shared" si="9"/>
-        <v>0.48336046938198574</v>
+        <v>0.48292089878195288</v>
       </c>
       <c r="P34" s="13">
         <f t="shared" si="9"/>
-        <v>0.12456154708191856</v>
+        <v>0.12453910974522966</v>
       </c>
       <c r="R34">
         <v>2005</v>
@@ -7911,27 +7955,27 @@
       </c>
       <c r="AI34" s="5">
         <f t="shared" si="10"/>
-        <v>15.611235707739947</v>
+        <v>15.614673477163063</v>
       </c>
       <c r="AJ34" s="5">
         <f t="shared" si="11"/>
-        <v>20.924082498321063</v>
+        <v>20.918402235662448</v>
       </c>
       <c r="AK34" s="5">
         <f t="shared" si="12"/>
-        <v>3.6915372655247638</v>
+        <v>3.6893041486297484</v>
       </c>
       <c r="AL34" s="5">
         <f t="shared" si="13"/>
-        <v>2.2649892204817972</v>
+        <v>2.2655833498628559</v>
       </c>
       <c r="AM34" s="5">
         <f t="shared" si="14"/>
-        <v>0.50288553394176883</v>
+        <v>0.50251757935901731</v>
       </c>
       <c r="AN34" s="5">
         <f t="shared" si="15"/>
-        <v>0.43146922463201576</v>
+        <v>0.43136350266824897</v>
       </c>
       <c r="AP34">
         <v>2005</v>
@@ -7956,23 +8000,23 @@
       </c>
       <c r="AX34" s="13">
         <f t="shared" si="16"/>
-        <v>1.1372608171741991</v>
+        <v>1.1375428667369334</v>
       </c>
       <c r="AY34" s="13">
         <f t="shared" si="17"/>
-        <v>1.8371801429614527</v>
+        <v>1.8368156881863349</v>
       </c>
       <c r="AZ34" s="13">
         <f t="shared" si="18"/>
-        <v>0.41129902810511154</v>
+        <v>0.41113827568947048</v>
       </c>
       <c r="BA34" s="13">
         <f t="shared" si="19"/>
-        <v>0.29422134757928864</v>
+        <v>0.29418910968609668</v>
       </c>
       <c r="BB34" s="13">
         <f t="shared" si="20"/>
-        <v>9.5052788408858349E-2</v>
+        <v>9.4987311558247287E-2</v>
       </c>
       <c r="BD34">
         <v>2005</v>
@@ -8017,10 +8061,12 @@
         <v>7.7380000000000004</v>
       </c>
       <c r="BT34" s="5">
-        <v>81.276110348512375</v>
+        <f t="shared" si="21"/>
+        <v>78.870199687412452</v>
       </c>
       <c r="BU34" s="17">
-        <v>0.51158028615607476</v>
+        <f t="shared" si="22"/>
+        <v>0.67420223449129413</v>
       </c>
     </row>
     <row r="35" spans="1:73" x14ac:dyDescent="0.25">
@@ -8029,58 +8075,58 @@
       </c>
       <c r="B35" s="4">
         <f t="shared" si="6"/>
-        <v>358.63552986303887</v>
+        <v>358.70616165065519</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="21"/>
-        <v>51.086022689119368</v>
+        <f t="shared" si="23"/>
+        <v>51.104595777951651</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="22"/>
-        <v>14.425306927447739</v>
+        <f t="shared" si="24"/>
+        <v>14.426046883044304</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="23"/>
-        <v>2.7335356655054039</v>
+        <f t="shared" si="25"/>
+        <v>2.7348412132835755</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="24"/>
-        <v>2.3621415148511633</v>
+        <f t="shared" si="26"/>
+        <v>2.3644886290331995</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="25"/>
-        <v>3.6572206176313689</v>
+        <f t="shared" si="27"/>
+        <v>3.657371365541759</v>
       </c>
       <c r="I35">
         <v>2006</v>
       </c>
       <c r="J35" s="11">
         <f t="shared" si="8"/>
-        <v>0.11976602563333474</v>
+        <v>0.11965646197448523</v>
       </c>
       <c r="K35" s="13">
         <f t="shared" si="9"/>
-        <v>0.14623497512747904</v>
+        <v>0.14610833693638789</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="9"/>
-        <v>0.60195605852950607</v>
+        <v>0.60137388804403824</v>
       </c>
       <c r="M35" s="13">
         <f t="shared" si="9"/>
-        <v>0.74847437096884206</v>
+        <v>0.74736765466311117</v>
       </c>
       <c r="N35" s="13">
         <f t="shared" si="9"/>
-        <v>0.59532649850704211</v>
+        <v>0.59456737124493342</v>
       </c>
       <c r="O35" s="13">
         <f t="shared" si="9"/>
-        <v>0.46475147204194439</v>
+        <v>0.46398762830405055</v>
       </c>
       <c r="P35" s="13">
         <f t="shared" si="9"/>
-        <v>0.11976602563333474</v>
+        <v>0.11965646197448523</v>
       </c>
       <c r="R35">
         <v>2006</v>
@@ -8129,27 +8175,27 @@
       </c>
       <c r="AI35" s="5">
         <f t="shared" si="10"/>
-        <v>29.67196183571081</v>
+        <v>29.653594718877773</v>
       </c>
       <c r="AJ35" s="5">
         <f t="shared" si="11"/>
-        <v>16.011846912015201</v>
+        <v>16.005722407209607</v>
       </c>
       <c r="AK35" s="5">
         <f t="shared" si="12"/>
-        <v>6.8608604098098249</v>
+        <v>6.8542452905645348</v>
       </c>
       <c r="AL35" s="5">
         <f t="shared" si="13"/>
-        <v>1.1224410373629934</v>
+        <v>1.1219151045754021</v>
       </c>
       <c r="AM35" s="5">
         <f t="shared" si="14"/>
-        <v>0.80194548204826899</v>
+        <v>0.80169545828852939</v>
       </c>
       <c r="AN35" s="5">
         <f t="shared" si="15"/>
-        <v>0.37488424951630006</v>
+        <v>0.3745761663127381</v>
       </c>
       <c r="AP35">
         <v>2006</v>
@@ -8174,23 +8220,23 @@
       </c>
       <c r="AX35" s="13">
         <f t="shared" si="16"/>
-        <v>2.2554013748361568</v>
+        <v>2.2556300159459135</v>
       </c>
       <c r="AY35" s="13">
         <f t="shared" si="17"/>
-        <v>1.4560100850542594</v>
+        <v>1.4563877612232088</v>
       </c>
       <c r="AZ35" s="13">
         <f t="shared" si="18"/>
-        <v>0.78545633643669244</v>
+        <v>0.78526967919191892</v>
       </c>
       <c r="BA35" s="13">
         <f t="shared" si="19"/>
-        <v>0.15008410048755294</v>
+        <v>0.15004051740131216</v>
       </c>
       <c r="BB35" s="13">
         <f t="shared" si="20"/>
-        <v>0.15635097364667386</v>
+        <v>0.15640119372058814</v>
       </c>
       <c r="BD35">
         <v>2006</v>
@@ -8235,10 +8281,12 @@
         <v>8.2680000000000007</v>
       </c>
       <c r="BT35" s="5">
-        <v>70.23387122483841</v>
+        <f t="shared" si="21"/>
+        <v>75.614032917412175</v>
       </c>
       <c r="BU35" s="17">
-        <v>0.55073141561399586</v>
+        <f t="shared" si="22"/>
+        <v>0.64776963798402765</v>
       </c>
     </row>
     <row r="36" spans="1:73" x14ac:dyDescent="0.25">
@@ -8247,58 +8295,58 @@
       </c>
       <c r="B36" s="4">
         <f t="shared" si="6"/>
-        <v>189.5867332749844</v>
+        <v>189.55038418360647</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="21"/>
-        <v>100.49135063962756</v>
+        <f t="shared" si="23"/>
+        <v>100.52387135163704</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="22"/>
-        <v>11.560046349120963</v>
+        <f t="shared" si="24"/>
+        <v>11.570983501773927</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="23"/>
-        <v>5.3736625689209729</v>
+        <f t="shared" si="25"/>
+        <v>5.3798889317915632</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="24"/>
-        <v>1.2340104431858037</v>
+        <f t="shared" si="26"/>
+        <v>1.2355373858032201</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="25"/>
-        <v>3.8713974610933857</v>
+        <f t="shared" si="27"/>
+        <v>3.8739347888310296</v>
       </c>
       <c r="I36">
         <v>2007</v>
       </c>
       <c r="J36" s="11">
         <f t="shared" si="8"/>
-        <v>0.10751827398279534</v>
+        <v>0.10753945611806738</v>
       </c>
       <c r="K36" s="13">
         <f t="shared" si="9"/>
-        <v>0.13128040308993402</v>
+        <v>0.13131268323648831</v>
       </c>
       <c r="L36" s="13">
         <f t="shared" si="9"/>
-        <v>0.54039763016536979</v>
+        <v>0.5404757902473627</v>
       </c>
       <c r="M36" s="13">
         <f t="shared" si="9"/>
-        <v>0.67193239536312765</v>
+        <v>0.67168550512419867</v>
       </c>
       <c r="N36" s="13">
         <f t="shared" si="9"/>
-        <v>0.53444603540290414</v>
+        <v>0.53435853504395969</v>
       </c>
       <c r="O36" s="13">
         <f t="shared" si="9"/>
-        <v>0.41722413214157095</v>
+        <v>0.4170019434802385</v>
       </c>
       <c r="P36" s="13">
         <f t="shared" si="9"/>
-        <v>0.10751827398279534</v>
+        <v>0.10753945611806738</v>
       </c>
       <c r="R36">
         <v>2007</v>
@@ -8347,27 +8395,27 @@
       </c>
       <c r="AI36" s="5">
         <f t="shared" si="10"/>
-        <v>14.081266280099582</v>
+        <v>14.081847903054948</v>
       </c>
       <c r="AJ36" s="5">
         <f t="shared" si="11"/>
-        <v>28.850073963327119</v>
+        <v>28.862717109169527</v>
       </c>
       <c r="AK36" s="5">
         <f t="shared" si="12"/>
-        <v>5.1000748361691075</v>
+        <v>5.1035601350556767</v>
       </c>
       <c r="AL36" s="5">
         <f t="shared" si="13"/>
-        <v>2.0342708889549219</v>
+        <v>2.0363728029118917</v>
       </c>
       <c r="AM36" s="5">
         <f t="shared" si="14"/>
-        <v>0.38417737624312581</v>
+        <v>0.38448625413280485</v>
       </c>
       <c r="AN36" s="5">
         <f t="shared" si="15"/>
-        <v>0.3583300328002183</v>
+        <v>0.35863192038125702</v>
       </c>
       <c r="AP36">
         <v>2007</v>
@@ -8392,23 +8440,23 @@
       </c>
       <c r="AX36" s="13">
         <f t="shared" si="16"/>
-        <v>1.1922805836956303</v>
+        <v>1.1919380869599325</v>
       </c>
       <c r="AY36" s="13">
         <f t="shared" si="17"/>
-        <v>2.8641184474747718</v>
+        <v>2.8647469707697693</v>
       </c>
       <c r="AZ36" s="13">
         <f t="shared" si="18"/>
-        <v>0.62944322086777371</v>
+        <v>0.62985671515130437</v>
       </c>
       <c r="BA36" s="13">
         <f t="shared" si="19"/>
-        <v>0.29503961596602146</v>
+        <v>0.29515472962996481</v>
       </c>
       <c r="BB36" s="13">
         <f t="shared" si="20"/>
-        <v>8.1679583153349222E-2</v>
+        <v>8.1725714242512945E-2</v>
       </c>
       <c r="BD36">
         <v>2007</v>
@@ -8453,10 +8501,12 @@
         <v>9.0939999999999994</v>
       </c>
       <c r="BT36" s="5">
-        <v>105.68669786651697</v>
+        <f t="shared" si="21"/>
+        <v>106.44520506572343</v>
       </c>
       <c r="BU36" s="17">
-        <v>0.46265131115260322</v>
+        <f t="shared" si="22"/>
+        <v>0.58217327680517372</v>
       </c>
     </row>
     <row r="37" spans="1:73" x14ac:dyDescent="0.25">
@@ -8465,58 +8515,58 @@
       </c>
       <c r="B37" s="4">
         <f t="shared" si="6"/>
-        <v>204.49277465624871</v>
+        <v>204.60048810583893</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="21"/>
-        <v>53.120674996744263</v>
+        <f t="shared" si="23"/>
+        <v>53.108775887497586</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="22"/>
-        <v>23.966907635549425</v>
+        <f t="shared" si="24"/>
+        <v>23.972789946460733</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="23"/>
-        <v>4.6535132749139745</v>
+        <f t="shared" si="25"/>
+        <v>4.6590661774133304</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="24"/>
-        <v>2.5781283327989826</v>
+        <f t="shared" si="26"/>
+        <v>2.5813414205653871</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="25"/>
-        <v>3.5121945243693884</v>
+        <f t="shared" si="27"/>
+        <v>3.5149716079716868</v>
       </c>
       <c r="I37">
         <v>2008</v>
       </c>
       <c r="J37" s="11">
         <f t="shared" si="8"/>
-        <v>9.5624685117484912E-2</v>
+        <v>9.5569849927767986E-2</v>
       </c>
       <c r="K37" s="13">
         <f t="shared" si="9"/>
-        <v>0.11675826575843488</v>
+        <v>0.1166970141335438</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="9"/>
-        <v>0.48061925948576367</v>
+        <v>0.48031849916390051</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="9"/>
-        <v>0.5976037500110728</v>
+        <v>0.59692400576119187</v>
       </c>
       <c r="N37" s="13">
         <f t="shared" si="9"/>
-        <v>0.47532602556351239</v>
+        <v>0.47488212089993359</v>
       </c>
       <c r="O37" s="13">
         <f t="shared" si="9"/>
-        <v>0.37107111918331004</v>
+        <v>0.37058782512568827</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="9"/>
-        <v>9.5624685117484912E-2</v>
+        <v>9.5569849927767986E-2</v>
       </c>
       <c r="R37">
         <v>2008</v>
@@ -8565,27 +8615,27 @@
       </c>
       <c r="AI37" s="5">
         <f t="shared" si="10"/>
-        <v>13.489642577360963</v>
+        <v>13.489995208478637</v>
       </c>
       <c r="AJ37" s="5">
         <f t="shared" si="11"/>
-        <v>13.842910709957211</v>
+        <v>13.832765266813087</v>
       </c>
       <c r="AK37" s="5">
         <f t="shared" si="12"/>
-        <v>9.7123825930809087</v>
+        <v>9.7065613922885028</v>
       </c>
       <c r="AL37" s="5">
         <f t="shared" si="13"/>
-        <v>1.6082331271795061</v>
+        <v>1.6089656747324275</v>
       </c>
       <c r="AM37" s="5">
         <f t="shared" si="14"/>
-        <v>0.72885408244840288</v>
+        <v>0.72897144718796469</v>
       </c>
       <c r="AN37" s="5">
         <f t="shared" si="15"/>
-        <v>0.29076008759588579</v>
+        <v>0.29083070657375559</v>
       </c>
       <c r="AP37">
         <v>2008</v>
@@ -8610,23 +8660,23 @@
       </c>
       <c r="AX37" s="13">
         <f t="shared" si="16"/>
-        <v>1.2860222892023521</v>
+        <v>1.286576734910325</v>
       </c>
       <c r="AY37" s="13">
         <f t="shared" si="17"/>
-        <v>1.5140000033046723</v>
+        <v>1.5135032385769891</v>
       </c>
       <c r="AZ37" s="13">
         <f t="shared" si="18"/>
-        <v>1.3049954196340925</v>
+        <v>1.3049385755649123</v>
       </c>
       <c r="BA37" s="13">
         <f t="shared" si="19"/>
-        <v>0.25549999686695868</v>
+        <v>0.25560851447998323</v>
       </c>
       <c r="BB37" s="13">
         <f t="shared" si="20"/>
-        <v>0.17064721672469124</v>
+        <v>0.17074511360280964</v>
       </c>
       <c r="BD37">
         <v>2008</v>
@@ -8671,10 +8721,12 @@
         <v>8.4410000000000007</v>
       </c>
       <c r="BT37" s="5">
-        <v>113.76760973251443</v>
+        <f t="shared" si="21"/>
+        <v>112.52460709486637</v>
       </c>
       <c r="BU37" s="17">
-        <v>0.43799344496094356</v>
+        <f t="shared" si="22"/>
+        <v>0.51737487527500869</v>
       </c>
     </row>
     <row r="38" spans="1:73" x14ac:dyDescent="0.25">
@@ -8683,58 +8735,58 @@
       </c>
       <c r="B38" s="4">
         <f t="shared" si="6"/>
-        <v>202.52760470918224</v>
+        <v>202.65801372235634</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="21"/>
-        <v>57.098301910306013</v>
+        <f t="shared" si="23"/>
+        <v>57.131876882946024</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="22"/>
-        <v>13.355749317408723</v>
+        <f t="shared" si="24"/>
+        <v>13.35677419359947</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="23"/>
-        <v>10.402750895272277</v>
+        <f t="shared" si="25"/>
+        <v>10.41237944143826</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="24"/>
-        <v>2.3685938142761223</v>
+        <f t="shared" si="26"/>
+        <v>2.3724731067775449</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" si="25"/>
-        <v>4.0697430646586028</v>
+        <f t="shared" si="27"/>
+        <v>4.074472890507586</v>
       </c>
       <c r="I38">
         <v>2009</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="8"/>
-        <v>9.0603431644087629E-2</v>
+        <v>9.0456206237706893E-2</v>
       </c>
       <c r="K38" s="13">
         <f t="shared" si="9"/>
-        <v>0.11062728768758333</v>
+        <v>0.11045292198079909</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="9"/>
-        <v>0.45538193584794451</v>
+        <v>0.45461815889627971</v>
       </c>
       <c r="M38" s="13">
         <f t="shared" si="9"/>
-        <v>0.56622356923691763</v>
+        <v>0.56498446962282012</v>
       </c>
       <c r="N38" s="13">
         <f t="shared" si="9"/>
-        <v>0.45036664970857948</v>
+        <v>0.44947266422611704</v>
       </c>
       <c r="O38" s="13">
         <f t="shared" si="9"/>
-        <v>0.35158616983380447</v>
+        <v>0.35075882994572588</v>
       </c>
       <c r="P38" s="13">
         <f t="shared" si="9"/>
-        <v>9.0603431644087629E-2</v>
+        <v>9.0456206237706893E-2</v>
       </c>
       <c r="R38">
         <v>2009</v>
@@ -8783,27 +8835,27 @@
       </c>
       <c r="AI38" s="5">
         <f t="shared" si="10"/>
-        <v>12.584177866505106</v>
+        <v>12.573300195163039</v>
       </c>
       <c r="AJ38" s="5">
         <f t="shared" si="11"/>
-        <v>14.198542726128915</v>
+        <v>14.187287513063264</v>
       </c>
       <c r="AK38" s="5">
         <f t="shared" si="12"/>
-        <v>5.2004316930562444</v>
+        <v>5.1922403408882847</v>
       </c>
       <c r="AL38" s="5">
         <f t="shared" si="13"/>
-        <v>3.4444217196052902</v>
+        <v>3.4421390692819203</v>
       </c>
       <c r="AM38" s="5">
         <f t="shared" si="14"/>
-        <v>0.64008640886719403</v>
+        <v>0.63986650510089937</v>
       </c>
       <c r="AN38" s="5">
         <f t="shared" si="15"/>
-        <v>0.31998897225743467</v>
+        <v>0.31986269963955322</v>
       </c>
       <c r="AP38">
         <v>2009</v>
@@ -8828,23 +8880,23 @@
       </c>
       <c r="AX38" s="13">
         <f t="shared" si="16"/>
-        <v>1.2736636503299208</v>
+        <v>1.274361992056656</v>
       </c>
       <c r="AY38" s="13">
         <f t="shared" si="17"/>
-        <v>1.6273669204352685</v>
+        <v>1.6281542785224783</v>
       </c>
       <c r="AZ38" s="13">
         <f t="shared" si="18"/>
-        <v>0.72721904511149038</v>
+        <v>0.72706472334944683</v>
       </c>
       <c r="BA38" s="13">
         <f t="shared" si="19"/>
-        <v>0.57116046825910316</v>
+        <v>0.57125027631729985</v>
       </c>
       <c r="BB38" s="13">
         <f t="shared" si="20"/>
-        <v>0.1567780536039963</v>
+        <v>0.15692933406988713</v>
       </c>
       <c r="BD38">
         <v>2009</v>
@@ -8889,10 +8941,12 @@
         <v>8.4930000000000003</v>
       </c>
       <c r="BT38" s="5">
-        <v>141.44887173490685</v>
+        <f t="shared" si="21"/>
+        <v>131.24242919345019</v>
       </c>
       <c r="BU38" s="17">
-        <v>0.37859749365089074</v>
+        <f t="shared" si="22"/>
+        <v>0.4896917642484056</v>
       </c>
     </row>
     <row r="39" spans="1:73" x14ac:dyDescent="0.25">
@@ -8901,58 +8955,58 @@
       </c>
       <c r="B39" s="4">
         <f t="shared" si="6"/>
-        <v>296.94875600223605</v>
+        <v>297.18890315106819</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="21"/>
-        <v>55.714972065667375</v>
+        <f t="shared" si="23"/>
+        <v>55.760569229122744</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="22"/>
-        <v>14.620029052547517</v>
+        <f t="shared" si="24"/>
+        <v>14.639803204743766</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="23"/>
-        <v>5.9877959134225147</v>
+        <f t="shared" si="25"/>
+        <v>5.9956800410875069</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="24"/>
-        <v>5.4287213675248491</v>
+        <f t="shared" si="26"/>
+        <v>5.4386059288433302</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="25"/>
-        <v>4.407797298888422</v>
+        <f t="shared" si="27"/>
+        <v>4.4151486842248646</v>
       </c>
       <c r="I39">
         <v>2010</v>
       </c>
       <c r="J39" s="11">
         <f t="shared" si="8"/>
-        <v>7.6683053623169337E-2</v>
+        <v>7.6553037496709192E-2</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="9"/>
-        <v>9.3630429664705875E-2</v>
+        <v>9.3476247011700445E-2</v>
       </c>
       <c r="L39" s="13">
         <f t="shared" si="9"/>
-        <v>0.38541671956560281</v>
+        <v>0.38474309737483031</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="9"/>
-        <v>0.47922856270014436</v>
+        <v>0.47814604532977534</v>
       </c>
       <c r="N39" s="13">
         <f t="shared" si="9"/>
-        <v>0.38117198568542027</v>
+        <v>0.38038846807068999</v>
       </c>
       <c r="O39" s="13">
         <f t="shared" si="9"/>
-        <v>0.29756821154896823</v>
+        <v>0.29684700451149165</v>
       </c>
       <c r="P39" s="13">
         <f t="shared" si="9"/>
-        <v>7.6683053623169337E-2</v>
+        <v>7.6553037496709192E-2</v>
       </c>
       <c r="R39">
         <v>2010</v>
@@ -9001,27 +9055,27 @@
       </c>
       <c r="AI39" s="5">
         <f t="shared" si="10"/>
-        <v>15.548547517674256</v>
+        <v>15.536442068348277</v>
       </c>
       <c r="AJ39" s="5">
         <f t="shared" si="11"/>
-        <v>12.009650795638397</v>
+        <v>12.001661225200069</v>
       </c>
       <c r="AK39" s="5">
         <f t="shared" si="12"/>
-        <v>5.0071455470898334</v>
+        <v>5.0049809842035566</v>
       </c>
       <c r="AL39" s="5">
         <f t="shared" si="13"/>
-        <v>1.7309437150178382</v>
+        <v>1.7302726169766367</v>
       </c>
       <c r="AM39" s="5">
         <f t="shared" si="14"/>
-        <v>1.2726509874781335</v>
+        <v>1.2722989780228617</v>
       </c>
       <c r="AN39" s="5">
         <f t="shared" si="15"/>
-        <v>0.29527348561275557</v>
+        <v>0.29528278695925475</v>
       </c>
       <c r="AP39">
         <v>2010</v>
@@ -9046,23 +9100,23 @@
       </c>
       <c r="AX39" s="13">
         <f t="shared" si="16"/>
-        <v>1.8674631395252432</v>
+        <v>1.8687948020431449</v>
       </c>
       <c r="AY39" s="13">
         <f t="shared" si="17"/>
-        <v>1.5879404374419197</v>
+        <v>1.5890745117520388</v>
       </c>
       <c r="AZ39" s="13">
         <f t="shared" si="18"/>
-        <v>0.79605893420277685</v>
+        <v>0.79690532404508174</v>
       </c>
       <c r="BA39" s="13">
         <f t="shared" si="19"/>
-        <v>0.3287584555451219</v>
+        <v>0.32893863496279374</v>
       </c>
       <c r="BB39" s="13">
         <f t="shared" si="20"/>
-        <v>0.3593289674359304</v>
+        <v>0.35974140412540828</v>
       </c>
       <c r="BD39">
         <v>2010</v>
@@ -9107,10 +9161,12 @@
         <v>8.9030000000000005</v>
       </c>
       <c r="BT39" s="5">
-        <v>150.96892143587203</v>
+        <f t="shared" si="21"/>
+        <v>139.38934751372798</v>
       </c>
       <c r="BU39" s="17">
-        <v>0.32800882464561348</v>
+        <f t="shared" si="22"/>
+        <v>0.41442587025843186</v>
       </c>
     </row>
     <row r="40" spans="1:73" x14ac:dyDescent="0.25">
@@ -9119,58 +9175,58 @@
       </c>
       <c r="B40" s="4">
         <f t="shared" si="6"/>
-        <v>154.35053073537202</v>
+        <v>154.44458836082632</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="21"/>
-        <v>80.79613704526723</v>
+        <f t="shared" si="23"/>
+        <v>80.873946555756518</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="22"/>
-        <v>15.162604853357571</v>
+        <f t="shared" si="24"/>
+        <v>15.185239607286084</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="23"/>
-        <v>7.1575223372162071</v>
+        <f t="shared" si="25"/>
+        <v>7.1749659846141425</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="24"/>
-        <v>3.3486303038154039</v>
+        <f t="shared" si="26"/>
+        <v>3.3556676384898774</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="25"/>
-        <v>6.6431125733898249</v>
+        <f t="shared" si="27"/>
+        <v>6.6575179820595718</v>
       </c>
       <c r="I40">
         <v>2011</v>
       </c>
       <c r="J40" s="11">
         <f t="shared" si="8"/>
-        <v>6.0238436535306611E-2</v>
+        <v>6.023571466814711E-2</v>
       </c>
       <c r="K40" s="13">
         <f t="shared" si="9"/>
-        <v>7.3551461876405197E-2</v>
+        <v>7.3551732594386882E-2</v>
       </c>
       <c r="L40" s="13">
         <f t="shared" si="9"/>
-        <v>0.30276442452708718</v>
+        <v>0.30273489063063841</v>
       </c>
       <c r="M40" s="13">
         <f t="shared" si="9"/>
-        <v>0.37645839590556629</v>
+        <v>0.37622894790328049</v>
       </c>
       <c r="N40" s="13">
         <f t="shared" si="9"/>
-        <v>0.29942997029803198</v>
+        <v>0.29930845300220305</v>
       </c>
       <c r="O40" s="13">
         <f t="shared" si="9"/>
-        <v>0.23375495600896712</v>
+        <v>0.23357389920180549</v>
       </c>
       <c r="P40" s="13">
         <f t="shared" si="9"/>
-        <v>6.0238436535306611E-2</v>
+        <v>6.023571466814711E-2</v>
       </c>
       <c r="R40">
         <v>2011</v>
@@ -9219,27 +9275,27 @@
       </c>
       <c r="AI40" s="5">
         <f t="shared" si="10"/>
-        <v>6.3140647739264546</v>
+        <v>6.3179349994410714</v>
       </c>
       <c r="AJ40" s="5">
         <f t="shared" si="11"/>
-        <v>14.064931578093432</v>
+        <v>14.077269523724542</v>
       </c>
       <c r="AK40" s="5">
         <f t="shared" si="12"/>
-        <v>4.2722250968156477</v>
+        <v>4.2764358970003356</v>
       </c>
       <c r="AL40" s="5">
         <f t="shared" si="13"/>
-        <v>1.6869895250769822</v>
+        <v>1.6905087986746821</v>
       </c>
       <c r="AM40" s="5">
         <f t="shared" si="14"/>
-        <v>0.63509484007436834</v>
+        <v>0.63599000039158649</v>
       </c>
       <c r="AN40" s="5">
         <f t="shared" si="15"/>
-        <v>0.35233846784769329</v>
+        <v>0.35308700902949314</v>
       </c>
       <c r="AP40">
         <v>2011</v>
@@ -9264,23 +9320,23 @@
       </c>
       <c r="AX40" s="13">
         <f t="shared" si="16"/>
-        <v>0.97068575263637369</v>
+        <v>0.97118445834328593</v>
       </c>
       <c r="AY40" s="13">
         <f t="shared" si="17"/>
-        <v>2.3027823302515751</v>
+        <v>2.3047599569594839</v>
       </c>
       <c r="AZ40" s="13">
         <f t="shared" si="18"/>
-        <v>0.82560212540743505</v>
+        <v>0.8265956939930279</v>
       </c>
       <c r="BA40" s="13">
         <f t="shared" si="19"/>
-        <v>0.39298199590238286</v>
+        <v>0.39363733566665943</v>
       </c>
       <c r="BB40" s="13">
         <f t="shared" si="20"/>
-        <v>0.22164701187146482</v>
+        <v>0.22196360682180921</v>
       </c>
       <c r="BD40">
         <v>2011</v>
@@ -9325,10 +9381,12 @@
         <v>8.1460000000000008</v>
       </c>
       <c r="BT40" s="5">
-        <v>178.55187144221438</v>
+        <f t="shared" si="21"/>
+        <v>158.74184713525929</v>
       </c>
       <c r="BU40" s="17">
-        <v>0.23856058656255499</v>
+        <f t="shared" si="22"/>
+        <v>0.326090763845374</v>
       </c>
     </row>
     <row r="41" spans="1:73" x14ac:dyDescent="0.25">
@@ -9337,58 +9395,58 @@
       </c>
       <c r="B41" s="4">
         <f t="shared" si="6"/>
-        <v>226.80674259320668</v>
+        <v>227.00794881313305</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="21"/>
-        <v>41.416308466896325</v>
+        <f t="shared" si="23"/>
+        <v>41.441535383557401</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="22"/>
-        <v>23.574479057001376</v>
+        <f t="shared" si="24"/>
+        <v>23.597879033237458</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="23"/>
-        <v>8.2348388427841268</v>
+        <f t="shared" si="25"/>
+        <v>8.24902432468852</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="24"/>
-        <v>4.3437320958329249</v>
+        <f t="shared" si="26"/>
+        <v>4.3548473926188285</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="25"/>
-        <v>7.29111164461054</v>
+        <f t="shared" si="27"/>
+        <v>7.3071847532534644</v>
       </c>
       <c r="I41">
         <v>2012</v>
       </c>
       <c r="J41" s="11">
         <f t="shared" si="8"/>
-        <v>6.1740514255128921E-2</v>
+        <v>6.1616476249227996E-2</v>
       </c>
       <c r="K41" s="13">
         <f t="shared" si="9"/>
-        <v>7.538550702264922E-2</v>
+        <v>7.5237732455893769E-2</v>
       </c>
       <c r="L41" s="13">
         <f t="shared" si="9"/>
-        <v>0.31031401781990797</v>
+        <v>0.30967437343645215</v>
       </c>
       <c r="M41" s="13">
         <f t="shared" si="9"/>
-        <v>0.38584558789549067</v>
+        <v>0.38485310849998439</v>
       </c>
       <c r="N41" s="13">
         <f t="shared" si="9"/>
-        <v>0.30689641718644212</v>
+        <v>0.30616939281299499</v>
       </c>
       <c r="O41" s="13">
         <f t="shared" si="9"/>
-        <v>0.23958376119572389</v>
+        <v>0.23892802952362363</v>
       </c>
       <c r="P41" s="13">
         <f t="shared" si="9"/>
-        <v>6.1740514255128921E-2</v>
+        <v>6.1616476249227996E-2</v>
       </c>
       <c r="R41">
         <v>2012</v>
@@ -9437,27 +9495,27 @@
       </c>
       <c r="AI41" s="5">
         <f t="shared" si="10"/>
-        <v>9.3511596005376596</v>
+        <v>9.3416469309031704</v>
       </c>
       <c r="AJ41" s="5">
         <f t="shared" si="11"/>
-        <v>7.3203987687843952</v>
+        <v>7.3116205175771247</v>
       </c>
       <c r="AK41" s="5">
         <f t="shared" si="12"/>
-        <v>6.7823956172620639</v>
+        <v>6.7746815980380415</v>
       </c>
       <c r="AL41" s="5">
         <f t="shared" si="13"/>
-        <v>1.9825100856661371</v>
+        <v>1.9818803876206845</v>
       </c>
       <c r="AM41" s="5">
         <f t="shared" si="14"/>
-        <v>0.84208722673752312</v>
+        <v>0.84218734400018447</v>
       </c>
       <c r="AN41" s="5">
         <f t="shared" si="15"/>
-        <v>0.3960652580810311</v>
+        <v>0.3961644170059922</v>
       </c>
       <c r="AP41">
         <v>2012</v>
@@ -9482,23 +9540,23 @@
       </c>
       <c r="AX41" s="13">
         <f t="shared" si="16"/>
-        <v>1.4263512576742838</v>
+        <v>1.4274801995174513</v>
       </c>
       <c r="AY41" s="13">
         <f t="shared" si="17"/>
-        <v>1.1804121683241313</v>
+        <v>1.1810081660982599</v>
       </c>
       <c r="AZ41" s="13">
         <f t="shared" si="18"/>
-        <v>1.2836277277596884</v>
+        <v>1.2845306166182087</v>
       </c>
       <c r="BA41" s="13">
         <f t="shared" si="19"/>
-        <v>0.45213179252618529</v>
+        <v>0.45256297576642496</v>
       </c>
       <c r="BB41" s="13">
         <f t="shared" si="20"/>
-        <v>0.28751314778300974</v>
+        <v>0.2880552362626787</v>
       </c>
       <c r="BD41">
         <v>2012</v>
@@ -9543,10 +9601,12 @@
         <v>8.6950000000000003</v>
       </c>
       <c r="BT41" s="5">
-        <v>173.31715903259007</v>
+        <f t="shared" si="21"/>
+        <v>171.90901247074109</v>
       </c>
       <c r="BU41" s="17">
-        <v>0.26855310287688267</v>
+        <f t="shared" si="22"/>
+        <v>0.33356562491647718</v>
       </c>
     </row>
     <row r="42" spans="1:73" x14ac:dyDescent="0.25">
@@ -9555,58 +9615,58 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" si="6"/>
-        <v>266.51894754803908</v>
+        <v>266.58271145789473</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="21"/>
-        <v>58.306454183530491</v>
+        <f t="shared" si="23"/>
+        <v>58.366803862737235</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="22"/>
-        <v>11.803082306356737</v>
+        <f t="shared" si="24"/>
+        <v>11.817828423579616</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="23"/>
-        <v>12.696408308551606</v>
+        <f t="shared" si="25"/>
+        <v>12.721630428256747</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="24"/>
-        <v>4.9603553259249198</v>
+        <f t="shared" si="26"/>
+        <v>4.9725139484776983</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="25"/>
-        <v>8.410733195440482</v>
+        <f t="shared" si="27"/>
+        <v>8.4328046475496734</v>
       </c>
       <c r="I42">
         <v>2013</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" si="8"/>
-        <v>5.4261509175884737E-2</v>
+        <v>5.4229701581144006E-2</v>
       </c>
       <c r="K42" s="13">
         <f t="shared" si="9"/>
-        <v>6.6253600741564847E-2</v>
+        <v>6.621799926080961E-2</v>
       </c>
       <c r="L42" s="13">
         <f t="shared" si="9"/>
-        <v>0.27272378807472947</v>
+        <v>0.27254964712457014</v>
       </c>
       <c r="M42" s="13">
         <f t="shared" si="9"/>
-        <v>0.33910575836071144</v>
+        <v>0.33871572178377013</v>
       </c>
       <c r="N42" s="13">
         <f t="shared" si="9"/>
-        <v>0.26972018225171984</v>
+        <v>0.26946485447123897</v>
       </c>
       <c r="O42" s="13">
         <f t="shared" si="9"/>
-        <v>0.21056151885606939</v>
+        <v>0.2102845947896804</v>
       </c>
       <c r="P42" s="13">
         <f t="shared" si="9"/>
-        <v>5.4261509175884737E-2</v>
+        <v>5.4229701581144006E-2</v>
       </c>
       <c r="R42">
         <v>2013</v>
@@ -9655,27 +9715,27 @@
       </c>
       <c r="AI42" s="5">
         <f t="shared" si="10"/>
-        <v>9.5310283590592046</v>
+        <v>9.5283173610543308</v>
       </c>
       <c r="AJ42" s="5">
         <f t="shared" si="11"/>
-        <v>9.1320455758081085</v>
+        <v>9.1362963600792462</v>
       </c>
       <c r="AK42" s="5">
         <f t="shared" si="12"/>
-        <v>3.0479379647140408</v>
+        <v>3.0487739498029107</v>
       </c>
       <c r="AL42" s="5">
         <f t="shared" si="13"/>
-        <v>2.7326318677384793</v>
+        <v>2.735790443981573</v>
       </c>
       <c r="AM42" s="5">
         <f t="shared" si="14"/>
-        <v>0.85661451023256729</v>
+        <v>0.85769550477679568</v>
       </c>
       <c r="AN42" s="5">
         <f t="shared" si="15"/>
-        <v>0.40297933095569183</v>
+        <v>0.40380613712136199</v>
       </c>
       <c r="AP42">
         <v>2013</v>
@@ -9700,23 +9760,23 @@
       </c>
       <c r="AX42" s="13">
         <f t="shared" si="16"/>
-        <v>1.6760949506293836</v>
+        <v>1.6763357588551688</v>
       </c>
       <c r="AY42" s="13">
         <f t="shared" si="17"/>
-        <v>1.6618006422538734</v>
+        <v>1.6633474448511358</v>
       </c>
       <c r="AZ42" s="13">
         <f t="shared" si="18"/>
-        <v>0.64267650134859122</v>
+        <v>0.6432935100077205</v>
       </c>
       <c r="BA42" s="13">
         <f t="shared" si="19"/>
-        <v>0.69709316196514581</v>
+        <v>0.69794180458183674</v>
       </c>
       <c r="BB42" s="13">
         <f t="shared" si="20"/>
-        <v>0.32832765520853757</v>
+        <v>0.32891133743881812</v>
       </c>
       <c r="BD42">
         <v>2013</v>
@@ -9761,10 +9821,12 @@
         <v>8.843</v>
       </c>
       <c r="BT42" s="5">
-        <v>191.50989597497642</v>
+        <f t="shared" si="21"/>
+        <v>191.43434552896082</v>
       </c>
       <c r="BU42" s="17">
-        <v>0.23572706542817545</v>
+        <f t="shared" si="22"/>
+        <v>0.29357674112652643</v>
       </c>
     </row>
     <row r="43" spans="1:73" x14ac:dyDescent="0.25">
@@ -9773,58 +9835,58 @@
       </c>
       <c r="B43" s="4">
         <f t="shared" si="6"/>
-        <v>388.54142806512999</v>
+        <v>388.65646987542124</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="21"/>
-        <v>66.233855067845383</v>
+        <f t="shared" si="23"/>
+        <v>66.252059961147737</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="22"/>
-        <v>16.962228269716068</v>
+        <f t="shared" si="24"/>
+        <v>16.982742036357003</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="23"/>
-        <v>6.6609022703448257</v>
+        <f t="shared" si="25"/>
+        <v>6.671825781340746</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="24"/>
-        <v>7.937504735873957</v>
+        <f t="shared" si="26"/>
+        <v>7.9553039803499752</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="25"/>
-        <v>9.8125239750559956</v>
+        <f t="shared" si="27"/>
+        <v>9.8388261623970052</v>
       </c>
       <c r="I43">
         <v>2014</v>
       </c>
       <c r="J43" s="11">
         <f t="shared" si="8"/>
-        <v>5.4189416629936836E-2</v>
+        <v>5.4122942236528471E-2</v>
       </c>
       <c r="K43" s="13">
         <f t="shared" si="9"/>
-        <v>6.6165575346985556E-2</v>
+        <v>6.6087639144550098E-2</v>
       </c>
       <c r="L43" s="13">
         <f t="shared" si="9"/>
-        <v>0.27236144370721233</v>
+        <v>0.27201309204766871</v>
       </c>
       <c r="M43" s="13">
         <f t="shared" si="9"/>
-        <v>0.33865521804517074</v>
+        <v>0.33804890881201688</v>
       </c>
       <c r="N43" s="13">
         <f t="shared" si="9"/>
-        <v>0.26936182851391594</v>
+        <v>0.26893437227381761</v>
       </c>
       <c r="O43" s="13">
         <f t="shared" si="9"/>
-        <v>0.21028176408692381</v>
+        <v>0.20987061785696765</v>
       </c>
       <c r="P43" s="13">
         <f t="shared" si="9"/>
-        <v>5.4189416629936836E-2</v>
+        <v>5.4122942236528471E-2</v>
       </c>
       <c r="R43">
         <v>2014</v>
@@ -9873,27 +9935,27 @@
       </c>
       <c r="AI43" s="5">
         <f t="shared" si="10"/>
-        <v>13.876707288381647</v>
+        <v>13.864884621252894</v>
       </c>
       <c r="AJ43" s="5">
         <f t="shared" si="11"/>
-        <v>10.361364907956368</v>
+        <v>10.3523981524786</v>
       </c>
       <c r="AK43" s="5">
         <f t="shared" si="12"/>
-        <v>4.3752689809170651</v>
+        <v>4.3739178558963072</v>
       </c>
       <c r="AL43" s="5">
         <f t="shared" si="13"/>
-        <v>1.4319493776770469</v>
+        <v>1.4323038235900261</v>
       </c>
       <c r="AM43" s="5">
         <f t="shared" si="14"/>
-        <v>1.3691021354905011</v>
+        <v>1.3697517165309081</v>
       </c>
       <c r="AN43" s="5">
         <f t="shared" si="15"/>
-        <v>0.46953421517174387</v>
+        <v>0.47023023208970927</v>
       </c>
       <c r="AP43">
         <v>2014</v>
@@ -9918,23 +9980,23 @@
       </c>
       <c r="AX43" s="13">
         <f t="shared" si="16"/>
-        <v>2.4434747761147899</v>
+        <v>2.4439647072367974</v>
       </c>
       <c r="AY43" s="13">
         <f t="shared" si="17"/>
-        <v>1.8877406357834325</v>
+        <v>1.8880628603831049</v>
       </c>
       <c r="AZ43" s="13">
         <f t="shared" si="18"/>
-        <v>0.92359141760676045</v>
+        <v>0.92444122071748724</v>
       </c>
       <c r="BA43" s="13">
         <f t="shared" si="19"/>
-        <v>0.3657151938039076</v>
+        <v>0.36603375266598376</v>
       </c>
       <c r="BB43" s="13">
         <f t="shared" si="20"/>
-        <v>0.52538621669209118</v>
+        <v>0.52621062485110071</v>
       </c>
       <c r="BD43">
         <v>2014</v>
@@ -9979,10 +10041,12 @@
         <v>7.9169999999999998</v>
       </c>
       <c r="BT43" s="5">
-        <v>195.91062131181786</v>
+        <f t="shared" si="21"/>
+        <v>200.16241812131869</v>
       </c>
       <c r="BU43" s="17">
-        <v>0.23912288261618797</v>
+        <f t="shared" si="22"/>
+        <v>0.29299879104450105</v>
       </c>
     </row>
     <row r="44" spans="1:73" x14ac:dyDescent="0.25">
@@ -9991,58 +10055,58 @@
       </c>
       <c r="B44" s="4">
         <f t="shared" si="6"/>
-        <v>163.46501273410229</v>
+        <v>163.41330392676133</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="21"/>
-        <v>96.566725438567133</v>
+        <f t="shared" si="23"/>
+        <v>96.602846092687159</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="22"/>
-        <v>19.275412006017874</v>
+        <f t="shared" si="24"/>
+        <v>19.28742764113446</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="23"/>
-        <v>9.5767069193295296</v>
+        <f t="shared" si="25"/>
+        <v>9.5941040205723631</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="24"/>
-        <v>4.1657366340188151</v>
+        <f t="shared" si="26"/>
+        <v>4.1743521830729673</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="25"/>
-        <v>12.876295753970085</v>
+        <f t="shared" si="27"/>
+        <v>12.911181169937979</v>
       </c>
       <c r="I44">
         <v>2015</v>
       </c>
       <c r="J44" s="11">
         <f t="shared" si="8"/>
-        <v>5.9428599939010465E-2</v>
+        <v>5.9481796098525136E-2</v>
       </c>
       <c r="K44" s="13">
         <f t="shared" si="9"/>
-        <v>7.2562646944203529E-2</v>
+        <v>7.2631148895226399E-2</v>
       </c>
       <c r="L44" s="13">
         <f t="shared" si="9"/>
-        <v>0.29869410455962142</v>
+        <v>0.29894581869920489</v>
       </c>
       <c r="M44" s="13">
         <f t="shared" si="9"/>
-        <v>0.37139734512931344</v>
+        <v>0.37152001414502273</v>
       </c>
       <c r="N44" s="13">
         <f t="shared" si="9"/>
-        <v>0.29540447823810628</v>
+        <v>0.29556226683995079</v>
       </c>
       <c r="O44" s="13">
         <f t="shared" si="9"/>
-        <v>0.23061238908941065</v>
+        <v>0.2306504558433693</v>
       </c>
       <c r="P44" s="13">
         <f t="shared" si="9"/>
-        <v>5.9428599939010465E-2</v>
+        <v>5.9481796098525136E-2</v>
       </c>
       <c r="R44">
         <v>2015</v>
@@ -10091,27 +10155,27 @@
       </c>
       <c r="AI44" s="5">
         <f t="shared" si="10"/>
-        <v>6.3867344103076391</v>
+        <v>6.390572061811695</v>
       </c>
       <c r="AJ44" s="5">
         <f t="shared" si="11"/>
-        <v>16.394061674678291</v>
+        <v>16.412371832581741</v>
       </c>
       <c r="AK44" s="5">
         <f t="shared" si="12"/>
-        <v>5.3726617142000714</v>
+        <v>5.3774896869822904</v>
       </c>
       <c r="AL44" s="5">
         <f t="shared" si="13"/>
-        <v>2.2309489486518115</v>
+        <v>2.2360336093566398</v>
       </c>
       <c r="AM44" s="5">
         <f t="shared" si="14"/>
-        <v>0.78058175610027425</v>
+        <v>0.78231144104013961</v>
       </c>
       <c r="AN44" s="5">
         <f t="shared" si="15"/>
-        <v>0.67401482238846777</v>
+        <v>0.676428662196084</v>
       </c>
       <c r="AP44">
         <v>2015</v>
@@ -10136,23 +10200,23 @@
       </c>
       <c r="AX44" s="13">
         <f t="shared" si="16"/>
-        <v>1.0280052693019595</v>
+        <v>1.027581883862579</v>
       </c>
       <c r="AY44" s="13">
         <f t="shared" si="17"/>
-        <v>2.7522621397802771</v>
+        <v>2.7530049031210235</v>
       </c>
       <c r="AZ44" s="13">
         <f t="shared" si="18"/>
-        <v>1.0495440113476564</v>
+        <v>1.0498948352921758</v>
       </c>
       <c r="BA44" s="13">
         <f t="shared" si="19"/>
-        <v>0.52580672780603799</v>
+        <v>0.52635755387068772</v>
       </c>
       <c r="BB44" s="13">
         <f t="shared" si="20"/>
-        <v>0.27573156586492598</v>
+        <v>0.27611622082940801</v>
       </c>
       <c r="BD44">
         <v>2015</v>
@@ -10197,10 +10261,12 @@
         <v>7.2779999999999996</v>
       </c>
       <c r="BT44" s="5">
-        <v>207.23591011220995</v>
+        <f t="shared" si="21"/>
+        <v>215.81774599424327</v>
       </c>
       <c r="BU44" s="17">
-        <v>0.26041291039358427</v>
+        <f t="shared" si="22"/>
+        <v>0.32200936656139284</v>
       </c>
     </row>
     <row r="45" spans="1:73" x14ac:dyDescent="0.25">
@@ -10209,27 +10275,27 @@
       </c>
       <c r="B45" s="4">
         <f t="shared" si="6"/>
-        <v>140.28747040559276</v>
+        <v>139.79336712222835</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="21"/>
-        <v>40.367957177710302</v>
+        <f t="shared" si="23"/>
+        <v>40.352423287203237</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="22"/>
-        <v>27.37253450023108</v>
+        <f t="shared" si="24"/>
+        <v>27.375881396272792</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="23"/>
-        <v>10.532154901662944</v>
+        <f t="shared" si="25"/>
+        <v>10.537427593033957</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="24"/>
-        <v>5.835321187892327</v>
+        <f t="shared" si="26"/>
+        <v>5.844999319114871</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="25"/>
-        <v>12.642153498347383</v>
+        <f t="shared" si="27"/>
+        <v>12.674035220190749</v>
       </c>
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
@@ -10260,23 +10326,23 @@
       </c>
       <c r="AX45" s="13">
         <f t="shared" si="16"/>
-        <v>0.88224541987207439</v>
+        <v>0.87905407997462237</v>
       </c>
       <c r="AY45" s="13">
         <f t="shared" si="17"/>
-        <v>1.1505329573504497</v>
+        <v>1.1499704579707517</v>
       </c>
       <c r="AZ45" s="13">
         <f t="shared" si="18"/>
-        <v>1.4904314185946022</v>
+        <v>1.4901829847034702</v>
       </c>
       <c r="BA45" s="13">
         <f t="shared" si="19"/>
-        <v>0.5782653632651239</v>
+        <v>0.57811074385536554</v>
       </c>
       <c r="BB45" s="13">
         <f t="shared" si="20"/>
-        <v>0.38624195186100768</v>
+        <v>0.38662265471726021</v>
       </c>
       <c r="BD45">
         <v>2016</v>
@@ -10321,7 +10387,8 @@
         <v>7.93</v>
       </c>
       <c r="BT45" s="5">
-        <v>185.22998292749853</v>
+        <f t="shared" si="21"/>
+        <v>225.64300343866717</v>
       </c>
       <c r="BU45" s="10"/>
     </row>
@@ -10332,21 +10399,21 @@
       </c>
       <c r="S48" s="16">
         <f>AI51+AX51</f>
-        <v>-289.90467636537699</v>
+        <v>-289.90661754880932</v>
       </c>
       <c r="AH48" t="s">
         <v>14</v>
       </c>
       <c r="AI48" s="12">
         <f>SUM(AI57:AN89)</f>
-        <v>12.958142297577806</v>
+        <v>12.952869756364016</v>
       </c>
       <c r="AW48" t="s">
         <v>14</v>
       </c>
       <c r="AX48" s="12">
         <f>SUM(AX57:BB90)</f>
-        <v>15.42623473690735</v>
+        <v>15.433196106053975</v>
       </c>
     </row>
     <row r="49" spans="1:73" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -10447,7 +10514,7 @@
       </c>
       <c r="AI50" s="7">
         <f>SQRT(AI48/AI49)</f>
-        <v>0.25582252269704447</v>
+        <v>0.25577047156200533</v>
       </c>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
@@ -10464,7 +10531,7 @@
       </c>
       <c r="AX50" s="7">
         <f>SQRT(AX48/AX49)</f>
-        <v>0.30123505319920124</v>
+        <v>0.30130301443264695</v>
       </c>
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
@@ -10515,7 +10582,7 @@
       </c>
       <c r="AI51" s="15">
         <f>AI49*LN(AI50) + AI48/(2*AI50^2)</f>
-        <v>-170.92772643682133</v>
+        <v>-170.96801676483199</v>
       </c>
       <c r="AJ51" s="3"/>
       <c r="AK51" s="3"/>
@@ -10532,7 +10599,7 @@
       </c>
       <c r="AX51" s="15">
         <f>AX49*LN(AX50) + AX48/(2*AX50^2)</f>
-        <v>-118.97694992855567</v>
+        <v>-118.93860078397736</v>
       </c>
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
@@ -10580,37 +10647,37 @@
         <v>15</v>
       </c>
       <c r="K54" s="14">
-        <v>0.19967469357811002</v>
+        <v>0.19972356014350573</v>
       </c>
       <c r="L54" s="14">
-        <v>1.6146443970835811</v>
+        <v>1.6145920307905814</v>
       </c>
       <c r="M54" s="14">
-        <v>1.8324969096656178</v>
+        <v>1.8319324187668851</v>
       </c>
       <c r="N54" s="14">
-        <v>1.6035699389459133</v>
+        <v>1.6032092137189118</v>
       </c>
       <c r="O54" s="14">
-        <v>1.3559627408957768</v>
+        <v>1.3552330685282312</v>
       </c>
       <c r="AW54" t="s">
         <v>16</v>
       </c>
       <c r="AX54" s="14">
-        <v>-5.0689786852444882</v>
+        <v>-5.069074241955283</v>
       </c>
       <c r="AY54" s="14">
-        <v>-3.5578110549064683</v>
+        <v>-3.5579151962726101</v>
       </c>
       <c r="AZ54" s="14">
-        <v>-2.910474499433251</v>
+        <v>-2.9107634637996318</v>
       </c>
       <c r="BA54" s="14">
-        <v>-2.9021553589133662</v>
+        <v>-2.9029232822401108</v>
       </c>
       <c r="BB54" s="14">
-        <v>-2.7152205968710517</v>
+        <v>-2.7158925924692063</v>
       </c>
     </row>
     <row r="56" spans="1:73" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -10683,78 +10750,78 @@
         <v>1983</v>
       </c>
       <c r="B57" s="14">
-        <v>6.7904572805111449</v>
+        <v>6.7901162724793194</v>
       </c>
       <c r="C57" s="14">
-        <v>5.7247702006769821</v>
+        <v>5.7249295187905034</v>
       </c>
       <c r="D57" s="14">
-        <v>3.5040139372661923</v>
+        <v>3.5037413302298774</v>
       </c>
       <c r="E57" s="14">
-        <v>3.0290004752602044</v>
+        <v>3.0308488143543157</v>
       </c>
       <c r="F57" s="14">
-        <v>1.8102508259639092</v>
+        <v>1.8117817597210297</v>
       </c>
       <c r="G57" s="14">
-        <v>2.7966663226486403</v>
+        <v>2.7961620806750171</v>
       </c>
       <c r="I57">
         <v>1983</v>
       </c>
       <c r="J57" s="14">
-        <v>-1.7408630155430225</v>
+        <v>-1.7403412653884629</v>
       </c>
       <c r="AH57">
         <v>1983</v>
       </c>
       <c r="AI57" s="12">
         <f>(LN(AA12)-LN(AI12))^2</f>
-        <v>3.1345496330068973E-2</v>
+        <v>3.1410640670503226E-2</v>
       </c>
       <c r="AJ57" s="12">
-        <f t="shared" ref="AJ57:AN72" si="26">(LN(AB12)-LN(AJ12))^2</f>
-        <v>1.1484290109952705E-3</v>
+        <f t="shared" ref="AJ57:AN72" si="28">(LN(AB12)-LN(AJ12))^2</f>
+        <v>1.1164843060477868E-3</v>
       </c>
       <c r="AK57" s="12">
-        <f t="shared" si="26"/>
-        <v>3.0430289358194668E-3</v>
+        <f t="shared" si="28"/>
+        <v>3.0758724568482831E-3</v>
       </c>
       <c r="AL57" s="12">
-        <f t="shared" si="26"/>
-        <v>4.0627733152786569E-3</v>
+        <f t="shared" si="28"/>
+        <v>3.8178075015726032E-3</v>
       </c>
       <c r="AM57" s="12">
-        <f t="shared" si="26"/>
-        <v>1.8226230168665199E-4</v>
+        <f t="shared" si="28"/>
+        <v>1.4682054450176877E-4</v>
       </c>
       <c r="AN57" s="12">
-        <f t="shared" si="26"/>
-        <v>1.1474828857251826E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.1469388500425819E-2</v>
       </c>
       <c r="AW57">
         <v>1983</v>
       </c>
       <c r="AX57" s="12">
         <f>(LN(AQ12)-LN(AX12))^2</f>
-        <v>0.16149014746125534</v>
+        <v>0.16113946366054935</v>
       </c>
       <c r="AY57" s="12">
-        <f t="shared" ref="AY57:BB57" si="27">(LN(AR12)-LN(AY12))^2</f>
-        <v>0.23182547843183554</v>
+        <f t="shared" ref="AY57:BB57" si="29">(LN(AR12)-LN(AY12))^2</f>
+        <v>0.23177234819052914</v>
       </c>
       <c r="AZ57" s="12">
-        <f t="shared" si="27"/>
-        <v>2.3904536346638968E-3</v>
+        <f t="shared" si="29"/>
+        <v>2.3358560007659171E-3</v>
       </c>
       <c r="BA57" s="12">
-        <f t="shared" si="27"/>
-        <v>3.4817739088681951E-2</v>
+        <f t="shared" si="29"/>
+        <v>3.5222107008061984E-2</v>
       </c>
       <c r="BB57" s="12">
-        <f t="shared" si="27"/>
-        <v>2.4544269835621549E-3</v>
+        <f t="shared" si="29"/>
+        <v>2.5402720854109787E-3</v>
       </c>
     </row>
     <row r="58" spans="1:73" x14ac:dyDescent="0.25">
@@ -10762,63 +10829,63 @@
         <v>1984</v>
       </c>
       <c r="B58" s="14">
-        <v>7.5506808716341407</v>
+        <v>7.5507842822591824</v>
       </c>
       <c r="I58">
         <v>1984</v>
       </c>
       <c r="J58" s="14">
-        <v>-1.7099882764522008</v>
+        <v>-1.7107965104591187</v>
       </c>
       <c r="AH58">
         <v>1984</v>
       </c>
       <c r="AI58" s="12">
-        <f t="shared" ref="AI58:AI89" si="28">(LN(AA13)-LN(AI13))^2</f>
-        <v>1.0859388087581743</v>
+        <f t="shared" ref="AI58:AI89" si="30">(LN(AA13)-LN(AI13))^2</f>
+        <v>1.0871753952914012</v>
       </c>
       <c r="AJ58" s="12">
-        <f t="shared" si="26"/>
-        <v>3.0415004627767331E-3</v>
+        <f t="shared" si="28"/>
+        <v>2.9284791814190581E-3</v>
       </c>
       <c r="AK58" s="12">
-        <f t="shared" si="26"/>
-        <v>4.6968661338487261E-2</v>
+        <f t="shared" si="28"/>
+        <v>4.6527455326944439E-2</v>
       </c>
       <c r="AL58" s="12">
-        <f t="shared" si="26"/>
-        <v>2.1271862429645107E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.0991645087357291E-2</v>
       </c>
       <c r="AM58" s="12">
-        <f t="shared" si="26"/>
-        <v>1.7794173673556302E-3</v>
+        <f t="shared" si="28"/>
+        <v>1.7267134078951705E-3</v>
       </c>
       <c r="AN58" s="12">
-        <f t="shared" si="26"/>
-        <v>1.8343488915667925E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.8095521541078102E-2</v>
       </c>
       <c r="AW58">
         <v>1984</v>
       </c>
       <c r="AX58" s="12">
-        <f t="shared" ref="AX58:AX90" si="29">(LN(AQ13)-LN(AX13))^2</f>
-        <v>4.8991133329301531E-3</v>
+        <f t="shared" ref="AX58:AX90" si="31">(LN(AQ13)-LN(AX13))^2</f>
+        <v>4.9002128431212362E-3</v>
       </c>
       <c r="AY58" s="12">
-        <f t="shared" ref="AY58:AY90" si="30">(LN(AR13)-LN(AY13))^2</f>
-        <v>1.8218181919198383E-3</v>
+        <f t="shared" ref="AY58:AY90" si="32">(LN(AR13)-LN(AY13))^2</f>
+        <v>1.8705738020380949E-3</v>
       </c>
       <c r="AZ58" s="12">
-        <f t="shared" ref="AZ58:AZ90" si="31">(LN(AS13)-LN(AZ13))^2</f>
-        <v>0.13427930780402952</v>
+        <f t="shared" ref="AZ58:AZ90" si="33">(LN(AS13)-LN(AZ13))^2</f>
+        <v>0.13388130429535852</v>
       </c>
       <c r="BA58" s="12">
-        <f t="shared" ref="BA58:BA90" si="32">(LN(AT13)-LN(BA13))^2</f>
-        <v>8.9543561200369215E-3</v>
+        <f t="shared" ref="BA58:BA90" si="34">(LN(AT13)-LN(BA13))^2</f>
+        <v>8.767282993609635E-3</v>
       </c>
       <c r="BB58" s="12">
-        <f t="shared" ref="BB58:BB90" si="33">(LN(AU13)-LN(BB13))^2</f>
-        <v>4.5699678702804079E-3</v>
+        <f t="shared" ref="BB58:BB90" si="35">(LN(AU13)-LN(BB13))^2</f>
+        <v>4.7111066644137918E-3</v>
       </c>
     </row>
     <row r="59" spans="1:73" x14ac:dyDescent="0.25">
@@ -10826,63 +10893,63 @@
         <v>1985</v>
       </c>
       <c r="B59" s="14">
-        <v>5.9986257737478983</v>
+        <v>5.9992111180035499</v>
       </c>
       <c r="I59">
         <v>1985</v>
       </c>
       <c r="J59" s="14">
-        <v>-1.746636899507864</v>
+        <v>-1.7462394893044615</v>
       </c>
       <c r="AH59">
         <v>1985</v>
       </c>
       <c r="AI59" s="12">
+        <f t="shared" si="30"/>
+        <v>0.2476176376058315</v>
+      </c>
+      <c r="AJ59" s="12">
         <f t="shared" si="28"/>
-        <v>0.24860970344464908</v>
-      </c>
-      <c r="AJ59" s="12">
-        <f t="shared" si="26"/>
-        <v>1.5315973039809872E-2</v>
+        <v>1.5440839239918899E-2</v>
       </c>
       <c r="AK59" s="12">
-        <f t="shared" si="26"/>
-        <v>2.3389878465556652E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.3458289156168297E-2</v>
       </c>
       <c r="AL59" s="12">
-        <f t="shared" si="26"/>
-        <v>1.105543848907157E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.1334683067952191E-2</v>
       </c>
       <c r="AM59" s="12">
-        <f t="shared" si="26"/>
-        <v>2.0271321818203666E-4</v>
+        <f t="shared" si="28"/>
+        <v>1.8630217445794945E-4</v>
       </c>
       <c r="AN59" s="12">
-        <f t="shared" si="26"/>
-        <v>5.3934916606759344E-3</v>
+        <f t="shared" si="28"/>
+        <v>5.2488240712970204E-3</v>
       </c>
       <c r="AW59">
         <v>1985</v>
       </c>
       <c r="AX59" s="12">
-        <f t="shared" si="29"/>
-        <v>2.3668380043749688</v>
+        <f t="shared" si="31"/>
+        <v>2.3683452746204683</v>
       </c>
       <c r="AY59" s="12">
-        <f t="shared" si="30"/>
-        <v>5.4321272830943811E-2</v>
+        <f t="shared" si="32"/>
+        <v>5.4243499912933722E-2</v>
       </c>
       <c r="AZ59" s="12">
-        <f t="shared" si="31"/>
-        <v>3.3387709049350359E-5</v>
+        <f t="shared" si="33"/>
+        <v>3.3733089622481166E-5</v>
       </c>
       <c r="BA59" s="12">
-        <f t="shared" si="32"/>
-        <v>3.3222305001584976E-2</v>
+        <f t="shared" si="34"/>
+        <v>3.3415111387014855E-2</v>
       </c>
       <c r="BB59" s="12">
-        <f t="shared" si="33"/>
-        <v>3.6520080507459203E-2</v>
+        <f t="shared" si="35"/>
+        <v>3.6461788680735657E-2</v>
       </c>
     </row>
     <row r="60" spans="1:73" x14ac:dyDescent="0.25">
@@ -10890,63 +10957,63 @@
         <v>1986</v>
       </c>
       <c r="B60" s="14">
-        <v>7.5701013524544747</v>
+        <v>7.570612846835453</v>
       </c>
       <c r="I60">
         <v>1986</v>
       </c>
       <c r="J60" s="14">
-        <v>-1.5907024697194652</v>
+        <v>-1.5902164141847273</v>
       </c>
       <c r="AH60">
         <v>1986</v>
       </c>
       <c r="AI60" s="12">
+        <f t="shared" si="30"/>
+        <v>0.98801070907572708</v>
+      </c>
+      <c r="AJ60" s="12">
         <f t="shared" si="28"/>
-        <v>0.98999250616053536</v>
-      </c>
-      <c r="AJ60" s="12">
-        <f t="shared" si="26"/>
-        <v>9.5216005668000044E-3</v>
+        <v>9.6711515328244714E-3</v>
       </c>
       <c r="AK60" s="12">
-        <f t="shared" si="26"/>
-        <v>0.19889990493408363</v>
+        <f t="shared" si="28"/>
+        <v>0.19883585194820844</v>
       </c>
       <c r="AL60" s="12">
-        <f t="shared" si="26"/>
-        <v>1.6165824019060871E-6</v>
+        <f t="shared" si="28"/>
+        <v>3.4101056564064474E-6</v>
       </c>
       <c r="AM60" s="12">
-        <f t="shared" si="26"/>
-        <v>3.9051969312183308E-3</v>
+        <f t="shared" si="28"/>
+        <v>3.7687642499582073E-3</v>
       </c>
       <c r="AN60" s="12">
-        <f t="shared" si="26"/>
-        <v>1.1591703071895516E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.18211747443206E-2</v>
       </c>
       <c r="AW60">
         <v>1986</v>
       </c>
       <c r="AX60" s="12">
-        <f t="shared" si="29"/>
-        <v>9.177735180387914E-3</v>
+        <f t="shared" si="31"/>
+        <v>9.2576022553869722E-3</v>
       </c>
       <c r="AY60" s="12">
-        <f t="shared" si="30"/>
-        <v>5.9278769711583858E-3</v>
+        <f t="shared" si="32"/>
+        <v>5.9874909809593778E-3</v>
       </c>
       <c r="AZ60" s="12">
-        <f t="shared" si="31"/>
-        <v>7.5980864064672013E-2</v>
+        <f t="shared" si="33"/>
+        <v>7.5804360834853438E-2</v>
       </c>
       <c r="BA60" s="12">
-        <f t="shared" si="32"/>
-        <v>0.23727473927941617</v>
+        <f t="shared" si="34"/>
+        <v>0.23753502837882792</v>
       </c>
       <c r="BB60" s="12">
-        <f t="shared" si="33"/>
-        <v>3.8089395346381769E-2</v>
+        <f t="shared" si="35"/>
+        <v>3.7858564983095401E-2</v>
       </c>
     </row>
     <row r="61" spans="1:73" x14ac:dyDescent="0.25">
@@ -10954,63 +11021,63 @@
         <v>1987</v>
       </c>
       <c r="B61" s="14">
-        <v>6.505886582153555</v>
+        <v>6.5063639246369318</v>
       </c>
       <c r="I61">
         <v>1987</v>
       </c>
       <c r="J61" s="14">
-        <v>-1.7623786500111271</v>
+        <v>-1.7616100171624676</v>
       </c>
       <c r="AH61">
         <v>1987</v>
       </c>
       <c r="AI61" s="12">
+        <f t="shared" si="30"/>
+        <v>0.15345031503703641</v>
+      </c>
+      <c r="AJ61" s="12">
         <f t="shared" si="28"/>
-        <v>0.15248849298996794</v>
-      </c>
-      <c r="AJ61" s="12">
-        <f t="shared" si="26"/>
-        <v>3.7606465307889127E-3</v>
+        <v>3.655449014969228E-3</v>
       </c>
       <c r="AK61" s="12">
-        <f t="shared" si="26"/>
-        <v>4.2307146016572345E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.2094688564189983E-3</v>
       </c>
       <c r="AL61" s="12">
-        <f t="shared" si="26"/>
-        <v>1.0672638176244649E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.0741422334047124E-2</v>
       </c>
       <c r="AM61" s="12">
-        <f t="shared" si="26"/>
-        <v>2.3922345402649516E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.3798248249294805E-2</v>
       </c>
       <c r="AN61" s="12">
-        <f t="shared" si="26"/>
-        <v>8.2504811726113486E-2</v>
+        <f t="shared" si="28"/>
+        <v>8.1671099194939173E-2</v>
       </c>
       <c r="AW61">
         <v>1987</v>
       </c>
       <c r="AX61" s="12">
-        <f t="shared" si="29"/>
-        <v>1.0168245007412425E-3</v>
+        <f t="shared" si="31"/>
+        <v>9.9262173165849872E-4</v>
       </c>
       <c r="AY61" s="12">
-        <f t="shared" si="30"/>
-        <v>2.8434830693864439E-2</v>
+        <f t="shared" si="32"/>
+        <v>2.8342425021601534E-2</v>
       </c>
       <c r="AZ61" s="12">
-        <f t="shared" si="31"/>
-        <v>2.5736214416591414E-2</v>
+        <f t="shared" si="33"/>
+        <v>2.5658324463244574E-2</v>
       </c>
       <c r="BA61" s="12">
-        <f t="shared" si="32"/>
-        <v>9.236125540551815E-2</v>
+        <f t="shared" si="34"/>
+        <v>9.1936622225430115E-2</v>
       </c>
       <c r="BB61" s="12">
-        <f t="shared" si="33"/>
-        <v>1.4130297594080495E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.4201266391072557E-2</v>
       </c>
     </row>
     <row r="62" spans="1:73" x14ac:dyDescent="0.25">
@@ -11018,63 +11085,63 @@
         <v>1988</v>
       </c>
       <c r="B62" s="14">
-        <v>6.1704678494733329</v>
+        <v>6.1710634923985248</v>
       </c>
       <c r="I62">
         <v>1988</v>
       </c>
       <c r="J62" s="14">
-        <v>-1.8413965203372877</v>
+        <v>-1.8416159314487386</v>
       </c>
       <c r="AH62">
         <v>1988</v>
       </c>
       <c r="AI62" s="12">
+        <f t="shared" si="30"/>
+        <v>8.4145436127272821E-2</v>
+      </c>
+      <c r="AJ62" s="12">
         <f t="shared" si="28"/>
-        <v>8.3891649180074884E-2</v>
-      </c>
-      <c r="AJ62" s="12">
-        <f t="shared" si="26"/>
-        <v>2.1400392138145697E-2</v>
+        <v>2.1366430821134517E-2</v>
       </c>
       <c r="AK62" s="12">
-        <f t="shared" si="26"/>
-        <v>1.101965876062797E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.0870777429501433E-2</v>
       </c>
       <c r="AL62" s="12">
-        <f t="shared" si="26"/>
-        <v>0.15731276484126158</v>
+        <f t="shared" si="28"/>
+        <v>0.15775853372839629</v>
       </c>
       <c r="AM62" s="12">
-        <f t="shared" si="26"/>
-        <v>2.7942497757208304E-3</v>
+        <f t="shared" si="28"/>
+        <v>2.6920204530882521E-3</v>
       </c>
       <c r="AN62" s="12">
-        <f t="shared" si="26"/>
-        <v>2.5114433072120509E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.4998334903788895E-2</v>
       </c>
       <c r="AW62">
         <v>1988</v>
       </c>
       <c r="AX62" s="12">
-        <f t="shared" si="29"/>
-        <v>2.9072597358973759E-2</v>
+        <f t="shared" si="31"/>
+        <v>2.9243383729103643E-2</v>
       </c>
       <c r="AY62" s="12">
-        <f t="shared" si="30"/>
-        <v>6.126572759893005E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.1365671424164457E-2</v>
       </c>
       <c r="AZ62" s="12">
-        <f t="shared" si="31"/>
-        <v>7.4507926339436481E-2</v>
+        <f t="shared" si="33"/>
+        <v>7.4219565200875692E-2</v>
       </c>
       <c r="BA62" s="12">
-        <f t="shared" si="32"/>
-        <v>4.9519759715041613E-2</v>
+        <f t="shared" si="34"/>
+        <v>4.9101889073652358E-2</v>
       </c>
       <c r="BB62" s="12">
-        <f t="shared" si="33"/>
-        <v>2.5925174132089203E-2</v>
+        <f t="shared" si="35"/>
+        <v>2.5619647757914785E-2</v>
       </c>
     </row>
     <row r="63" spans="1:73" x14ac:dyDescent="0.25">
@@ -11082,63 +11149,63 @@
         <v>1989</v>
       </c>
       <c r="B63" s="14">
-        <v>6.7782953743185228</v>
+        <v>6.7786005986128801</v>
       </c>
       <c r="I63">
         <v>1989</v>
       </c>
       <c r="J63" s="14">
-        <v>-1.6481406664865155</v>
+        <v>-1.6473645475423704</v>
       </c>
       <c r="AH63">
         <v>1989</v>
       </c>
       <c r="AI63" s="12">
+        <f t="shared" si="30"/>
+        <v>0.36378883165821863</v>
+      </c>
+      <c r="AJ63" s="12">
         <f t="shared" si="28"/>
-        <v>0.36506377713759602</v>
-      </c>
-      <c r="AJ63" s="12">
-        <f t="shared" si="26"/>
-        <v>2.7956036875207434E-2</v>
+        <v>2.8323881324777346E-2</v>
       </c>
       <c r="AK63" s="12">
-        <f t="shared" si="26"/>
-        <v>2.1037602094167066E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.1222514003669927E-2</v>
       </c>
       <c r="AL63" s="12">
-        <f t="shared" si="26"/>
-        <v>0.1477289893940382</v>
+        <f t="shared" si="28"/>
+        <v>0.14833772491319308</v>
       </c>
       <c r="AM63" s="12">
-        <f t="shared" si="26"/>
-        <v>7.777825047707973E-2</v>
+        <f t="shared" si="28"/>
+        <v>7.7602070324070974E-2</v>
       </c>
       <c r="AN63" s="12">
-        <f t="shared" si="26"/>
-        <v>3.174689778952608E-2</v>
+        <f t="shared" si="28"/>
+        <v>3.131987308263505E-2</v>
       </c>
       <c r="AW63">
         <v>1989</v>
       </c>
       <c r="AX63" s="12">
-        <f t="shared" si="29"/>
-        <v>0.1717115666345852</v>
+        <f t="shared" si="31"/>
+        <v>0.17153784609273368</v>
       </c>
       <c r="AY63" s="12">
-        <f t="shared" si="30"/>
-        <v>3.2730163634328669E-5</v>
+        <f t="shared" si="32"/>
+        <v>2.7003655161182551E-5</v>
       </c>
       <c r="AZ63" s="12">
-        <f t="shared" si="31"/>
-        <v>0.13484486405145443</v>
+        <f t="shared" si="33"/>
+        <v>0.13467336060060101</v>
       </c>
       <c r="BA63" s="12">
-        <f t="shared" si="32"/>
-        <v>5.9202416067057201E-2</v>
+        <f t="shared" si="34"/>
+        <v>5.9090044280346324E-2</v>
       </c>
       <c r="BB63" s="12">
-        <f t="shared" si="33"/>
-        <v>0.16071368839801348</v>
+        <f t="shared" si="35"/>
+        <v>0.16102473523704103</v>
       </c>
     </row>
     <row r="64" spans="1:73" x14ac:dyDescent="0.25">
@@ -11146,63 +11213,63 @@
         <v>1990</v>
       </c>
       <c r="B64" s="14">
-        <v>5.8800993898622469</v>
+        <v>5.880236859232495</v>
       </c>
       <c r="I64">
         <v>1990</v>
       </c>
       <c r="J64" s="14">
-        <v>-1.8131349693872287</v>
+        <v>-1.8122627680678127</v>
       </c>
       <c r="AH64">
         <v>1990</v>
       </c>
       <c r="AI64" s="12">
+        <f t="shared" si="30"/>
+        <v>2.8204318027764429E-2</v>
+      </c>
+      <c r="AJ64" s="12">
         <f t="shared" si="28"/>
-        <v>2.8536956913140246E-2</v>
-      </c>
-      <c r="AJ64" s="12">
-        <f t="shared" si="26"/>
-        <v>3.0335023445901221E-2</v>
+        <v>3.0099274617389395E-2</v>
       </c>
       <c r="AK64" s="12">
-        <f t="shared" si="26"/>
-        <v>1.082431211987868E-3</v>
+        <f t="shared" si="28"/>
+        <v>1.089736951064975E-3</v>
       </c>
       <c r="AL64" s="12">
-        <f t="shared" si="26"/>
-        <v>1.7167981101234714E-3</v>
+        <f t="shared" si="28"/>
+        <v>1.6669082772567507E-3</v>
       </c>
       <c r="AM64" s="12">
-        <f t="shared" si="26"/>
-        <v>0.11429289360468481</v>
+        <f t="shared" si="28"/>
+        <v>0.11445734456291795</v>
       </c>
       <c r="AN64" s="12">
-        <f t="shared" si="26"/>
-        <v>5.160707599829231E-3</v>
+        <f t="shared" si="28"/>
+        <v>5.3260922454024849E-3</v>
       </c>
       <c r="AW64">
         <v>1990</v>
       </c>
       <c r="AX64" s="12">
-        <f t="shared" si="29"/>
-        <v>5.7667775780959961E-2</v>
+        <f t="shared" si="31"/>
+        <v>5.7687907446785668E-2</v>
       </c>
       <c r="AY64" s="12">
-        <f t="shared" si="30"/>
-        <v>3.5572904956714599E-2</v>
+        <f t="shared" si="32"/>
+        <v>3.5570193287435263E-2</v>
       </c>
       <c r="AZ64" s="12">
-        <f t="shared" si="31"/>
-        <v>3.286495492040395E-5</v>
+        <f t="shared" si="33"/>
+        <v>3.7127815869816014E-5</v>
       </c>
       <c r="BA64" s="12">
-        <f t="shared" si="32"/>
-        <v>1.4877525008120719E-3</v>
+        <f t="shared" si="34"/>
+        <v>1.4494416413208899E-3</v>
       </c>
       <c r="BB64" s="12">
-        <f t="shared" si="33"/>
-        <v>6.6168964592936089E-3</v>
+        <f t="shared" si="35"/>
+        <v>6.5305534638282984E-3</v>
       </c>
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.25">
@@ -11210,63 +11277,63 @@
         <v>1991</v>
       </c>
       <c r="B65" s="14">
-        <v>5.960004169177525</v>
+        <v>5.9601334167704918</v>
       </c>
       <c r="I65">
         <v>1991</v>
       </c>
       <c r="J65" s="14">
-        <v>-1.7088244616343575</v>
+        <v>-1.709224704135792</v>
       </c>
       <c r="AH65">
         <v>1991</v>
       </c>
       <c r="AI65" s="12">
+        <f t="shared" si="30"/>
+        <v>7.5084252764341927E-2</v>
+      </c>
+      <c r="AJ65" s="12">
         <f t="shared" si="28"/>
-        <v>7.49790453652672E-2</v>
-      </c>
-      <c r="AJ65" s="12">
-        <f t="shared" si="26"/>
-        <v>5.3844710502940103E-2</v>
+        <v>5.3684033204853383E-2</v>
       </c>
       <c r="AK65" s="12">
-        <f t="shared" si="26"/>
-        <v>0.22323341197960617</v>
+        <f t="shared" si="28"/>
+        <v>0.22219587484612091</v>
       </c>
       <c r="AL65" s="12">
-        <f t="shared" si="26"/>
-        <v>3.227221119866424E-4</v>
+        <f t="shared" si="28"/>
+        <v>2.9237748048572371E-4</v>
       </c>
       <c r="AM65" s="12">
-        <f t="shared" si="26"/>
-        <v>6.2830374011509568E-5</v>
+        <f t="shared" si="28"/>
+        <v>7.8595467450892368E-5</v>
       </c>
       <c r="AN65" s="12">
-        <f t="shared" si="26"/>
-        <v>5.5551703527132124E-2</v>
+        <f t="shared" si="28"/>
+        <v>5.5664220940379545E-2</v>
       </c>
       <c r="AW65">
         <v>1991</v>
       </c>
       <c r="AX65" s="12">
-        <f t="shared" si="29"/>
-        <v>0.21209949825032215</v>
+        <f t="shared" si="31"/>
+        <v>0.21213053155920727</v>
       </c>
       <c r="AY65" s="12">
-        <f t="shared" si="30"/>
-        <v>3.086174187494423E-2</v>
+        <f t="shared" si="32"/>
+        <v>3.0808980888658116E-2</v>
       </c>
       <c r="AZ65" s="12">
-        <f t="shared" si="31"/>
-        <v>5.8975048402978056E-2</v>
+        <f t="shared" si="33"/>
+        <v>5.8562858063411036E-2</v>
       </c>
       <c r="BA65" s="12">
-        <f t="shared" si="32"/>
-        <v>0.1503088485438128</v>
+        <f t="shared" si="34"/>
+        <v>0.15120436011314797</v>
       </c>
       <c r="BB65" s="12">
-        <f t="shared" si="33"/>
-        <v>0.10940585097909125</v>
+        <f t="shared" si="35"/>
+        <v>0.10994819292213925</v>
       </c>
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.25">
@@ -11274,63 +11341,63 @@
         <v>1992</v>
       </c>
       <c r="B66" s="14">
-        <v>6.7080600834115041</v>
+        <v>6.707984326973599</v>
       </c>
       <c r="I66">
         <v>1992</v>
       </c>
       <c r="J66" s="14">
-        <v>-1.8302748549934613</v>
+        <v>-1.8301321942042033</v>
       </c>
       <c r="AH66">
         <v>1992</v>
       </c>
       <c r="AI66" s="12">
+        <f t="shared" si="30"/>
+        <v>0.15051123190579729</v>
+      </c>
+      <c r="AJ66" s="12">
         <f t="shared" si="28"/>
-        <v>0.15058970443328429</v>
-      </c>
-      <c r="AJ66" s="12">
-        <f t="shared" si="26"/>
-        <v>1.8110370074858986E-3</v>
+        <v>1.78814915278093E-3</v>
       </c>
       <c r="AK66" s="12">
-        <f t="shared" si="26"/>
-        <v>2.6431721340702239E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.6468588882118772E-2</v>
       </c>
       <c r="AL66" s="12">
-        <f t="shared" si="26"/>
-        <v>2.4669813262488276E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.479079528055696E-2</v>
       </c>
       <c r="AM66" s="12">
-        <f t="shared" si="26"/>
-        <v>3.629616849995157E-2</v>
+        <f t="shared" si="28"/>
+        <v>3.6345622598503546E-2</v>
       </c>
       <c r="AN66" s="12">
-        <f t="shared" si="26"/>
-        <v>5.4297684683942702E-3</v>
+        <f t="shared" si="28"/>
+        <v>5.3686452123187026E-3</v>
       </c>
       <c r="AW66">
         <v>1992</v>
       </c>
       <c r="AX66" s="12">
-        <f t="shared" si="29"/>
-        <v>0.21355640580710844</v>
+        <f t="shared" si="31"/>
+        <v>0.2137147701801525</v>
       </c>
       <c r="AY66" s="12">
-        <f t="shared" si="30"/>
-        <v>1.4528508177480606E-3</v>
+        <f t="shared" si="32"/>
+        <v>1.445026118711449E-3</v>
       </c>
       <c r="AZ66" s="12">
-        <f t="shared" si="31"/>
-        <v>6.9112468721173742E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.9152844908347263E-2</v>
       </c>
       <c r="BA66" s="12">
-        <f t="shared" si="32"/>
-        <v>5.9004357861387295E-2</v>
+        <f t="shared" si="34"/>
+        <v>5.8888839994372874E-2</v>
       </c>
       <c r="BB66" s="12">
-        <f t="shared" si="33"/>
-        <v>4.0085942839493176E-2</v>
+        <f t="shared" si="35"/>
+        <v>4.023527619280539E-2</v>
       </c>
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.25">
@@ -11338,63 +11405,63 @@
         <v>1993</v>
       </c>
       <c r="B67" s="14">
-        <v>6.0702267275611916</v>
+        <v>6.0700742199113691</v>
       </c>
       <c r="I67">
         <v>1993</v>
       </c>
       <c r="J67" s="14">
-        <v>-1.8435509982590235</v>
+        <v>-1.8433313453380331</v>
       </c>
       <c r="AH67">
         <v>1993</v>
       </c>
       <c r="AI67" s="12">
+        <f t="shared" si="30"/>
+        <v>3.6287905887103261E-2</v>
+      </c>
+      <c r="AJ67" s="12">
         <f t="shared" si="28"/>
-        <v>3.6251461031823959E-2</v>
-      </c>
-      <c r="AJ67" s="12">
-        <f t="shared" si="26"/>
-        <v>1.987685072398113E-3</v>
+        <v>1.9880196798908521E-3</v>
       </c>
       <c r="AK67" s="12">
-        <f t="shared" si="26"/>
-        <v>4.7209122161357064E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.7107944748614227E-3</v>
       </c>
       <c r="AL67" s="12">
-        <f t="shared" si="26"/>
-        <v>4.0104414328602588E-2</v>
+        <f t="shared" si="28"/>
+        <v>3.9826991057180544E-2</v>
       </c>
       <c r="AM67" s="12">
-        <f t="shared" si="26"/>
-        <v>1.7888718152686722E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.7976933239512629E-2</v>
       </c>
       <c r="AN67" s="12">
-        <f t="shared" si="26"/>
-        <v>7.5023118211714982E-3</v>
+        <f t="shared" si="28"/>
+        <v>7.4104337515243177E-3</v>
       </c>
       <c r="AW67">
         <v>1993</v>
       </c>
       <c r="AX67" s="12">
-        <f t="shared" si="29"/>
-        <v>1.2847485854122964E-3</v>
+        <f t="shared" si="31"/>
+        <v>1.3025930564374293E-3</v>
       </c>
       <c r="AY67" s="12">
-        <f t="shared" si="30"/>
-        <v>5.0820570288686355E-2</v>
+        <f t="shared" si="32"/>
+        <v>5.0918638479128406E-2</v>
       </c>
       <c r="AZ67" s="12">
-        <f t="shared" si="31"/>
-        <v>3.7566634887562692E-2</v>
+        <f t="shared" si="33"/>
+        <v>3.7506641915340165E-2</v>
       </c>
       <c r="BA67" s="12">
-        <f t="shared" si="32"/>
-        <v>2.0330408527298761E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.0324562587624578E-2</v>
       </c>
       <c r="BB67" s="12">
-        <f t="shared" si="33"/>
-        <v>1.2472007898316683E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.2479121172063958E-2</v>
       </c>
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.25">
@@ -11402,63 +11469,63 @@
         <v>1994</v>
       </c>
       <c r="B68" s="14">
-        <v>6.8449243765199697</v>
+        <v>6.8445186546310657</v>
       </c>
       <c r="I68">
         <v>1994</v>
       </c>
       <c r="J68" s="14">
-        <v>-1.6680754984213426</v>
+        <v>-1.6684710821676292</v>
       </c>
       <c r="AH68">
         <v>1994</v>
       </c>
       <c r="AI68" s="12">
+        <f t="shared" si="30"/>
+        <v>1.0985622681042611</v>
+      </c>
+      <c r="AJ68" s="12">
         <f t="shared" si="28"/>
-        <v>1.0970506795324146</v>
-      </c>
-      <c r="AJ68" s="12">
-        <f t="shared" si="26"/>
-        <v>4.9733743340410495E-2</v>
+        <v>4.9512396371887236E-2</v>
       </c>
       <c r="AK68" s="12">
-        <f t="shared" si="26"/>
-        <v>0.11064732092641491</v>
+        <f t="shared" si="28"/>
+        <v>0.11013679253789206</v>
       </c>
       <c r="AL68" s="12">
-        <f t="shared" si="26"/>
-        <v>1.8074234545698262E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.8076238125551012E-2</v>
       </c>
       <c r="AM68" s="12">
-        <f t="shared" si="26"/>
-        <v>3.1099249558885285E-3</v>
+        <f t="shared" si="28"/>
+        <v>3.1236253545765787E-3</v>
       </c>
       <c r="AN68" s="12">
-        <f t="shared" si="26"/>
-        <v>1.7662370856791124E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.7708816064802811E-2</v>
       </c>
       <c r="AW68">
         <v>1994</v>
       </c>
       <c r="AX68" s="12">
-        <f t="shared" si="29"/>
-        <v>2.1626801718165911E-3</v>
+        <f t="shared" si="31"/>
+        <v>2.2095549989242054E-3</v>
       </c>
       <c r="AY68" s="12">
-        <f t="shared" si="30"/>
-        <v>0.21275744892268691</v>
+        <f t="shared" si="32"/>
+        <v>0.21247291029136178</v>
       </c>
       <c r="AZ68" s="12">
-        <f t="shared" si="31"/>
-        <v>0.24841357822502175</v>
+        <f t="shared" si="33"/>
+        <v>0.24788026675360059</v>
       </c>
       <c r="BA68" s="12">
-        <f t="shared" si="32"/>
-        <v>9.5216118964408861E-2</v>
+        <f t="shared" si="34"/>
+        <v>9.5396901606649223E-2</v>
       </c>
       <c r="BB68" s="12">
-        <f t="shared" si="33"/>
-        <v>0.39640795293095477</v>
+        <f t="shared" si="35"/>
+        <v>0.39612166489622197</v>
       </c>
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.25">
@@ -11466,63 +11533,63 @@
         <v>1995</v>
       </c>
       <c r="B69" s="14">
-        <v>6.3381562094628574</v>
+        <v>6.3385479201339781</v>
       </c>
       <c r="I69">
         <v>1995</v>
       </c>
       <c r="J69" s="14">
-        <v>-1.7605590708868539</v>
+        <v>-1.7607596815669078</v>
       </c>
       <c r="AH69">
         <v>1995</v>
       </c>
       <c r="AI69" s="12">
+        <f t="shared" si="30"/>
+        <v>6.9378165204224546E-3</v>
+      </c>
+      <c r="AJ69" s="12">
         <f t="shared" si="28"/>
-        <v>6.8958266441606969E-3</v>
-      </c>
-      <c r="AJ69" s="12">
-        <f t="shared" si="26"/>
-        <v>6.9577654734110359E-4</v>
+        <v>7.2227022377585029E-4</v>
       </c>
       <c r="AK69" s="12">
-        <f t="shared" si="26"/>
-        <v>1.5006294627655886E-6</v>
+        <f t="shared" si="28"/>
+        <v>1.009715737508269E-6</v>
       </c>
       <c r="AL69" s="12">
-        <f t="shared" si="26"/>
-        <v>2.1212510179861543E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.1364799115889409E-2</v>
       </c>
       <c r="AM69" s="12">
-        <f t="shared" si="26"/>
-        <v>1.4156834750599243E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.4280748180306446E-2</v>
       </c>
       <c r="AN69" s="12">
-        <f t="shared" si="26"/>
-        <v>6.5862556260459643E-2</v>
+        <f t="shared" si="28"/>
+        <v>6.6175925576453229E-2</v>
       </c>
       <c r="AW69">
         <v>1995</v>
       </c>
       <c r="AX69" s="12">
-        <f t="shared" si="29"/>
-        <v>0.41367516284238409</v>
+        <f t="shared" si="31"/>
+        <v>0.41329429240437365</v>
       </c>
       <c r="AY69" s="12">
-        <f t="shared" si="30"/>
-        <v>6.3675323698746455E-2</v>
+        <f t="shared" si="32"/>
+        <v>6.3892536103799746E-2</v>
       </c>
       <c r="AZ69" s="12">
-        <f t="shared" si="31"/>
-        <v>0.11962426569837868</v>
+        <f t="shared" si="33"/>
+        <v>0.11967187301241708</v>
       </c>
       <c r="BA69" s="12">
-        <f t="shared" si="32"/>
-        <v>2.2850884941411707E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.288622567122952E-2</v>
       </c>
       <c r="BB69" s="12">
-        <f t="shared" si="33"/>
-        <v>3.4608659906990039E-2</v>
+        <f t="shared" si="35"/>
+        <v>3.4418450494791829E-2</v>
       </c>
     </row>
     <row r="70" spans="1:54" x14ac:dyDescent="0.25">
@@ -11530,63 +11597,63 @@
         <v>1996</v>
       </c>
       <c r="B70" s="14">
-        <v>5.9469934031465534</v>
+        <v>5.9475595232574712</v>
       </c>
       <c r="I70">
         <v>1996</v>
       </c>
       <c r="J70" s="14">
-        <v>-1.8064497094572727</v>
+        <v>-1.8070383646527948</v>
       </c>
       <c r="AH70">
         <v>1996</v>
       </c>
       <c r="AI70" s="12">
+        <f t="shared" si="30"/>
+        <v>0.63987475605606603</v>
+      </c>
+      <c r="AJ70" s="12">
         <f t="shared" si="28"/>
-        <v>0.63976461592794032</v>
-      </c>
-      <c r="AJ70" s="12">
-        <f t="shared" si="26"/>
-        <v>1.6933577033645534E-3</v>
+        <v>1.6917695395842907E-3</v>
       </c>
       <c r="AK70" s="12">
-        <f t="shared" si="26"/>
-        <v>3.1505467259968334E-2</v>
+        <f t="shared" si="28"/>
+        <v>3.1226127685433942E-2</v>
       </c>
       <c r="AL70" s="12">
-        <f t="shared" si="26"/>
-        <v>2.0599725698500276E-3</v>
+        <f t="shared" si="28"/>
+        <v>2.0224307650678489E-3</v>
       </c>
       <c r="AM70" s="12">
-        <f t="shared" si="26"/>
-        <v>4.1191365370566706E-3</v>
+        <f t="shared" si="28"/>
+        <v>4.066928355397628E-3</v>
       </c>
       <c r="AN70" s="12">
-        <f t="shared" si="26"/>
-        <v>5.6970663004435415E-2</v>
+        <f t="shared" si="28"/>
+        <v>5.6736187481542258E-2</v>
       </c>
       <c r="AW70">
         <v>1996</v>
       </c>
       <c r="AX70" s="12">
-        <f t="shared" si="29"/>
-        <v>0.14693305409352858</v>
+        <f t="shared" si="31"/>
+        <v>0.14729402681429721</v>
       </c>
       <c r="AY70" s="12">
-        <f t="shared" si="30"/>
-        <v>3.7994009856028255E-4</v>
+        <f t="shared" si="32"/>
+        <v>3.9249465269733467E-4</v>
       </c>
       <c r="AZ70" s="12">
-        <f t="shared" si="31"/>
-        <v>5.1545203596943576E-2</v>
+        <f t="shared" si="33"/>
+        <v>5.1365434651921955E-2</v>
       </c>
       <c r="BA70" s="12">
-        <f t="shared" si="32"/>
-        <v>3.5570347398781695E-4</v>
+        <f t="shared" si="34"/>
+        <v>3.4544024863121688E-4</v>
       </c>
       <c r="BB70" s="12">
-        <f t="shared" si="33"/>
-        <v>1.4312420786643163E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.447857580659118E-2</v>
       </c>
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.25">
@@ -11594,63 +11661,63 @@
         <v>1997</v>
       </c>
       <c r="B71" s="14">
-        <v>7.0382869880107988</v>
+        <v>7.0373576453371678</v>
       </c>
       <c r="I71">
         <v>1997</v>
       </c>
       <c r="J71" s="14">
-        <v>-1.8061740698790891</v>
+        <v>-1.8048649049143457</v>
       </c>
       <c r="AH71">
         <v>1997</v>
       </c>
       <c r="AI71" s="12">
+        <f t="shared" si="30"/>
+        <v>2.2206530877702798E-2</v>
+      </c>
+      <c r="AJ71" s="12">
         <f t="shared" si="28"/>
-        <v>2.2110829246703975E-2</v>
-      </c>
-      <c r="AJ71" s="12">
-        <f t="shared" si="26"/>
-        <v>4.585504693906462E-6</v>
+        <v>3.5823820651298217E-7</v>
       </c>
       <c r="AK71" s="12">
-        <f t="shared" si="26"/>
-        <v>1.7729950739788395E-4</v>
+        <f t="shared" si="28"/>
+        <v>1.4216003228962191E-4</v>
       </c>
       <c r="AL71" s="12">
-        <f t="shared" si="26"/>
-        <v>1.1902520422667916E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.2276607484379427E-2</v>
       </c>
       <c r="AM71" s="12">
-        <f t="shared" si="26"/>
-        <v>8.6148942860813163E-2</v>
+        <f t="shared" si="28"/>
+        <v>8.484082733539923E-2</v>
       </c>
       <c r="AN71" s="12">
-        <f t="shared" si="26"/>
-        <v>0.16599574340614406</v>
+        <f t="shared" si="28"/>
+        <v>0.16376025453625462</v>
       </c>
       <c r="AW71">
         <v>1997</v>
       </c>
       <c r="AX71" s="12">
-        <f t="shared" si="29"/>
-        <v>0.42807282054400014</v>
+        <f t="shared" si="31"/>
+        <v>0.42941499842319747</v>
       </c>
       <c r="AY71" s="12">
-        <f t="shared" si="30"/>
-        <v>2.272809738509092E-2</v>
+        <f t="shared" si="32"/>
+        <v>2.2900345925276525E-2</v>
       </c>
       <c r="AZ71" s="12">
-        <f t="shared" si="31"/>
-        <v>0.14310942585490075</v>
+        <f t="shared" si="33"/>
+        <v>0.14361192484036928</v>
       </c>
       <c r="BA71" s="12">
-        <f t="shared" si="32"/>
-        <v>0.16982557193723299</v>
+        <f t="shared" si="34"/>
+        <v>0.17007926030007009</v>
       </c>
       <c r="BB71" s="12">
-        <f t="shared" si="33"/>
-        <v>3.8888938169543141E-2</v>
+        <f t="shared" si="35"/>
+        <v>3.8438775801021459E-2</v>
       </c>
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.25">
@@ -11658,63 +11725,63 @@
         <v>1998</v>
       </c>
       <c r="B72" s="14">
-        <v>5.1985223372911271</v>
+        <v>5.1983990293316511</v>
       </c>
       <c r="I72">
         <v>1998</v>
       </c>
       <c r="J72" s="14">
-        <v>-1.6603217192581907</v>
+        <v>-1.6595926498299487</v>
       </c>
       <c r="AH72">
         <v>1998</v>
       </c>
       <c r="AI72" s="12">
+        <f t="shared" si="30"/>
+        <v>0.10723538877194229</v>
+      </c>
+      <c r="AJ72" s="12">
         <f t="shared" si="28"/>
-        <v>0.10685332295685576</v>
-      </c>
-      <c r="AJ72" s="12">
-        <f t="shared" si="26"/>
-        <v>4.0940876621589975E-2</v>
+        <v>4.1249231965495306E-2</v>
       </c>
       <c r="AK72" s="12">
-        <f t="shared" si="26"/>
-        <v>9.426581571821957E-2</v>
+        <f t="shared" si="28"/>
+        <v>9.4434745423571095E-2</v>
       </c>
       <c r="AL72" s="12">
-        <f t="shared" si="26"/>
-        <v>2.7077141420679223E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.6940890505752851E-2</v>
       </c>
       <c r="AM72" s="12">
-        <f t="shared" si="26"/>
-        <v>2.230644770902727E-4</v>
+        <f t="shared" si="28"/>
+        <v>2.3212571581700299E-4</v>
       </c>
       <c r="AN72" s="12">
-        <f t="shared" si="26"/>
-        <v>6.0448657132888953E-2</v>
+        <f t="shared" si="28"/>
+        <v>5.9459263781945597E-2</v>
       </c>
       <c r="AW72">
         <v>1998</v>
       </c>
       <c r="AX72" s="12">
-        <f t="shared" si="29"/>
-        <v>0.10709130797565784</v>
+        <f t="shared" si="31"/>
+        <v>0.10723460196506612</v>
       </c>
       <c r="AY72" s="12">
-        <f t="shared" si="30"/>
-        <v>6.092407954312028E-3</v>
+        <f t="shared" si="32"/>
+        <v>6.2980021767833141E-3</v>
       </c>
       <c r="AZ72" s="12">
-        <f t="shared" si="31"/>
-        <v>5.7653208710763862E-2</v>
+        <f t="shared" si="33"/>
+        <v>5.7340044253620867E-2</v>
       </c>
       <c r="BA72" s="12">
-        <f t="shared" si="32"/>
-        <v>7.3347270774560625E-3</v>
+        <f t="shared" si="34"/>
+        <v>7.235682787429345E-3</v>
       </c>
       <c r="BB72" s="12">
-        <f t="shared" si="33"/>
-        <v>0.15943829566027701</v>
+        <f t="shared" si="35"/>
+        <v>0.15914195406784507</v>
       </c>
     </row>
     <row r="73" spans="1:54" x14ac:dyDescent="0.25">
@@ -11722,63 +11789,63 @@
         <v>1999</v>
       </c>
       <c r="B73" s="14">
-        <v>5.6168914860807782</v>
+        <v>5.6169888417948242</v>
       </c>
       <c r="I73">
         <v>1999</v>
       </c>
       <c r="J73" s="14">
-        <v>-1.5761831635632675</v>
+        <v>-1.5768842980615119</v>
       </c>
       <c r="AH73">
         <v>1999</v>
       </c>
       <c r="AI73" s="12">
-        <f t="shared" si="28"/>
-        <v>1.2322551666503947E-3</v>
+        <f t="shared" si="30"/>
+        <v>1.1980539583293305E-3</v>
       </c>
       <c r="AJ73" s="12">
-        <f t="shared" ref="AJ73:AJ89" si="34">(LN(AB28)-LN(AJ28))^2</f>
-        <v>0.16665296795918197</v>
+        <f t="shared" ref="AJ73:AJ89" si="36">(LN(AB28)-LN(AJ28))^2</f>
+        <v>0.16601844528717905</v>
       </c>
       <c r="AK73" s="12">
-        <f t="shared" ref="AK73:AK89" si="35">(LN(AC28)-LN(AK28))^2</f>
-        <v>6.8696887248597335E-3</v>
+        <f t="shared" ref="AK73:AK89" si="37">(LN(AC28)-LN(AK28))^2</f>
+        <v>7.289670635647701E-3</v>
       </c>
       <c r="AL73" s="12">
-        <f t="shared" ref="AL73:AL89" si="36">(LN(AD28)-LN(AL28))^2</f>
-        <v>6.7376701012611756E-2</v>
+        <f t="shared" ref="AL73:AL89" si="38">(LN(AD28)-LN(AL28))^2</f>
+        <v>6.7993229490423607E-2</v>
       </c>
       <c r="AM73" s="12">
-        <f t="shared" ref="AM73:AM89" si="37">(LN(AE28)-LN(AM28))^2</f>
-        <v>1.5402537514959351E-4</v>
+        <f t="shared" ref="AM73:AM89" si="39">(LN(AE28)-LN(AM28))^2</f>
+        <v>1.276652974369424E-4</v>
       </c>
       <c r="AN73" s="12">
-        <f t="shared" ref="AN73:AN89" si="38">(LN(AF28)-LN(AN28))^2</f>
-        <v>2.9110401042572273E-2</v>
+        <f t="shared" ref="AN73:AN89" si="40">(LN(AF28)-LN(AN28))^2</f>
+        <v>2.9042566344844905E-2</v>
       </c>
       <c r="AW73">
         <v>1999</v>
       </c>
       <c r="AX73" s="12">
-        <f t="shared" si="29"/>
-        <v>7.9360388913982963E-2</v>
+        <f t="shared" si="31"/>
+        <v>7.9361402510767898E-2</v>
       </c>
       <c r="AY73" s="12">
-        <f t="shared" si="30"/>
-        <v>0.20561518993320099</v>
+        <f t="shared" si="32"/>
+        <v>0.20524528142245249</v>
       </c>
       <c r="AZ73" s="12">
-        <f t="shared" si="31"/>
-        <v>8.6222559547007291E-2</v>
+        <f t="shared" si="33"/>
+        <v>8.7482487777867893E-2</v>
       </c>
       <c r="BA73" s="12">
-        <f t="shared" si="32"/>
-        <v>6.0105986528367371E-2</v>
+        <f t="shared" si="34"/>
+        <v>6.0758656713884418E-2</v>
       </c>
       <c r="BB73" s="12">
-        <f t="shared" si="33"/>
-        <v>1.6007325596256203E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.621863964961363E-2</v>
       </c>
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.25">
@@ -11786,63 +11853,63 @@
         <v>2000</v>
       </c>
       <c r="B74" s="14">
-        <v>6.0910636211228963</v>
+        <v>6.0909442447148132</v>
       </c>
       <c r="I74">
         <v>2000</v>
       </c>
       <c r="J74" s="14">
-        <v>-1.6351706732530586</v>
+        <v>-1.6348941246002453</v>
       </c>
       <c r="AH74">
         <v>2000</v>
       </c>
       <c r="AI74" s="12">
-        <f t="shared" si="28"/>
-        <v>6.5282539317001426E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.5372317322171525E-2</v>
       </c>
       <c r="AJ74" s="12">
-        <f t="shared" si="34"/>
-        <v>2.6346999796914065E-2</v>
+        <f t="shared" si="36"/>
+        <v>2.6479284185312476E-2</v>
       </c>
       <c r="AK74" s="12">
-        <f t="shared" si="35"/>
-        <v>5.1628353989427493E-2</v>
+        <f t="shared" si="37"/>
+        <v>5.1480571738197783E-2</v>
       </c>
       <c r="AL74" s="12">
-        <f t="shared" si="36"/>
-        <v>3.5027601566154625E-3</v>
+        <f t="shared" si="38"/>
+        <v>3.4714092065136503E-3</v>
       </c>
       <c r="AM74" s="12">
-        <f t="shared" si="37"/>
-        <v>9.1477562534122203E-2</v>
+        <f t="shared" si="39"/>
+        <v>9.1343017006678018E-2</v>
       </c>
       <c r="AN74" s="12">
-        <f t="shared" si="38"/>
-        <v>2.5176597320365996E-2</v>
+        <f t="shared" si="40"/>
+        <v>2.5568796504005138E-2</v>
       </c>
       <c r="AW74">
         <v>2000</v>
       </c>
       <c r="AX74" s="12">
-        <f t="shared" si="29"/>
-        <v>5.0860129845732342E-2</v>
+        <f t="shared" si="31"/>
+        <v>5.0957120295012696E-2</v>
       </c>
       <c r="AY74" s="12">
-        <f t="shared" si="30"/>
-        <v>2.3014730573437247E-5</v>
+        <f t="shared" si="32"/>
+        <v>2.1525292611971354E-5</v>
       </c>
       <c r="AZ74" s="12">
-        <f t="shared" si="31"/>
-        <v>1.8593218832167364E-4</v>
+        <f t="shared" si="33"/>
+        <v>1.9114598910999233E-4</v>
       </c>
       <c r="BA74" s="12">
-        <f t="shared" si="32"/>
-        <v>0.13329873659653574</v>
+        <f t="shared" si="34"/>
+        <v>0.13401691324421425</v>
       </c>
       <c r="BB74" s="12">
-        <f t="shared" si="33"/>
-        <v>0.44535742100856845</v>
+        <f t="shared" si="35"/>
+        <v>0.44554536333548045</v>
       </c>
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.25">
@@ -11850,63 +11917,63 @@
         <v>2001</v>
       </c>
       <c r="B75" s="14">
-        <v>5.0561068369832025</v>
+        <v>5.056008789069061</v>
       </c>
       <c r="I75">
         <v>2001</v>
       </c>
       <c r="J75" s="14">
-        <v>-2.0920318759884844</v>
+        <v>-2.0899970535930246</v>
       </c>
       <c r="AH75">
         <v>2001</v>
       </c>
       <c r="AI75" s="12">
-        <f t="shared" si="28"/>
-        <v>0.33388084993324602</v>
+        <f t="shared" si="30"/>
+        <v>0.33603382963985534</v>
       </c>
       <c r="AJ75" s="12">
-        <f t="shared" si="34"/>
-        <v>9.9708487281169406E-2</v>
+        <f t="shared" si="36"/>
+        <v>9.8882460332118255E-2</v>
       </c>
       <c r="AK75" s="12">
-        <f t="shared" si="35"/>
-        <v>1.5904458742000391E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.5643661535143308E-2</v>
       </c>
       <c r="AL75" s="12">
-        <f t="shared" si="36"/>
-        <v>0.13372982464195696</v>
+        <f t="shared" si="38"/>
+        <v>0.13222844579431292</v>
       </c>
       <c r="AM75" s="12">
-        <f t="shared" si="37"/>
-        <v>4.7621838834190744E-2</v>
+        <f t="shared" si="39"/>
+        <v>4.8013164007839046E-2</v>
       </c>
       <c r="AN75" s="12">
-        <f t="shared" si="38"/>
-        <v>7.8895897800356191E-2</v>
+        <f t="shared" si="40"/>
+        <v>8.0495303519042827E-2</v>
       </c>
       <c r="AW75">
         <v>2001</v>
       </c>
       <c r="AX75" s="12">
-        <f t="shared" si="29"/>
-        <v>4.8196076991185955E-3</v>
+        <f t="shared" si="31"/>
+        <v>4.7927638013747871E-3</v>
       </c>
       <c r="AY75" s="12">
-        <f t="shared" si="30"/>
-        <v>6.451802784186461E-3</v>
+        <f t="shared" si="32"/>
+        <v>6.5002444041561136E-3</v>
       </c>
       <c r="AZ75" s="12">
-        <f t="shared" si="31"/>
-        <v>3.7430451585106807E-2</v>
+        <f t="shared" si="33"/>
+        <v>3.7525948617815164E-2</v>
       </c>
       <c r="BA75" s="12">
-        <f t="shared" si="32"/>
-        <v>0.22854693107641547</v>
+        <f t="shared" si="34"/>
+        <v>0.22848803220043318</v>
       </c>
       <c r="BB75" s="12">
-        <f t="shared" si="33"/>
-        <v>0.18596375967746412</v>
+        <f t="shared" si="35"/>
+        <v>0.18527035336414213</v>
       </c>
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.25">
@@ -11914,63 +11981,63 @@
         <v>2002</v>
       </c>
       <c r="B76" s="14">
-        <v>5.3754335447540535</v>
+        <v>5.3760635752495247</v>
       </c>
       <c r="I76">
         <v>2002</v>
       </c>
       <c r="J76" s="14">
-        <v>-1.669819947591233</v>
+        <v>-1.6705038938084669</v>
       </c>
       <c r="AH76">
         <v>2002</v>
       </c>
       <c r="AI76" s="12">
-        <f t="shared" si="28"/>
-        <v>1.1052508061930285E-2</v>
+        <f t="shared" si="30"/>
+        <v>1.1041497652253521E-2</v>
       </c>
       <c r="AJ76" s="12">
-        <f t="shared" si="34"/>
-        <v>2.031525500649378E-3</v>
+        <f t="shared" si="36"/>
+        <v>2.1132555027929879E-3</v>
       </c>
       <c r="AK76" s="12">
-        <f t="shared" si="35"/>
-        <v>3.0744820935244121E-3</v>
+        <f t="shared" si="37"/>
+        <v>2.8450299602933347E-3</v>
       </c>
       <c r="AL76" s="12">
-        <f t="shared" si="36"/>
-        <v>1.0830095178482374E-2</v>
+        <f t="shared" si="38"/>
+        <v>1.1195140775119102E-2</v>
       </c>
       <c r="AM76" s="12">
-        <f t="shared" si="37"/>
-        <v>3.2239548934341052E-4</v>
+        <f t="shared" si="39"/>
+        <v>3.6596913511466534E-4</v>
       </c>
       <c r="AN76" s="12">
-        <f t="shared" si="38"/>
-        <v>9.1710543325580721E-2</v>
+        <f t="shared" si="40"/>
+        <v>9.135881203980932E-2</v>
       </c>
       <c r="AW76">
         <v>2002</v>
       </c>
       <c r="AX76" s="12">
-        <f t="shared" si="29"/>
-        <v>0.3597426898078942</v>
+        <f t="shared" si="31"/>
+        <v>0.35910183617873398</v>
       </c>
       <c r="AY76" s="12">
-        <f t="shared" si="30"/>
-        <v>6.5155594134152124E-3</v>
+        <f t="shared" si="32"/>
+        <v>6.5992190371268458E-3</v>
       </c>
       <c r="AZ76" s="12">
-        <f t="shared" si="31"/>
-        <v>1.2763923300981161E-3</v>
+        <f t="shared" si="33"/>
+        <v>1.1566591621369924E-3</v>
       </c>
       <c r="BA76" s="12">
-        <f t="shared" si="32"/>
-        <v>2.6111040783123587E-7</v>
+        <f t="shared" si="34"/>
+        <v>1.8216263125335706E-6</v>
       </c>
       <c r="BB76" s="12">
-        <f t="shared" si="33"/>
-        <v>3.5185690651609342E-4</v>
+        <f t="shared" si="35"/>
+        <v>3.1995718568315467E-4</v>
       </c>
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.25">
@@ -11978,63 +12045,63 @@
         <v>2003</v>
       </c>
       <c r="B77" s="14">
-        <v>4.7418438862019006</v>
+        <v>4.7416919147581185</v>
       </c>
       <c r="I77">
         <v>2003</v>
       </c>
       <c r="J77" s="14">
-        <v>-2.3151356039914583</v>
+        <v>-2.3133199998655991</v>
       </c>
       <c r="AH77">
         <v>2003</v>
       </c>
       <c r="AI77" s="12">
-        <f t="shared" si="28"/>
-        <v>7.1297639390134893E-2</v>
+        <f t="shared" si="30"/>
+        <v>7.21665631118521E-2</v>
       </c>
       <c r="AJ77" s="12">
-        <f t="shared" si="34"/>
-        <v>3.6953216972691037E-3</v>
+        <f t="shared" si="36"/>
+        <v>3.9670932499713974E-3</v>
       </c>
       <c r="AK77" s="12">
-        <f t="shared" si="35"/>
-        <v>7.990406894484374E-2</v>
+        <f t="shared" si="37"/>
+        <v>7.9225318420580462E-2</v>
       </c>
       <c r="AL77" s="12">
-        <f t="shared" si="36"/>
-        <v>5.5818890483128575E-2</v>
+        <f t="shared" si="38"/>
+        <v>5.5263428593203101E-2</v>
       </c>
       <c r="AM77" s="12">
-        <f t="shared" si="37"/>
-        <v>3.5541288411979378E-3</v>
+        <f t="shared" si="39"/>
+        <v>3.6480203944585757E-3</v>
       </c>
       <c r="AN77" s="12">
-        <f t="shared" si="38"/>
-        <v>0.37373998383985291</v>
+        <f t="shared" si="40"/>
+        <v>0.37614823842960449</v>
       </c>
       <c r="AW77">
         <v>2003</v>
       </c>
       <c r="AX77" s="12">
-        <f t="shared" si="29"/>
-        <v>0.46338397475732701</v>
+        <f t="shared" si="31"/>
+        <v>0.46304703974902445</v>
       </c>
       <c r="AY77" s="12">
-        <f t="shared" si="30"/>
-        <v>4.9677264467477174E-2</v>
+        <f t="shared" si="32"/>
+        <v>4.9378229961710228E-2</v>
       </c>
       <c r="AZ77" s="12">
-        <f t="shared" si="31"/>
-        <v>6.8862056657993664E-2</v>
+        <f t="shared" si="33"/>
+        <v>6.8864604822654649E-2</v>
       </c>
       <c r="BA77" s="12">
-        <f t="shared" si="32"/>
-        <v>1.2659751445419526E-2</v>
+        <f t="shared" si="34"/>
+        <v>1.2824066723069854E-2</v>
       </c>
       <c r="BB77" s="12">
-        <f t="shared" si="33"/>
-        <v>0.11079721412735574</v>
+        <f t="shared" si="35"/>
+        <v>0.11132212158931445</v>
       </c>
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.25">
@@ -12042,63 +12109,63 @@
         <v>2004</v>
       </c>
       <c r="B78" s="14">
-        <v>5.4249760972997789</v>
+        <v>5.4248311082653027</v>
       </c>
       <c r="I78">
         <v>2004</v>
       </c>
       <c r="J78" s="14">
-        <v>-2.0389461272409148</v>
+        <v>-2.0393142572511764</v>
       </c>
       <c r="AH78">
         <v>2004</v>
       </c>
       <c r="AI78" s="12">
-        <f t="shared" si="28"/>
-        <v>3.6973461611437631E-3</v>
+        <f t="shared" si="30"/>
+        <v>3.7515477549956641E-3</v>
       </c>
       <c r="AJ78" s="12">
-        <f t="shared" si="34"/>
-        <v>5.9264380610148E-3</v>
+        <f t="shared" si="36"/>
+        <v>6.0336627081595384E-3</v>
       </c>
       <c r="AK78" s="12">
-        <f t="shared" si="35"/>
-        <v>1.1238903888604831E-3</v>
+        <f t="shared" si="37"/>
+        <v>1.07622578382038E-3</v>
       </c>
       <c r="AL78" s="12">
-        <f t="shared" si="36"/>
-        <v>1.4647370332029057E-2</v>
+        <f t="shared" si="38"/>
+        <v>1.4893968129218971E-2</v>
       </c>
       <c r="AM78" s="12">
-        <f t="shared" si="37"/>
-        <v>8.57640736092673E-2</v>
+        <f t="shared" si="39"/>
+        <v>8.487168766636477E-2</v>
       </c>
       <c r="AN78" s="12">
-        <f t="shared" si="38"/>
-        <v>0.28428420840051793</v>
+        <f t="shared" si="40"/>
+        <v>0.28381973989056247</v>
       </c>
       <c r="AW78">
         <v>2004</v>
       </c>
       <c r="AX78" s="12">
-        <f t="shared" si="29"/>
-        <v>0.30811353193073826</v>
+        <f t="shared" si="31"/>
+        <v>0.30838063393862158</v>
       </c>
       <c r="AY78" s="12">
-        <f t="shared" si="30"/>
-        <v>2.4867887875953745E-2</v>
+        <f t="shared" si="32"/>
+        <v>2.501986541892089E-2</v>
       </c>
       <c r="AZ78" s="12">
-        <f t="shared" si="31"/>
-        <v>0.10586877754082853</v>
+        <f t="shared" si="33"/>
+        <v>0.10612201864919438</v>
       </c>
       <c r="BA78" s="12">
-        <f t="shared" si="32"/>
-        <v>2.58436314725232E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.624917480294111E-2</v>
       </c>
       <c r="BB78" s="12">
-        <f t="shared" si="33"/>
-        <v>5.1861676862770087E-2</v>
+        <f t="shared" si="35"/>
+        <v>5.1250167634649464E-2</v>
       </c>
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.25">
@@ -12106,63 +12173,63 @@
         <v>2005</v>
       </c>
       <c r="B79" s="14">
-        <v>5.1976012643614027</v>
+        <v>5.1979447981316458</v>
       </c>
       <c r="I79">
         <v>2005</v>
       </c>
       <c r="J79" s="14">
-        <v>-2.0829553311584577</v>
+        <v>-2.0831354779074496</v>
       </c>
       <c r="AH79">
         <v>2005</v>
       </c>
       <c r="AI79" s="12">
-        <f t="shared" si="28"/>
-        <v>0.10897575170353153</v>
+        <f t="shared" si="30"/>
+        <v>0.10912117413283424</v>
       </c>
       <c r="AJ79" s="12">
-        <f t="shared" si="34"/>
-        <v>5.7061079478325567E-2</v>
+        <f t="shared" si="36"/>
+        <v>5.693144096083106E-2</v>
       </c>
       <c r="AK79" s="12">
-        <f t="shared" si="35"/>
-        <v>7.2366655110033706E-2</v>
+        <f t="shared" si="37"/>
+        <v>7.2692584117115447E-2</v>
       </c>
       <c r="AL79" s="12">
-        <f t="shared" si="36"/>
-        <v>3.8174090026487854E-2</v>
+        <f t="shared" si="38"/>
+        <v>3.8276646640550284E-2</v>
       </c>
       <c r="AM79" s="12">
-        <f t="shared" si="37"/>
-        <v>6.7661150544717297E-3</v>
+        <f t="shared" si="39"/>
+        <v>6.8870666713372738E-3</v>
       </c>
       <c r="AN79" s="12">
-        <f t="shared" si="38"/>
-        <v>1.1839530141590614E-6</v>
+        <f t="shared" si="40"/>
+        <v>7.1071341549766636E-7</v>
       </c>
       <c r="AW79">
         <v>2005</v>
       </c>
       <c r="AX79" s="12">
-        <f t="shared" si="29"/>
-        <v>3.5085626303402888E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.5178585743394199E-2</v>
       </c>
       <c r="AY79" s="12">
-        <f t="shared" si="30"/>
-        <v>5.3437826589800362E-2</v>
+        <f t="shared" si="32"/>
+        <v>5.3346140602435511E-2</v>
       </c>
       <c r="AZ79" s="12">
-        <f t="shared" si="31"/>
-        <v>2.1962048084387824E-2</v>
+        <f t="shared" si="33"/>
+        <v>2.2078065595680121E-2</v>
       </c>
       <c r="BA79" s="12">
-        <f t="shared" si="32"/>
-        <v>9.897579948606855E-2</v>
+        <f t="shared" si="34"/>
+        <v>9.9044757762202396E-2</v>
       </c>
       <c r="BB79" s="12">
-        <f t="shared" si="33"/>
-        <v>0.10260868229982914</v>
+        <f t="shared" si="35"/>
+        <v>0.10216769384743003</v>
       </c>
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.25">
@@ -12170,63 +12237,63 @@
         <v>2006</v>
       </c>
       <c r="B80" s="14">
-        <v>5.8823066356356639</v>
+        <v>5.8825035621176465</v>
       </c>
       <c r="I80">
         <v>2006</v>
       </c>
       <c r="J80" s="14">
-        <v>-2.1222152258968809</v>
+        <v>-2.1231304587774029</v>
       </c>
       <c r="AH80">
         <v>2006</v>
       </c>
       <c r="AI80" s="12">
-        <f t="shared" si="28"/>
-        <v>2.6725293176822875E-3</v>
+        <f t="shared" si="30"/>
+        <v>2.6088920241932483E-3</v>
       </c>
       <c r="AJ80" s="12">
-        <f t="shared" si="34"/>
-        <v>0.82647161867097563</v>
+        <f t="shared" si="36"/>
+        <v>0.82716736025374471</v>
       </c>
       <c r="AK80" s="12">
-        <f t="shared" si="35"/>
-        <v>5.394721373655589E-3</v>
+        <f t="shared" si="37"/>
+        <v>5.2539476102818937E-3</v>
       </c>
       <c r="AL80" s="12">
-        <f t="shared" si="36"/>
-        <v>9.1590994271162334E-3</v>
+        <f t="shared" si="38"/>
+        <v>9.0696123845088236E-3</v>
       </c>
       <c r="AM80" s="12">
-        <f t="shared" si="37"/>
-        <v>0.18109190351735618</v>
+        <f t="shared" si="39"/>
+        <v>0.18082661129680239</v>
       </c>
       <c r="AN80" s="12">
-        <f t="shared" si="38"/>
-        <v>1.199159697606572E-2</v>
+        <f t="shared" si="40"/>
+        <v>1.1812212650982876E-2</v>
       </c>
       <c r="AW80">
         <v>2006</v>
       </c>
       <c r="AX80" s="12">
-        <f t="shared" si="29"/>
-        <v>0.19134764299126156</v>
+        <f t="shared" si="31"/>
+        <v>0.19125896829772299</v>
       </c>
       <c r="AY80" s="12">
-        <f t="shared" si="30"/>
-        <v>0.28091827118120849</v>
+        <f t="shared" si="32"/>
+        <v>0.2811932663813142</v>
       </c>
       <c r="AZ80" s="12">
-        <f t="shared" si="31"/>
-        <v>2.3874844124476091E-3</v>
+        <f t="shared" si="33"/>
+        <v>2.3643148856844517E-3</v>
       </c>
       <c r="BA80" s="12">
-        <f t="shared" si="32"/>
-        <v>1.0387284245344599E-3</v>
+        <f t="shared" si="34"/>
+        <v>1.0575337035827264E-3</v>
       </c>
       <c r="BB80" s="12">
-        <f t="shared" si="33"/>
-        <v>0.31749499416959315</v>
+        <f t="shared" si="35"/>
+        <v>0.31785701136683581</v>
       </c>
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.25">
@@ -12234,63 +12301,63 @@
         <v>2007</v>
       </c>
       <c r="B81" s="14">
-        <v>5.244846615194402</v>
+        <v>5.2446548687796328</v>
       </c>
       <c r="I81">
         <v>2007</v>
       </c>
       <c r="J81" s="14">
-        <v>-2.2300944553235427</v>
+        <v>-2.2298974650983543</v>
       </c>
       <c r="AH81">
         <v>2007</v>
       </c>
       <c r="AI81" s="12">
-        <f t="shared" si="28"/>
-        <v>3.4315912186520844E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.4300611172661914E-2</v>
       </c>
       <c r="AJ81" s="12">
-        <f t="shared" si="34"/>
-        <v>3.3253894022978623E-4</v>
+        <f t="shared" si="36"/>
+        <v>3.1675136523406531E-4</v>
       </c>
       <c r="AK81" s="12">
-        <f t="shared" si="35"/>
-        <v>1.2775943249490492E-3</v>
+        <f t="shared" si="37"/>
+        <v>1.3268971882229987E-3</v>
       </c>
       <c r="AL81" s="12">
-        <f t="shared" si="36"/>
-        <v>1.8334210874198285E-5</v>
+        <f t="shared" si="38"/>
+        <v>1.0556835054568308E-5</v>
       </c>
       <c r="AM81" s="12">
-        <f t="shared" si="37"/>
-        <v>2.5716284156921527E-2</v>
+        <f t="shared" si="39"/>
+        <v>2.5459170591686293E-2</v>
       </c>
       <c r="AN81" s="12">
-        <f t="shared" si="38"/>
-        <v>0.12959533674515614</v>
+        <f t="shared" si="40"/>
+        <v>0.13020236864778786</v>
       </c>
       <c r="AW81">
         <v>2007</v>
       </c>
       <c r="AX81" s="12">
-        <f t="shared" si="29"/>
-        <v>8.0111576320135067E-5</v>
+        <f t="shared" si="31"/>
+        <v>8.5337136703552042E-5</v>
       </c>
       <c r="AY81" s="12">
-        <f t="shared" si="30"/>
-        <v>6.3344949238050216E-3</v>
+        <f t="shared" si="32"/>
+        <v>6.3694706706484954E-3</v>
       </c>
       <c r="AZ81" s="12">
-        <f t="shared" si="31"/>
-        <v>1.1902319448076617E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.175946062577783E-2</v>
       </c>
       <c r="BA81" s="12">
-        <f t="shared" si="32"/>
-        <v>5.7778826775154134E-2</v>
+        <f t="shared" si="34"/>
+        <v>5.7966511290403498E-2</v>
       </c>
       <c r="BB81" s="12">
-        <f t="shared" si="33"/>
-        <v>3.9821209020914593E-3</v>
+        <f t="shared" si="35"/>
+        <v>3.9111798667450333E-3</v>
       </c>
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.25">
@@ -12298,63 +12365,63 @@
         <v>2008</v>
       </c>
       <c r="B82" s="14">
-        <v>5.3205326431043902</v>
+        <v>5.3210592391737173</v>
       </c>
       <c r="I82">
         <v>2008</v>
       </c>
       <c r="J82" s="14">
-        <v>-2.3473242797299054</v>
+        <v>-2.3478978859912711</v>
       </c>
       <c r="AH82">
         <v>2008</v>
       </c>
       <c r="AI82" s="12">
-        <f t="shared" si="28"/>
-        <v>3.5099490259147111E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.5109285727642645E-2</v>
       </c>
       <c r="AJ82" s="12">
-        <f t="shared" si="34"/>
-        <v>8.8653134989106954E-3</v>
+        <f t="shared" si="36"/>
+        <v>8.7277872257159987E-3</v>
       </c>
       <c r="AK82" s="12">
-        <f t="shared" si="35"/>
-        <v>3.533665986428975E-2</v>
+        <f t="shared" si="37"/>
+        <v>3.5562422326750887E-2</v>
       </c>
       <c r="AL82" s="12">
-        <f t="shared" si="36"/>
-        <v>2.5938904207681593E-2</v>
+        <f t="shared" si="38"/>
+        <v>2.6085799304144307E-2</v>
       </c>
       <c r="AM82" s="12">
-        <f t="shared" si="37"/>
-        <v>1.4938556361882908E-4</v>
+        <f t="shared" si="39"/>
+        <v>1.5334741014418372E-4</v>
       </c>
       <c r="AN82" s="12">
-        <f t="shared" si="38"/>
-        <v>2.0059636438119394E-2</v>
+        <f t="shared" si="40"/>
+        <v>1.9990905394635997E-2</v>
       </c>
       <c r="AW82">
         <v>2008</v>
       </c>
       <c r="AX82" s="12">
-        <f t="shared" si="29"/>
-        <v>0.15687358954576711</v>
+        <f t="shared" si="31"/>
+        <v>0.15653232948923745</v>
       </c>
       <c r="AY82" s="12">
-        <f t="shared" si="30"/>
-        <v>0.13254117106776581</v>
+        <f t="shared" si="32"/>
+        <v>0.13230233178979131</v>
       </c>
       <c r="AZ82" s="12">
-        <f t="shared" si="31"/>
-        <v>7.9015238239289777E-3</v>
+        <f t="shared" si="33"/>
+        <v>7.8937816195818068E-3</v>
       </c>
       <c r="BA82" s="12">
-        <f t="shared" si="32"/>
-        <v>2.4718498185753598E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.4585154863495121E-2</v>
       </c>
       <c r="BB82" s="12">
-        <f t="shared" si="33"/>
-        <v>3.9180130508301561E-2</v>
+        <f t="shared" si="35"/>
+        <v>3.895341647619438E-2</v>
       </c>
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.25">
@@ -12362,63 +12429,63 @@
         <v>2009</v>
       </c>
       <c r="B83" s="14">
-        <v>5.3108761968074454</v>
+        <v>5.3115198969376811</v>
       </c>
       <c r="I83">
         <v>2009</v>
       </c>
       <c r="J83" s="14">
-        <v>-2.4012631897842045</v>
+        <v>-2.402889454373605</v>
       </c>
       <c r="AH83">
         <v>2009</v>
       </c>
       <c r="AI83" s="12">
-        <f t="shared" si="28"/>
-        <v>4.7191121536905432E-2</v>
+        <f t="shared" si="30"/>
+        <v>4.6816153956620706E-2</v>
       </c>
       <c r="AJ83" s="12">
-        <f t="shared" si="34"/>
-        <v>4.9222674731106439E-4</v>
+        <f t="shared" si="36"/>
+        <v>4.5766760966780586E-4</v>
       </c>
       <c r="AK83" s="12">
-        <f t="shared" si="35"/>
-        <v>3.0156514738715993E-3</v>
+        <f t="shared" si="37"/>
+        <v>3.1912690912604112E-3</v>
       </c>
       <c r="AL83" s="12">
-        <f t="shared" si="36"/>
-        <v>7.3376904984706387E-4</v>
+        <f t="shared" si="38"/>
+        <v>7.7012359360405041E-4</v>
       </c>
       <c r="AM83" s="12">
-        <f t="shared" si="37"/>
-        <v>8.4572350971595661E-5</v>
+        <f t="shared" si="39"/>
+        <v>9.1010359151090173E-5</v>
       </c>
       <c r="AN83" s="12">
-        <f t="shared" si="38"/>
-        <v>1.1979137948006632E-2</v>
+        <f t="shared" si="40"/>
+        <v>1.2065691525204973E-2</v>
       </c>
       <c r="AW83">
         <v>2009</v>
       </c>
       <c r="AX83" s="12">
-        <f t="shared" si="29"/>
-        <v>7.9342710646599604E-2</v>
+        <f t="shared" si="31"/>
+        <v>7.9651811410325943E-2</v>
       </c>
       <c r="AY83" s="12">
-        <f t="shared" si="30"/>
-        <v>7.5406820211442729E-3</v>
+        <f t="shared" si="32"/>
+        <v>7.4569086829204901E-3</v>
       </c>
       <c r="AZ83" s="12">
-        <f t="shared" si="31"/>
-        <v>3.3382148830963014E-2</v>
+        <f t="shared" si="33"/>
+        <v>3.3459746257012764E-2</v>
       </c>
       <c r="BA83" s="12">
-        <f t="shared" si="32"/>
-        <v>0.13047858448291508</v>
+        <f t="shared" si="34"/>
+        <v>0.130592194635721</v>
       </c>
       <c r="BB83" s="12">
-        <f t="shared" si="33"/>
-        <v>3.2268305931879633E-2</v>
+        <f t="shared" si="35"/>
+        <v>3.2615738506130761E-2</v>
       </c>
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.25">
@@ -12426,63 +12493,63 @@
         <v>2010</v>
       </c>
       <c r="B84" s="14">
-        <v>5.6935595852031735</v>
+        <v>5.6943679741622315</v>
       </c>
       <c r="I84">
         <v>2010</v>
       </c>
       <c r="J84" s="14">
-        <v>-2.5680745386559085</v>
+        <v>-2.5697714777609133</v>
       </c>
       <c r="AH84">
         <v>2010</v>
       </c>
       <c r="AI84" s="12">
-        <f t="shared" si="28"/>
-        <v>0.1205856678519078</v>
+        <f t="shared" si="30"/>
+        <v>0.1200453482391171</v>
       </c>
       <c r="AJ84" s="12">
-        <f t="shared" si="34"/>
-        <v>2.7784215053645037E-2</v>
+        <f t="shared" si="36"/>
+        <v>2.8006511589651562E-2</v>
       </c>
       <c r="AK84" s="12">
-        <f t="shared" si="35"/>
-        <v>2.3202147233336995E-2</v>
+        <f t="shared" si="37"/>
+        <v>2.3334059119612949E-2</v>
       </c>
       <c r="AL84" s="12">
-        <f t="shared" si="36"/>
-        <v>2.5319672960316284E-3</v>
+        <f t="shared" si="38"/>
+        <v>2.4930923688881467E-3</v>
       </c>
       <c r="AM84" s="12">
-        <f t="shared" si="37"/>
-        <v>2.9754979945258073E-3</v>
+        <f t="shared" si="39"/>
+        <v>3.0057542198536668E-3</v>
       </c>
       <c r="AN84" s="12">
-        <f t="shared" si="38"/>
-        <v>1.2428224019552902E-4</v>
+        <f t="shared" si="40"/>
+        <v>1.2498557514999855E-4</v>
       </c>
       <c r="AW84">
         <v>2010</v>
       </c>
       <c r="AX84" s="12">
-        <f t="shared" si="29"/>
-        <v>8.7204078812898878E-2</v>
+        <f t="shared" si="31"/>
+        <v>8.6783583416069648E-2</v>
       </c>
       <c r="AY84" s="12">
-        <f t="shared" si="30"/>
-        <v>6.1730424740413121E-6</v>
+        <f t="shared" si="32"/>
+        <v>1.023030816338256E-5</v>
       </c>
       <c r="AZ84" s="12">
-        <f t="shared" si="31"/>
-        <v>0.16230854627461735</v>
+        <f t="shared" si="33"/>
+        <v>0.16145343626101094</v>
       </c>
       <c r="BA84" s="12">
-        <f t="shared" si="32"/>
-        <v>1.4208007036349314E-5</v>
+        <f t="shared" si="34"/>
+        <v>1.0377681872141823E-5</v>
       </c>
       <c r="BB84" s="12">
-        <f t="shared" si="33"/>
-        <v>0.29366001107840611</v>
+        <f t="shared" si="35"/>
+        <v>0.29490460527264001</v>
       </c>
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.25">
@@ -12490,63 +12557,63 @@
         <v>2011</v>
       </c>
       <c r="B85" s="14">
-        <v>5.0392261894610257</v>
+        <v>5.0398353806207723</v>
       </c>
       <c r="I85">
         <v>2011</v>
       </c>
       <c r="J85" s="14">
-        <v>-2.8094446497564811</v>
+        <v>-2.8094898356678617</v>
       </c>
       <c r="AH85">
         <v>2011</v>
       </c>
       <c r="AI85" s="12">
-        <f t="shared" si="28"/>
-        <v>5.1241621502154999E-2</v>
+        <f t="shared" si="30"/>
+        <v>5.1519415598685572E-2</v>
       </c>
       <c r="AJ85" s="12">
-        <f t="shared" si="34"/>
-        <v>1.6056482045234893E-2</v>
+        <f t="shared" si="36"/>
+        <v>1.6279464153122987E-2</v>
       </c>
       <c r="AK85" s="12">
-        <f t="shared" si="35"/>
-        <v>2.2887165940981911E-2</v>
+        <f t="shared" si="37"/>
+        <v>2.2590063479993327E-2</v>
       </c>
       <c r="AL85" s="12">
-        <f t="shared" si="36"/>
-        <v>1.5585235491984111E-2</v>
+        <f t="shared" si="38"/>
+        <v>1.6109903389538879E-2</v>
       </c>
       <c r="AM85" s="12">
-        <f t="shared" si="37"/>
-        <v>9.3192084752931825E-4</v>
+        <f t="shared" si="39"/>
+        <v>1.0199002415642658E-3</v>
       </c>
       <c r="AN85" s="12">
-        <f t="shared" si="38"/>
-        <v>0.18230924715115862</v>
+        <f t="shared" si="40"/>
+        <v>0.18050145535322012</v>
       </c>
       <c r="AW85">
         <v>2011</v>
       </c>
       <c r="AX85" s="12">
-        <f t="shared" si="29"/>
-        <v>0.14533463016541945</v>
+        <f t="shared" si="31"/>
+        <v>0.14572651744054513</v>
       </c>
       <c r="AY85" s="12">
-        <f t="shared" si="30"/>
-        <v>5.2855271361458157E-2</v>
+        <f t="shared" si="32"/>
+        <v>5.2461297327064768E-2</v>
       </c>
       <c r="AZ85" s="12">
-        <f t="shared" si="31"/>
-        <v>7.4842078341539414E-2</v>
+        <f t="shared" si="33"/>
+        <v>7.5501589851440731E-2</v>
       </c>
       <c r="BA85" s="12">
-        <f t="shared" si="32"/>
-        <v>8.1796487112266551E-3</v>
+        <f t="shared" si="34"/>
+        <v>8.4838153325035651E-3</v>
       </c>
       <c r="BB85" s="12">
-        <f t="shared" si="33"/>
-        <v>4.4855248907237112E-3</v>
+        <f t="shared" si="35"/>
+        <v>4.2963706591216417E-3</v>
       </c>
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.25">
@@ -12554,63 +12621,63 @@
         <v>2012</v>
       </c>
       <c r="B86" s="14">
-        <v>5.4240983006586347</v>
+        <v>5.4249850336662719</v>
       </c>
       <c r="I86">
         <v>2012</v>
       </c>
       <c r="J86" s="14">
-        <v>-2.7848149305756453</v>
+        <v>-2.7868259726284319</v>
       </c>
       <c r="AH86">
         <v>2012</v>
       </c>
       <c r="AI86" s="12">
-        <f t="shared" si="28"/>
-        <v>5.4694968091905591E-2</v>
+        <f t="shared" si="30"/>
+        <v>5.5172063906661038E-2</v>
       </c>
       <c r="AJ86" s="12">
-        <f t="shared" si="34"/>
-        <v>1.8263506333812923E-4</v>
+        <f t="shared" si="36"/>
+        <v>2.1650541433565734E-4</v>
       </c>
       <c r="AK86" s="12">
-        <f t="shared" si="35"/>
-        <v>9.4727375647695928E-7</v>
+        <f t="shared" si="37"/>
+        <v>4.4575296618317618E-6</v>
       </c>
       <c r="AL86" s="12">
-        <f t="shared" si="36"/>
-        <v>2.1679065166173945E-3</v>
+        <f t="shared" si="38"/>
+        <v>2.1975900251851271E-3</v>
       </c>
       <c r="AM86" s="12">
-        <f t="shared" si="37"/>
-        <v>7.70314047827515E-2</v>
+        <f t="shared" si="39"/>
+        <v>7.709741071657851E-2</v>
       </c>
       <c r="AN86" s="12">
-        <f t="shared" si="38"/>
-        <v>1.7529798459558074E-3</v>
+        <f t="shared" si="40"/>
+        <v>1.7320806821576533E-3</v>
       </c>
       <c r="AW86">
         <v>2012</v>
       </c>
       <c r="AX86" s="12">
-        <f t="shared" si="29"/>
-        <v>3.6256894115464485E-3</v>
+        <f t="shared" si="31"/>
+        <v>3.7215946724839131E-3</v>
       </c>
       <c r="AY86" s="12">
-        <f t="shared" si="30"/>
-        <v>7.1751605028559262E-2</v>
+        <f t="shared" si="32"/>
+        <v>7.1481434636537125E-2</v>
       </c>
       <c r="AZ86" s="12">
-        <f t="shared" si="31"/>
-        <v>0.18044117795150008</v>
+        <f t="shared" si="33"/>
+        <v>0.17984430658991196</v>
       </c>
       <c r="BA86" s="12">
-        <f t="shared" si="32"/>
-        <v>5.1364926459564523E-4</v>
+        <f t="shared" si="34"/>
+        <v>5.5776478350391353E-4</v>
       </c>
       <c r="BB86" s="12">
-        <f t="shared" si="33"/>
-        <v>1.954618535940017E-2</v>
+        <f t="shared" si="35"/>
+        <v>2.0076434828557598E-2</v>
       </c>
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.25">
@@ -12618,63 +12685,63 @@
         <v>2013</v>
       </c>
       <c r="B87" s="14">
-        <v>5.5854453388198095</v>
+        <v>5.5856845573969141</v>
       </c>
       <c r="I87">
         <v>2013</v>
       </c>
       <c r="J87" s="14">
-        <v>-2.9139401583547944</v>
+        <v>-2.9145265209814095</v>
       </c>
       <c r="AH87">
         <v>2013</v>
       </c>
       <c r="AI87" s="12">
-        <f t="shared" si="28"/>
-        <v>0.10708795706658654</v>
+        <f t="shared" si="30"/>
+        <v>0.10690185006629663</v>
       </c>
       <c r="AJ87" s="12">
-        <f t="shared" si="34"/>
-        <v>1.8954128341508959E-3</v>
+        <f t="shared" si="36"/>
+        <v>1.9361505622573531E-3</v>
       </c>
       <c r="AK87" s="12">
-        <f t="shared" si="35"/>
-        <v>6.3187497475898066E-2</v>
+        <f t="shared" si="37"/>
+        <v>6.3049699937054574E-2</v>
       </c>
       <c r="AL87" s="12">
-        <f t="shared" si="36"/>
-        <v>8.0413696720764358E-3</v>
+        <f t="shared" si="38"/>
+        <v>7.8355210513253986E-3</v>
       </c>
       <c r="AM87" s="12">
-        <f t="shared" si="37"/>
-        <v>1.0490019092592655E-2</v>
+        <f t="shared" si="39"/>
+        <v>1.0233275121482928E-2</v>
       </c>
       <c r="AN87" s="12">
-        <f t="shared" si="38"/>
-        <v>5.5695585784400359E-3</v>
+        <f t="shared" si="40"/>
+        <v>5.8796854146065001E-3</v>
       </c>
       <c r="AW87">
         <v>2013</v>
       </c>
       <c r="AX87" s="12">
-        <f t="shared" si="29"/>
-        <v>3.1127315820043994E-2</v>
+        <f t="shared" si="31"/>
+        <v>3.1178028798388338E-2</v>
       </c>
       <c r="AY87" s="12">
-        <f t="shared" si="30"/>
-        <v>3.8135520776676653E-2</v>
+        <f t="shared" si="32"/>
+        <v>3.8499756103219485E-2</v>
       </c>
       <c r="AZ87" s="12">
-        <f t="shared" si="31"/>
-        <v>5.0715394963097328E-2</v>
+        <f t="shared" si="33"/>
+        <v>5.028411023694454E-2</v>
       </c>
       <c r="BA87" s="12">
-        <f t="shared" si="32"/>
-        <v>2.7259015725358066E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.7662245054931006E-2</v>
       </c>
       <c r="BB87" s="12">
-        <f t="shared" si="33"/>
-        <v>4.0981965764897849E-2</v>
+        <f t="shared" si="35"/>
+        <v>4.0265986813183025E-2</v>
       </c>
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.25">
@@ -12682,63 +12749,63 @@
         <v>2014</v>
       </c>
       <c r="B88" s="14">
-        <v>5.9623998000687743</v>
+        <v>5.962695842586224</v>
       </c>
       <c r="I88">
         <v>2014</v>
       </c>
       <c r="J88" s="14">
-        <v>-2.9152696547335708</v>
+        <v>-2.9164971121068604</v>
       </c>
       <c r="AH88">
         <v>2014</v>
       </c>
       <c r="AI88" s="12">
-        <f t="shared" si="28"/>
-        <v>0.10766715220159147</v>
+        <f t="shared" si="30"/>
+        <v>0.10710852602118348</v>
       </c>
       <c r="AJ88" s="12">
-        <f t="shared" si="34"/>
-        <v>1.1013952057905157E-3</v>
+        <f t="shared" si="36"/>
+        <v>1.1596103748430528E-3</v>
       </c>
       <c r="AK88" s="12">
-        <f t="shared" si="35"/>
-        <v>8.0436090764840623E-2</v>
+        <f t="shared" si="37"/>
+        <v>8.0611377773463708E-2</v>
       </c>
       <c r="AL88" s="12">
-        <f t="shared" si="36"/>
-        <v>4.4441803521464186E-2</v>
+        <f t="shared" si="38"/>
+        <v>4.4337514308872783E-2</v>
       </c>
       <c r="AM88" s="12">
-        <f t="shared" si="37"/>
-        <v>3.1545796548821086E-4</v>
+        <f t="shared" si="39"/>
+        <v>3.3253278746068392E-4</v>
       </c>
       <c r="AN88" s="12">
-        <f t="shared" si="38"/>
-        <v>2.4189258945847107E-3</v>
+        <f t="shared" si="40"/>
+        <v>2.56682424383537E-3</v>
       </c>
       <c r="AW88">
         <v>2014</v>
       </c>
       <c r="AX88" s="12">
-        <f t="shared" si="29"/>
-        <v>1.267880718364117E-3</v>
+        <f t="shared" si="31"/>
+        <v>1.2821984345453908E-3</v>
       </c>
       <c r="AY88" s="12">
-        <f t="shared" si="30"/>
-        <v>8.3381964876974354E-3</v>
+        <f t="shared" si="32"/>
+        <v>8.369396233364669E-3</v>
       </c>
       <c r="AZ88" s="12">
-        <f t="shared" si="31"/>
-        <v>2.4016264170433531E-2</v>
+        <f t="shared" si="33"/>
+        <v>2.4302160240130107E-2</v>
       </c>
       <c r="BA88" s="12">
-        <f t="shared" si="32"/>
-        <v>3.6644623324527732E-2</v>
+        <f t="shared" si="34"/>
+        <v>3.6978725476013274E-2</v>
       </c>
       <c r="BB88" s="12">
-        <f t="shared" si="33"/>
-        <v>0.12105638461724895</v>
+        <f t="shared" si="35"/>
+        <v>0.12214989872071379</v>
       </c>
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.25">
@@ -12746,63 +12813,63 @@
         <v>2015</v>
       </c>
       <c r="B89" s="14">
-        <v>5.0965989780444412</v>
+        <v>5.0962825984919489</v>
       </c>
       <c r="I89">
         <v>2015</v>
       </c>
       <c r="J89" s="14">
-        <v>-2.8229796880333375</v>
+        <v>-2.8220849611661145</v>
       </c>
       <c r="AH89">
         <v>2015</v>
       </c>
       <c r="AI89" s="12">
-        <f t="shared" si="28"/>
-        <v>6.2198260560454771E-2</v>
+        <f t="shared" si="30"/>
+        <v>6.2498244535384322E-2</v>
       </c>
       <c r="AJ89" s="12">
-        <f t="shared" si="34"/>
-        <v>3.7679363083479756E-3</v>
+        <f t="shared" si="36"/>
+        <v>3.9062215534215157E-3</v>
       </c>
       <c r="AK89" s="12">
-        <f t="shared" si="35"/>
-        <v>5.9225580510224918E-2</v>
+        <f t="shared" si="37"/>
+        <v>5.8789202639195286E-2</v>
       </c>
       <c r="AL89" s="12">
-        <f t="shared" si="36"/>
-        <v>2.6992997144703896E-3</v>
+        <f t="shared" si="38"/>
+        <v>2.9410381317772883E-3</v>
       </c>
       <c r="AM89" s="12">
-        <f t="shared" si="37"/>
-        <v>5.4389063318285998E-4</v>
+        <f t="shared" si="39"/>
+        <v>4.4554860569745344E-4</v>
       </c>
       <c r="AN89" s="12">
-        <f t="shared" si="38"/>
-        <v>5.0580186434734088E-2</v>
+        <f t="shared" si="40"/>
+        <v>4.8984978652112141E-2</v>
       </c>
       <c r="AW89">
         <v>2015</v>
       </c>
       <c r="AX89" s="12">
-        <f t="shared" si="29"/>
-        <v>0.14783206643592245</v>
+        <f t="shared" si="31"/>
+        <v>0.14814900634624578</v>
       </c>
       <c r="AY89" s="12">
-        <f t="shared" si="30"/>
-        <v>7.5558597736161887E-2</v>
+        <f t="shared" si="32"/>
+        <v>7.5410325173786194E-2</v>
       </c>
       <c r="AZ89" s="12">
-        <f t="shared" si="31"/>
-        <v>3.8785584573912034E-2</v>
+        <f t="shared" si="33"/>
+        <v>3.8654058302052326E-2</v>
       </c>
       <c r="BA89" s="12">
-        <f t="shared" si="32"/>
-        <v>1.5103501044660753E-2</v>
+        <f t="shared" si="34"/>
+        <v>1.5361950645018696E-2</v>
       </c>
       <c r="BB89" s="12">
-        <f t="shared" si="33"/>
-        <v>8.5002356577654911E-2</v>
+        <f t="shared" si="35"/>
+        <v>8.5817182126516872E-2</v>
       </c>
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.25">
@@ -12810,30 +12877,30 @@
         <v>2015</v>
       </c>
       <c r="B90" s="14">
-        <v>4.9436936773869409</v>
+        <v>4.9401653831965149</v>
       </c>
       <c r="AW90">
         <v>2016</v>
       </c>
       <c r="AX90" s="12">
-        <f t="shared" si="29"/>
-        <v>1.3581977387928129E-5</v>
+        <f t="shared" si="31"/>
+        <v>3.7850227055894234E-9</v>
       </c>
       <c r="AY90" s="12">
-        <f t="shared" si="30"/>
-        <v>1.4877700597575585E-3</v>
+        <f t="shared" si="32"/>
+        <v>1.4502843921120807E-3</v>
       </c>
       <c r="AZ90" s="12">
-        <f t="shared" si="31"/>
-        <v>9.1234039079065576E-2</v>
+        <f t="shared" si="33"/>
+        <v>9.133477011846354E-2</v>
       </c>
       <c r="BA90" s="12">
-        <f t="shared" si="32"/>
-        <v>1.9953483893703362E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.0029105371649123E-2</v>
       </c>
       <c r="BB90" s="12">
-        <f t="shared" si="33"/>
-        <v>2.0855066138519853E-3</v>
+        <f t="shared" si="35"/>
+        <v>2.1764577069075179E-3</v>
       </c>
     </row>
     <row r="94" spans="1:54" x14ac:dyDescent="0.25">
